--- a/excel_files/accurates_geocoded.xlsx
+++ b/excel_files/accurates_geocoded.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexpiazza/Desktop/for-db/excel_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexpiazza/Desktop/for_db/excel_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F6F593-6090-814A-A7D9-8BE637FD5A58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9E86521-4F29-9048-B30F-40D77E1A4827}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="277">
   <si>
     <t>ADDENDUM_B_WORKSITE_ATTACHED</t>
   </si>
@@ -271,9 +271,6 @@
   </si>
   <si>
     <t>H-300-20163-645163</t>
-  </si>
-  <si>
-    <t>H-300-20119-524313</t>
   </si>
   <si>
     <t>h2visas@aol.com</t>
@@ -874,9 +871,6 @@
     <t>(44.275126, -97.773745)</t>
   </si>
   <si>
-    <t>(46.585084, -67.959887)</t>
-  </si>
-  <si>
     <t>central</t>
   </si>
   <si>
@@ -907,7 +901,22 @@
     <t>(44.335346, -97.79233)</t>
   </si>
   <si>
-    <t>(46.697136, -67.971786)</t>
+    <t>coordinates</t>
+  </si>
+  <si>
+    <t>1, 1</t>
+  </si>
+  <si>
+    <t>placeeeeee</t>
+  </si>
+  <si>
+    <t>placeeee</t>
+  </si>
+  <si>
+    <t>gibberish</t>
+  </si>
+  <si>
+    <t>H-300-20161-6388923</t>
   </si>
 </sst>
 </file>
@@ -941,12 +950,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -980,13 +995,14 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1328,19 +1344,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BL13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="8.83203125" customWidth="1"/>
-    <col min="17" max="19" width="8.83203125" customWidth="1"/>
+    <col min="5" max="5" width="42.6640625" customWidth="1"/>
+    <col min="9" max="9" width="28" customWidth="1"/>
+    <col min="17" max="17" width="17.5" customWidth="1"/>
+    <col min="18" max="18" width="19.83203125" customWidth="1"/>
+    <col min="19" max="19" width="19.1640625" customWidth="1"/>
     <col min="21" max="21" width="8.83203125" customWidth="1"/>
-    <col min="47" max="49" width="8.83203125" customWidth="1"/>
+    <col min="47" max="47" width="8.83203125" customWidth="1"/>
+    <col min="48" max="48" width="16.33203125" customWidth="1"/>
+    <col min="49" max="49" width="8.83203125" customWidth="1"/>
     <col min="52" max="52" width="7" customWidth="1"/>
-    <col min="53" max="58" width="8.83203125" customWidth="1"/>
-    <col min="63" max="63" width="8.83203125" customWidth="1"/>
+    <col min="53" max="53" width="15" customWidth="1"/>
+    <col min="54" max="54" width="17.83203125" customWidth="1"/>
+    <col min="55" max="55" width="23" customWidth="1"/>
+    <col min="56" max="56" width="27" customWidth="1"/>
+    <col min="57" max="57" width="25.83203125" customWidth="1"/>
+    <col min="58" max="58" width="28.83203125" customWidth="1"/>
+    <col min="61" max="61" width="21.33203125" customWidth="1"/>
+    <col min="62" max="62" width="18.1640625" customWidth="1"/>
+    <col min="63" max="63" width="28.6640625" customWidth="1"/>
+    <col min="64" max="64" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:64" x14ac:dyDescent="0.2">
@@ -1534,7 +1563,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:64" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1554,19 +1583,19 @@
         <v>43973</v>
       </c>
       <c r="H2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J2">
         <v>12709324115</v>
       </c>
       <c r="K2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M2" s="2">
         <v>44027</v>
@@ -1578,37 +1607,37 @@
         <v>0</v>
       </c>
       <c r="P2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="R2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="U2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="V2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="W2">
         <v>6</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AA2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AB2">
         <v>15</v>
@@ -1617,22 +1646,22 @@
         <v>12704054107</v>
       </c>
       <c r="AE2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AF2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AH2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AI2" s="2">
         <v>43957</v>
       </c>
       <c r="AJ2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AK2">
         <v>6</v>
@@ -1647,61 +1676,61 @@
         <v>6</v>
       </c>
       <c r="AP2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AQ2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AR2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AS2">
         <v>12.4</v>
       </c>
       <c r="AT2" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AU2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AV2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AW2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AX2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AY2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AZ2">
         <v>0</v>
       </c>
       <c r="BA2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="BC2">
         <v>1</v>
       </c>
       <c r="BD2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="BE2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="BH2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="BI2">
         <v>1</v>
       </c>
       <c r="BJ2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="BK2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:64" x14ac:dyDescent="0.2">
@@ -1724,22 +1753,22 @@
         <v>43973</v>
       </c>
       <c r="G3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J3">
         <v>17172840111</v>
       </c>
       <c r="K3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M3" s="2">
         <v>44013</v>
@@ -1751,34 +1780,34 @@
         <v>0</v>
       </c>
       <c r="Q3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="R3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="T3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="U3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="V3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="W3">
         <v>5</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AA3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AB3">
         <v>12</v>
@@ -1787,22 +1816,22 @@
         <v>12295590241</v>
       </c>
       <c r="AE3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AF3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AG3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AH3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AI3" s="2">
         <v>43958</v>
       </c>
       <c r="AJ3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AK3">
         <v>5</v>
@@ -1817,58 +1846,58 @@
         <v>5</v>
       </c>
       <c r="AP3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AQ3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AR3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AS3">
         <v>13.34</v>
       </c>
       <c r="AU3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AV3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AW3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AX3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AY3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AZ3">
         <v>0</v>
       </c>
       <c r="BA3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="BC3">
         <v>1</v>
       </c>
       <c r="BD3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="BE3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="BH3" t="s">
+        <v>261</v>
+      </c>
+      <c r="BI3">
+        <v>1</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>251</v>
+      </c>
+      <c r="BK3" t="s">
         <v>263</v>
-      </c>
-      <c r="BI3">
-        <v>1</v>
-      </c>
-      <c r="BJ3" t="s">
-        <v>252</v>
-      </c>
-      <c r="BK3" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="4" spans="1:64" x14ac:dyDescent="0.2">
@@ -1891,19 +1920,19 @@
         <v>43973</v>
       </c>
       <c r="H4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J4">
         <v>16153899842</v>
       </c>
       <c r="K4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M4" s="2">
         <v>44032</v>
@@ -1915,34 +1944,34 @@
         <v>1</v>
       </c>
       <c r="Q4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="R4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="T4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="U4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="V4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="W4">
         <v>16</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AA4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AB4">
         <v>20</v>
@@ -1951,22 +1980,22 @@
         <v>16153899842</v>
       </c>
       <c r="AE4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AF4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AH4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AI4" s="2">
         <v>43959</v>
       </c>
       <c r="AJ4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AK4">
         <v>20</v>
@@ -1981,61 +2010,61 @@
         <v>8</v>
       </c>
       <c r="AP4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AQ4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AR4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AS4">
         <v>12.4</v>
       </c>
       <c r="AT4" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AU4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AV4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AW4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AX4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AY4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AZ4">
         <v>3</v>
       </c>
       <c r="BA4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BC4">
         <v>1</v>
       </c>
       <c r="BD4" t="s">
+        <v>251</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>255</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>261</v>
+      </c>
+      <c r="BI4">
+        <v>1</v>
+      </c>
+      <c r="BJ4" t="s">
         <v>252</v>
       </c>
-      <c r="BE4" t="s">
-        <v>256</v>
-      </c>
-      <c r="BH4" t="s">
-        <v>263</v>
-      </c>
-      <c r="BI4">
-        <v>1</v>
-      </c>
-      <c r="BJ4" t="s">
-        <v>253</v>
-      </c>
       <c r="BK4" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:64" x14ac:dyDescent="0.2">
@@ -2058,19 +2087,19 @@
         <v>43973</v>
       </c>
       <c r="H5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J5">
         <v>12703452026</v>
       </c>
       <c r="K5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M5" s="2">
         <v>44032</v>
@@ -2082,34 +2111,34 @@
         <v>0</v>
       </c>
       <c r="Q5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="T5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="U5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="V5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="W5">
         <v>4</v>
       </c>
       <c r="X5" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="Z5" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AA5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AB5">
         <v>14</v>
@@ -2118,22 +2147,22 @@
         <v>12703452026</v>
       </c>
       <c r="AE5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AF5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AH5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AI5" s="2">
         <v>43964</v>
       </c>
       <c r="AJ5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AK5">
         <v>8</v>
@@ -2148,61 +2177,61 @@
         <v>4</v>
       </c>
       <c r="AP5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AQ5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AR5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AS5">
         <v>12.4</v>
       </c>
       <c r="AT5" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AU5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AV5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AW5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AX5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AY5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AZ5">
         <v>0</v>
       </c>
       <c r="BA5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="BC5">
         <v>0.9</v>
       </c>
       <c r="BD5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="BE5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="BH5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="BI5">
         <v>0.9</v>
       </c>
       <c r="BJ5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="BK5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:64" x14ac:dyDescent="0.2">
@@ -2225,19 +2254,19 @@
         <v>43973</v>
       </c>
       <c r="H6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J6">
         <v>15206801705</v>
       </c>
       <c r="K6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M6" s="2">
         <v>44032</v>
@@ -2249,37 +2278,37 @@
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="R6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="T6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="U6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="V6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="W6">
         <v>8</v>
       </c>
       <c r="X6" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Z6" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AA6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AB6">
         <v>14</v>
@@ -2288,22 +2317,22 @@
         <v>15026801705</v>
       </c>
       <c r="AE6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AF6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AG6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AH6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AI6" s="2">
         <v>43964</v>
       </c>
       <c r="AJ6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AK6">
         <v>8</v>
@@ -2318,61 +2347,61 @@
         <v>8</v>
       </c>
       <c r="AP6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AQ6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AR6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AS6">
         <v>12.4</v>
       </c>
       <c r="AT6" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AU6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AV6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AW6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AX6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AY6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AZ6">
         <v>0</v>
       </c>
       <c r="BA6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="BC6">
         <v>1</v>
       </c>
       <c r="BD6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="BE6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="BH6" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="BI6">
         <v>1</v>
       </c>
       <c r="BJ6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="BK6" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="7" spans="1:64" x14ac:dyDescent="0.2">
@@ -2395,19 +2424,19 @@
         <v>43973</v>
       </c>
       <c r="H7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J7">
         <v>12704024069</v>
       </c>
       <c r="K7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M7" s="2">
         <v>44022</v>
@@ -2419,37 +2448,37 @@
         <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="R7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="S7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="T7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="U7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="V7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="W7">
         <v>4</v>
       </c>
       <c r="X7" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Z7" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AA7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AB7">
         <v>15</v>
@@ -2458,22 +2487,22 @@
         <v>12704024069</v>
       </c>
       <c r="AE7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AG7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AH7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AI7" s="2">
         <v>43964</v>
       </c>
       <c r="AJ7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AK7">
         <v>10</v>
@@ -2488,61 +2517,61 @@
         <v>4</v>
       </c>
       <c r="AP7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AQ7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AR7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AS7">
         <v>12.4</v>
       </c>
       <c r="AT7" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AU7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AV7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AW7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AX7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AY7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AZ7">
         <v>0</v>
       </c>
       <c r="BA7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="BC7">
         <v>1</v>
       </c>
       <c r="BD7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="BE7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BH7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="BI7">
         <v>1</v>
       </c>
       <c r="BJ7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="BK7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="8" spans="1:64" x14ac:dyDescent="0.2">
@@ -2565,22 +2594,22 @@
         <v>43973</v>
       </c>
       <c r="G8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J8">
         <v>17325988597</v>
       </c>
       <c r="K8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M8" s="2">
         <v>44009</v>
@@ -2592,34 +2621,34 @@
         <v>1</v>
       </c>
       <c r="Q8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="R8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="S8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="T8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="U8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="V8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="W8">
         <v>3</v>
       </c>
       <c r="X8" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Z8" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AA8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AB8">
         <v>9</v>
@@ -2628,22 +2657,22 @@
         <v>17325988597</v>
       </c>
       <c r="AE8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AF8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AG8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AH8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AI8" s="2">
         <v>43964</v>
       </c>
       <c r="AJ8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AK8">
         <v>3</v>
@@ -2658,58 +2687,58 @@
         <v>3</v>
       </c>
       <c r="AP8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AQ8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AR8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AS8">
         <v>13.34</v>
       </c>
       <c r="AU8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AV8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AW8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AX8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AY8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AZ8">
         <v>1</v>
       </c>
       <c r="BA8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="BC8">
         <v>1</v>
       </c>
       <c r="BD8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="BE8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="BH8" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="BI8">
         <v>1</v>
       </c>
       <c r="BJ8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="BK8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="9" spans="1:64" x14ac:dyDescent="0.2">
@@ -2732,19 +2761,19 @@
         <v>43973</v>
       </c>
       <c r="H9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J9">
         <v>14024236653</v>
       </c>
       <c r="K9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M9" s="2">
         <v>44033</v>
@@ -2756,19 +2785,19 @@
         <v>1</v>
       </c>
       <c r="P9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="V9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="X9" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Z9" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AA9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AC9">
         <v>12</v>
@@ -2780,49 +2809,49 @@
         <v>43964</v>
       </c>
       <c r="AJ9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AN9">
         <v>12</v>
       </c>
       <c r="AQ9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AS9">
         <v>25.08</v>
       </c>
       <c r="AT9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AU9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AV9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AX9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AY9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AZ9">
         <v>6</v>
       </c>
       <c r="BA9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="BH9" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="BI9">
         <v>1</v>
       </c>
       <c r="BJ9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="BK9" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:64" x14ac:dyDescent="0.2">
@@ -2845,22 +2874,22 @@
         <v>43973</v>
       </c>
       <c r="G10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J10">
         <v>12082924290</v>
       </c>
       <c r="K10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M10" s="2">
         <v>44004</v>
@@ -2872,19 +2901,19 @@
         <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="V10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="X10" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Z10" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AA10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AC10">
         <v>190</v>
@@ -2896,46 +2925,46 @@
         <v>43969</v>
       </c>
       <c r="AJ10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AN10">
         <v>190</v>
       </c>
       <c r="AQ10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AS10">
         <v>10.95</v>
       </c>
       <c r="AU10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AV10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AX10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AY10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AZ10">
         <v>0</v>
       </c>
       <c r="BA10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="BH10" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="BI10">
         <v>1</v>
       </c>
       <c r="BJ10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="BK10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="11" spans="1:64" x14ac:dyDescent="0.2">
@@ -2958,22 +2987,22 @@
         <v>43973</v>
       </c>
       <c r="G11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J11">
         <v>19109975011</v>
       </c>
       <c r="K11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M11" s="2">
         <v>44030</v>
@@ -2985,16 +3014,16 @@
         <v>1</v>
       </c>
       <c r="V11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="X11" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Z11" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AA11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AC11">
         <v>50</v>
@@ -3006,46 +3035,46 @@
         <v>43972</v>
       </c>
       <c r="AJ11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AN11">
         <v>50</v>
       </c>
       <c r="AQ11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AS11">
         <v>11.89</v>
       </c>
       <c r="AU11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AV11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AX11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AY11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AZ11">
         <v>3</v>
       </c>
       <c r="BA11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="BH11" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="BI11">
         <v>1</v>
       </c>
       <c r="BJ11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="BK11" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12" spans="1:64" x14ac:dyDescent="0.2">
@@ -3068,22 +3097,22 @@
         <v>44007.046527777777</v>
       </c>
       <c r="G12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J12">
         <v>16055462485</v>
       </c>
       <c r="K12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M12" s="2">
         <v>44068</v>
@@ -3095,34 +3124,34 @@
         <v>1</v>
       </c>
       <c r="Q12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="R12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="S12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="T12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="U12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="V12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="W12">
         <v>10</v>
       </c>
       <c r="X12" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Z12" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AA12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AB12">
         <v>14</v>
@@ -3131,16 +3160,16 @@
         <v>16055462485</v>
       </c>
       <c r="AE12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AF12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AG12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AH12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AI12" s="2">
         <v>44006</v>
@@ -3158,61 +3187,61 @@
         <v>10</v>
       </c>
       <c r="AP12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AQ12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AR12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AS12">
         <v>14.99</v>
       </c>
       <c r="AU12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AV12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AW12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AX12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AY12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AZ12">
         <v>3</v>
       </c>
       <c r="BA12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="BC12">
         <v>1</v>
       </c>
       <c r="BD12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="BE12" t="s">
+        <v>260</v>
+      </c>
+      <c r="BH12" t="s">
         <v>261</v>
       </c>
-      <c r="BH12" t="s">
-        <v>263</v>
-      </c>
       <c r="BI12">
         <v>1</v>
       </c>
       <c r="BJ12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="BK12" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
-    <row r="13" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:64" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -3225,26 +3254,26 @@
       <c r="D13">
         <v>54</v>
       </c>
-      <c r="E13" t="s">
-        <v>83</v>
+      <c r="E13" s="4" t="s">
+        <v>276</v>
       </c>
       <c r="F13" s="2">
         <v>43973</v>
       </c>
       <c r="H13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J13">
         <v>12077644540</v>
       </c>
       <c r="K13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M13" s="2">
         <v>44021</v>
@@ -3256,37 +3285,37 @@
         <v>1</v>
       </c>
       <c r="P13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="R13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="S13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="T13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="U13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="V13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="W13">
         <v>185</v>
       </c>
       <c r="X13" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Z13" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AA13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AB13">
         <v>15</v>
@@ -3295,22 +3324,22 @@
         <v>12077644540</v>
       </c>
       <c r="AE13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AF13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AG13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AH13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AI13" s="2">
         <v>43955</v>
       </c>
       <c r="AJ13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AK13">
         <v>120</v>
@@ -3325,61 +3354,70 @@
         <v>100</v>
       </c>
       <c r="AP13" t="s">
+        <v>226</v>
+      </c>
+      <c r="AQ13" t="s">
         <v>227</v>
       </c>
-      <c r="AQ13" t="s">
-        <v>228</v>
-      </c>
       <c r="AR13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AS13">
         <v>14.29</v>
       </c>
       <c r="AT13" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AU13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AV13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AW13" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AX13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AY13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AZ13">
         <v>3</v>
       </c>
       <c r="BA13" t="s">
-        <v>133</v>
+        <v>132</v>
+      </c>
+      <c r="BB13" t="b">
+        <v>1</v>
       </c>
       <c r="BC13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BD13" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="BE13" t="s">
-        <v>262</v>
+        <v>272</v>
+      </c>
+      <c r="BF13" t="s">
+        <v>271</v>
       </c>
       <c r="BH13" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="BI13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BJ13" t="s">
-        <v>252</v>
+        <v>274</v>
       </c>
       <c r="BK13" t="s">
-        <v>273</v>
+        <v>272</v>
+      </c>
+      <c r="BL13" t="s">
+        <v>275</v>
       </c>
     </row>
   </sheetData>

--- a/excel_files/accurates_geocoded.xlsx
+++ b/excel_files/accurates_geocoded.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexpiazza/Desktop/for_db/excel_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9E86521-4F29-9048-B30F-40D77E1A4827}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{805B1743-8AE8-FA49-9A87-BCB4AD1E4969}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="274">
   <si>
     <t>ADDENDUM_B_WORKSITE_ATTACHED</t>
   </si>
@@ -271,6 +271,9 @@
   </si>
   <si>
     <t>H-300-20163-645163</t>
+  </si>
+  <si>
+    <t>H-300-20119-524313</t>
   </si>
   <si>
     <t>h2visas@aol.com</t>
@@ -871,6 +874,9 @@
     <t>(44.275126, -97.773745)</t>
   </si>
   <si>
+    <t>(46.585084, -67.959887)</t>
+  </si>
+  <si>
     <t>central</t>
   </si>
   <si>
@@ -901,22 +907,7 @@
     <t>(44.335346, -97.79233)</t>
   </si>
   <si>
-    <t>coordinates</t>
-  </si>
-  <si>
-    <t>1, 1</t>
-  </si>
-  <si>
-    <t>placeeeeee</t>
-  </si>
-  <si>
-    <t>placeeee</t>
-  </si>
-  <si>
-    <t>gibberish</t>
-  </si>
-  <si>
-    <t>H-300-20161-6388923</t>
+    <t>(46.697136, -67.971786)</t>
   </si>
 </sst>
 </file>
@@ -950,18 +941,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -995,14 +980,13 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1344,32 +1328,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BL13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BB13" sqref="BB13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="5" max="5" width="42.6640625" customWidth="1"/>
-    <col min="9" max="9" width="28" customWidth="1"/>
-    <col min="17" max="17" width="17.5" customWidth="1"/>
-    <col min="18" max="18" width="19.83203125" customWidth="1"/>
-    <col min="19" max="19" width="19.1640625" customWidth="1"/>
+    <col min="9" max="9" width="8.83203125" customWidth="1"/>
+    <col min="17" max="19" width="8.83203125" customWidth="1"/>
     <col min="21" max="21" width="8.83203125" customWidth="1"/>
-    <col min="47" max="47" width="8.83203125" customWidth="1"/>
-    <col min="48" max="48" width="16.33203125" customWidth="1"/>
-    <col min="49" max="49" width="8.83203125" customWidth="1"/>
+    <col min="47" max="49" width="8.83203125" customWidth="1"/>
     <col min="52" max="52" width="7" customWidth="1"/>
-    <col min="53" max="53" width="15" customWidth="1"/>
-    <col min="54" max="54" width="17.83203125" customWidth="1"/>
-    <col min="55" max="55" width="23" customWidth="1"/>
-    <col min="56" max="56" width="27" customWidth="1"/>
-    <col min="57" max="57" width="25.83203125" customWidth="1"/>
-    <col min="58" max="58" width="28.83203125" customWidth="1"/>
-    <col min="61" max="61" width="21.33203125" customWidth="1"/>
-    <col min="62" max="62" width="18.1640625" customWidth="1"/>
-    <col min="63" max="63" width="28.6640625" customWidth="1"/>
-    <col min="64" max="64" width="16.6640625" customWidth="1"/>
+    <col min="53" max="58" width="8.83203125" customWidth="1"/>
+    <col min="61" max="64" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:64" x14ac:dyDescent="0.2">
@@ -1563,7 +1535,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:64" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1583,19 +1555,19 @@
         <v>43973</v>
       </c>
       <c r="H2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J2">
         <v>12709324115</v>
       </c>
       <c r="K2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M2" s="2">
         <v>44027</v>
@@ -1607,37 +1579,37 @@
         <v>0</v>
       </c>
       <c r="P2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="R2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="S2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="T2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="U2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="V2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="W2">
         <v>6</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AA2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AB2">
         <v>15</v>
@@ -1646,22 +1618,22 @@
         <v>12704054107</v>
       </c>
       <c r="AE2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AF2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AG2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AH2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AI2" s="2">
         <v>43957</v>
       </c>
       <c r="AJ2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AK2">
         <v>6</v>
@@ -1676,61 +1648,61 @@
         <v>6</v>
       </c>
       <c r="AP2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AQ2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AR2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AS2">
         <v>12.4</v>
       </c>
       <c r="AT2" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AU2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AV2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AW2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AX2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AY2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AZ2">
         <v>0</v>
       </c>
       <c r="BA2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="BC2">
         <v>1</v>
       </c>
       <c r="BD2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="BE2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="BH2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="BI2">
         <v>1</v>
       </c>
       <c r="BJ2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="BK2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3" spans="1:64" x14ac:dyDescent="0.2">
@@ -1753,22 +1725,22 @@
         <v>43973</v>
       </c>
       <c r="G3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J3">
         <v>17172840111</v>
       </c>
       <c r="K3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M3" s="2">
         <v>44013</v>
@@ -1780,34 +1752,34 @@
         <v>0</v>
       </c>
       <c r="Q3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="R3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="S3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="T3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="U3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="V3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="W3">
         <v>5</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AA3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AB3">
         <v>12</v>
@@ -1816,22 +1788,22 @@
         <v>12295590241</v>
       </c>
       <c r="AE3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AF3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AG3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AH3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AI3" s="2">
         <v>43958</v>
       </c>
       <c r="AJ3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AK3">
         <v>5</v>
@@ -1846,58 +1818,58 @@
         <v>5</v>
       </c>
       <c r="AP3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AQ3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AR3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AS3">
         <v>13.34</v>
       </c>
       <c r="AU3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AV3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AW3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AX3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AY3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AZ3">
         <v>0</v>
       </c>
       <c r="BA3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="BC3">
         <v>1</v>
       </c>
       <c r="BD3" t="s">
+        <v>253</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>255</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>263</v>
+      </c>
+      <c r="BI3">
+        <v>1</v>
+      </c>
+      <c r="BJ3" t="s">
         <v>252</v>
       </c>
-      <c r="BE3" t="s">
-        <v>254</v>
-      </c>
-      <c r="BH3" t="s">
-        <v>261</v>
-      </c>
-      <c r="BI3">
-        <v>1</v>
-      </c>
-      <c r="BJ3" t="s">
-        <v>251</v>
-      </c>
       <c r="BK3" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="4" spans="1:64" x14ac:dyDescent="0.2">
@@ -1920,19 +1892,19 @@
         <v>43973</v>
       </c>
       <c r="H4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J4">
         <v>16153899842</v>
       </c>
       <c r="K4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M4" s="2">
         <v>44032</v>
@@ -1944,34 +1916,34 @@
         <v>1</v>
       </c>
       <c r="Q4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="R4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="S4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="T4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="U4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="V4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="W4">
         <v>16</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AA4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AB4">
         <v>20</v>
@@ -1980,22 +1952,22 @@
         <v>16153899842</v>
       </c>
       <c r="AE4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AF4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AG4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AH4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AI4" s="2">
         <v>43959</v>
       </c>
       <c r="AJ4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AK4">
         <v>20</v>
@@ -2010,61 +1982,61 @@
         <v>8</v>
       </c>
       <c r="AP4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AQ4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AR4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AS4">
         <v>12.4</v>
       </c>
       <c r="AT4" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AU4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AV4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AW4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AX4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AY4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AZ4">
         <v>3</v>
       </c>
       <c r="BA4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BC4">
         <v>1</v>
       </c>
       <c r="BD4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="BE4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="BH4" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="BI4">
         <v>1</v>
       </c>
       <c r="BJ4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="BK4" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:64" x14ac:dyDescent="0.2">
@@ -2087,19 +2059,19 @@
         <v>43973</v>
       </c>
       <c r="H5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J5">
         <v>12703452026</v>
       </c>
       <c r="K5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M5" s="2">
         <v>44032</v>
@@ -2111,34 +2083,34 @@
         <v>0</v>
       </c>
       <c r="Q5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="R5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="S5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="T5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="U5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="V5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="W5">
         <v>4</v>
       </c>
       <c r="X5" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Z5" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AA5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AB5">
         <v>14</v>
@@ -2147,22 +2119,22 @@
         <v>12703452026</v>
       </c>
       <c r="AE5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AF5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AG5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AH5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AI5" s="2">
         <v>43964</v>
       </c>
       <c r="AJ5" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AK5">
         <v>8</v>
@@ -2177,61 +2149,61 @@
         <v>4</v>
       </c>
       <c r="AP5" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AQ5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AR5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AS5">
         <v>12.4</v>
       </c>
       <c r="AT5" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AU5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AV5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AW5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AX5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AY5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AZ5">
         <v>0</v>
       </c>
       <c r="BA5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="BC5">
         <v>0.9</v>
       </c>
       <c r="BD5" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="BE5" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="BH5" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="BI5">
         <v>0.9</v>
       </c>
       <c r="BJ5" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="BK5" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:64" x14ac:dyDescent="0.2">
@@ -2254,19 +2226,19 @@
         <v>43973</v>
       </c>
       <c r="H6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J6">
         <v>15206801705</v>
       </c>
       <c r="K6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M6" s="2">
         <v>44032</v>
@@ -2278,37 +2250,37 @@
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="R6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="S6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="T6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="U6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="V6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="W6">
         <v>8</v>
       </c>
       <c r="X6" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Z6" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AA6" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AB6">
         <v>14</v>
@@ -2317,22 +2289,22 @@
         <v>15026801705</v>
       </c>
       <c r="AE6" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AF6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AG6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AH6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AI6" s="2">
         <v>43964</v>
       </c>
       <c r="AJ6" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AK6">
         <v>8</v>
@@ -2347,61 +2319,61 @@
         <v>8</v>
       </c>
       <c r="AP6" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AQ6" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AR6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AS6">
         <v>12.4</v>
       </c>
       <c r="AT6" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AU6" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AV6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AW6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AX6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AY6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AZ6">
         <v>0</v>
       </c>
       <c r="BA6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="BC6">
         <v>1</v>
       </c>
       <c r="BD6" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="BE6" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="BH6" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="BI6">
         <v>1</v>
       </c>
       <c r="BJ6" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="BK6" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="7" spans="1:64" x14ac:dyDescent="0.2">
@@ -2424,19 +2396,19 @@
         <v>43973</v>
       </c>
       <c r="H7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J7">
         <v>12704024069</v>
       </c>
       <c r="K7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M7" s="2">
         <v>44022</v>
@@ -2448,37 +2420,37 @@
         <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="R7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="S7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="T7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="U7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="V7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="W7">
         <v>4</v>
       </c>
       <c r="X7" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Z7" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AA7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AB7">
         <v>15</v>
@@ -2487,22 +2459,22 @@
         <v>12704024069</v>
       </c>
       <c r="AE7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AF7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AG7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AH7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AI7" s="2">
         <v>43964</v>
       </c>
       <c r="AJ7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AK7">
         <v>10</v>
@@ -2517,61 +2489,61 @@
         <v>4</v>
       </c>
       <c r="AP7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AQ7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AR7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AS7">
         <v>12.4</v>
       </c>
       <c r="AT7" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AU7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AV7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AW7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AX7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AY7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AZ7">
         <v>0</v>
       </c>
       <c r="BA7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="BC7">
         <v>1</v>
       </c>
       <c r="BD7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="BE7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="BH7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="BI7">
         <v>1</v>
       </c>
       <c r="BJ7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="BK7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="8" spans="1:64" x14ac:dyDescent="0.2">
@@ -2594,22 +2566,22 @@
         <v>43973</v>
       </c>
       <c r="G8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J8">
         <v>17325988597</v>
       </c>
       <c r="K8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M8" s="2">
         <v>44009</v>
@@ -2621,34 +2593,34 @@
         <v>1</v>
       </c>
       <c r="Q8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="R8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="S8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="T8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="U8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="V8" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="W8">
         <v>3</v>
       </c>
       <c r="X8" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Z8" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AA8" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AB8">
         <v>9</v>
@@ -2657,22 +2629,22 @@
         <v>17325988597</v>
       </c>
       <c r="AE8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AF8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AG8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AH8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AI8" s="2">
         <v>43964</v>
       </c>
       <c r="AJ8" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AK8">
         <v>3</v>
@@ -2687,58 +2659,58 @@
         <v>3</v>
       </c>
       <c r="AP8" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AQ8" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AR8" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AS8">
         <v>13.34</v>
       </c>
       <c r="AU8" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AV8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AW8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AX8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AY8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AZ8">
         <v>1</v>
       </c>
       <c r="BA8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="BC8">
         <v>1</v>
       </c>
       <c r="BD8" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="BE8" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="BH8" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="BI8">
         <v>1</v>
       </c>
       <c r="BJ8" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="BK8" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:64" x14ac:dyDescent="0.2">
@@ -2761,19 +2733,19 @@
         <v>43973</v>
       </c>
       <c r="H9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J9">
         <v>14024236653</v>
       </c>
       <c r="K9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M9" s="2">
         <v>44033</v>
@@ -2785,19 +2757,19 @@
         <v>1</v>
       </c>
       <c r="P9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="V9" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="X9" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Z9" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AA9" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AC9">
         <v>12</v>
@@ -2809,49 +2781,49 @@
         <v>43964</v>
       </c>
       <c r="AJ9" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AN9">
         <v>12</v>
       </c>
       <c r="AQ9" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AS9">
         <v>25.08</v>
       </c>
       <c r="AT9" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AU9" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AV9" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AX9" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AY9" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AZ9">
         <v>6</v>
       </c>
       <c r="BA9" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="BH9" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="BI9">
         <v>1</v>
       </c>
       <c r="BJ9" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="BK9" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:64" x14ac:dyDescent="0.2">
@@ -2874,22 +2846,22 @@
         <v>43973</v>
       </c>
       <c r="G10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J10">
         <v>12082924290</v>
       </c>
       <c r="K10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M10" s="2">
         <v>44004</v>
@@ -2901,19 +2873,19 @@
         <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="V10" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="X10" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Z10" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AA10" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AC10">
         <v>190</v>
@@ -2925,46 +2897,46 @@
         <v>43969</v>
       </c>
       <c r="AJ10" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AN10">
         <v>190</v>
       </c>
       <c r="AQ10" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AS10">
         <v>10.95</v>
       </c>
       <c r="AU10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AV10" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AX10" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AY10" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AZ10">
         <v>0</v>
       </c>
       <c r="BA10" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="BH10" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="BI10">
         <v>1</v>
       </c>
       <c r="BJ10" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="BK10" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:64" x14ac:dyDescent="0.2">
@@ -2987,22 +2959,22 @@
         <v>43973</v>
       </c>
       <c r="G11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J11">
         <v>19109975011</v>
       </c>
       <c r="K11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M11" s="2">
         <v>44030</v>
@@ -3014,16 +2986,16 @@
         <v>1</v>
       </c>
       <c r="V11" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="X11" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Z11" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AA11" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AC11">
         <v>50</v>
@@ -3035,46 +3007,46 @@
         <v>43972</v>
       </c>
       <c r="AJ11" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AN11">
         <v>50</v>
       </c>
       <c r="AQ11" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AS11">
         <v>11.89</v>
       </c>
       <c r="AU11" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AV11" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AX11" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AY11" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AZ11">
         <v>3</v>
       </c>
       <c r="BA11" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="BH11" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="BI11">
         <v>1</v>
       </c>
       <c r="BJ11" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="BK11" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:64" x14ac:dyDescent="0.2">
@@ -3097,22 +3069,22 @@
         <v>44007.046527777777</v>
       </c>
       <c r="G12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H12" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J12">
         <v>16055462485</v>
       </c>
       <c r="K12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M12" s="2">
         <v>44068</v>
@@ -3124,34 +3096,34 @@
         <v>1</v>
       </c>
       <c r="Q12" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="R12" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="S12" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="T12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="U12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="V12" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="W12">
         <v>10</v>
       </c>
       <c r="X12" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Z12" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AA12" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AB12">
         <v>14</v>
@@ -3160,16 +3132,16 @@
         <v>16055462485</v>
       </c>
       <c r="AE12" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF12" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AG12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AH12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AI12" s="2">
         <v>44006</v>
@@ -3187,61 +3159,61 @@
         <v>10</v>
       </c>
       <c r="AP12" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AQ12" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AR12" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AS12">
         <v>14.99</v>
       </c>
       <c r="AU12" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AV12" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AW12" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AX12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AY12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AZ12">
         <v>3</v>
       </c>
       <c r="BA12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="BC12">
         <v>1</v>
       </c>
       <c r="BD12" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="BE12" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="BH12" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="BI12">
         <v>1</v>
       </c>
       <c r="BJ12" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="BK12" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
-    <row r="13" spans="1:64" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -3254,26 +3226,26 @@
       <c r="D13">
         <v>54</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>276</v>
+      <c r="E13" t="s">
+        <v>83</v>
       </c>
       <c r="F13" s="2">
         <v>43973</v>
       </c>
       <c r="H13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J13">
         <v>12077644540</v>
       </c>
       <c r="K13" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M13" s="2">
         <v>44021</v>
@@ -3285,37 +3257,37 @@
         <v>1</v>
       </c>
       <c r="P13" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q13" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="R13" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="S13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="T13" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="U13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="V13" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="W13">
         <v>185</v>
       </c>
       <c r="X13" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Z13" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AA13" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AB13">
         <v>15</v>
@@ -3324,22 +3296,22 @@
         <v>12077644540</v>
       </c>
       <c r="AE13" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AF13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AG13" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AH13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AI13" s="2">
         <v>43955</v>
       </c>
       <c r="AJ13" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AK13">
         <v>120</v>
@@ -3354,70 +3326,64 @@
         <v>100</v>
       </c>
       <c r="AP13" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AQ13" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AR13" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AS13">
         <v>14.29</v>
       </c>
       <c r="AT13" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AU13" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AV13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AW13" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AX13" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AY13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AZ13">
         <v>3</v>
       </c>
       <c r="BA13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="BB13" t="b">
         <v>1</v>
       </c>
       <c r="BC13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BD13" t="s">
+        <v>253</v>
+      </c>
+      <c r="BE13" t="s">
+        <v>262</v>
+      </c>
+      <c r="BH13" t="s">
+        <v>263</v>
+      </c>
+      <c r="BI13">
+        <v>1</v>
+      </c>
+      <c r="BJ13" t="s">
+        <v>252</v>
+      </c>
+      <c r="BK13" t="s">
         <v>273</v>
-      </c>
-      <c r="BE13" t="s">
-        <v>272</v>
-      </c>
-      <c r="BF13" t="s">
-        <v>271</v>
-      </c>
-      <c r="BH13" t="s">
-        <v>261</v>
-      </c>
-      <c r="BI13">
-        <v>2</v>
-      </c>
-      <c r="BJ13" t="s">
-        <v>274</v>
-      </c>
-      <c r="BK13" t="s">
-        <v>272</v>
-      </c>
-      <c r="BL13" t="s">
-        <v>275</v>
       </c>
     </row>
   </sheetData>

--- a/excel_files/accurates_geocoded.xlsx
+++ b/excel_files/accurates_geocoded.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10810"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexpiazza/Desktop/for_db/excel_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB202EAC-2497-A84E-BDAC-9B841E46EEB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBFE6017-E3F9-174F-8C05-1D1FBE741AAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="624">
   <si>
     <t>CASE_NUMBER</t>
   </si>
@@ -184,6 +184,9 @@
     <t>notes</t>
   </si>
   <si>
+    <t>worksite_fixed_by</t>
+  </si>
+  <si>
     <t>housing_fixed_by</t>
   </si>
   <si>
@@ -214,283 +217,808 @@
     <t>housing_lat</t>
   </si>
   <si>
+    <t>Unnamed: 0</t>
+  </si>
+  <si>
+    <t>1st_PWD_CASE_NUMBER</t>
+  </si>
+  <si>
+    <t>2nd_PWD_CASE_NUMBER</t>
+  </si>
+  <si>
+    <t>3rd_PWD_CASE_NUMBER</t>
+  </si>
+  <si>
+    <t>790A_ADDENDUM_B_ATTACHED</t>
+  </si>
+  <si>
+    <t>790A_addendum_a_attached</t>
+  </si>
+  <si>
+    <t>ADDENDUM_B_HOUSING_ATTACHED</t>
+  </si>
+  <si>
+    <t>APPENDIX_A_ATTACHED</t>
+  </si>
+  <si>
+    <t>APPENDIX_D_COMPLETED</t>
+  </si>
+  <si>
+    <t>ATTORNEY_AGENT_ADDRESS1</t>
+  </si>
+  <si>
+    <t>ATTORNEY_AGENT_ADDRESS2</t>
+  </si>
+  <si>
+    <t>ATTORNEY_AGENT_ADDRESS_1</t>
+  </si>
+  <si>
+    <t>ATTORNEY_AGENT_ADDRESS_2</t>
+  </si>
+  <si>
+    <t>ATTORNEY_AGENT_CITY</t>
+  </si>
+  <si>
+    <t>ATTORNEY_AGENT_COUNTRY</t>
+  </si>
+  <si>
+    <t>ATTORNEY_AGENT_EMAIL</t>
+  </si>
+  <si>
+    <t>ATTORNEY_AGENT_EMAIL_ADDRESS</t>
+  </si>
+  <si>
+    <t>ATTORNEY_AGENT_FIRST_NAME</t>
+  </si>
+  <si>
+    <t>ATTORNEY_AGENT_LAST_NAME</t>
+  </si>
+  <si>
+    <t>ATTORNEY_AGENT_MIDDLE_NAME</t>
+  </si>
+  <si>
+    <t>ATTORNEY_AGENT_PHONE</t>
+  </si>
+  <si>
+    <t>ATTORNEY_AGENT_PHONE_EXT</t>
+  </si>
+  <si>
+    <t>ATTORNEY_AGENT_POSTAL_CODE</t>
+  </si>
+  <si>
+    <t>ATTORNEY_AGENT_PROVINCE</t>
+  </si>
+  <si>
+    <t>ATTORNEY_AGENT_STATE</t>
+  </si>
+  <si>
+    <t>Additional Wage Information</t>
+  </si>
+  <si>
+    <t>BASIC_WAGE_RATE_FROM</t>
+  </si>
+  <si>
+    <t>BASIC_WAGE_RATE_TO</t>
+  </si>
+  <si>
+    <t>BOARD_LODGING_OTHER_FACILITIES</t>
+  </si>
+  <si>
+    <t>CAP_EXEMPT</t>
+  </si>
+  <si>
+    <t>CASE_STATUS</t>
+  </si>
+  <si>
+    <t>CERTIFICATION_REQUIREMENTS</t>
+  </si>
+  <si>
+    <t>CRIMINAL_BACKGROUND_CHECK</t>
+  </si>
+  <si>
+    <t>DAILY_TRANSPORTATION</t>
+  </si>
+  <si>
+    <t>DECISION_DATE</t>
+  </si>
+  <si>
+    <t>DEDUCTIONS_FROM_PAY</t>
+  </si>
+  <si>
+    <t>DRIVER_REQUIREMENTS</t>
+  </si>
+  <si>
+    <t>DRUG_SCREEN</t>
+  </si>
+  <si>
+    <t>EDUCATION_LEVEL</t>
+  </si>
+  <si>
+    <t>EMERGENCY_FILING</t>
+  </si>
+  <si>
+    <t>EMERGENCY_FILING_PWD_ATTACHED</t>
+  </si>
+  <si>
+    <t>EMPLOYER_ADDRESS1</t>
+  </si>
+  <si>
+    <t>EMPLOYER_ADDRESS2</t>
+  </si>
+  <si>
+    <t>EMPLOYER_ADDRESS_1</t>
+  </si>
+  <si>
+    <t>EMPLOYER_ADDRESS_2</t>
+  </si>
+  <si>
+    <t>EMPLOYER_APPENDIX_B_ATTACHED</t>
+  </si>
+  <si>
+    <t>EMPLOYER_COUNTRY</t>
+  </si>
+  <si>
+    <t>EMPLOYER_MSPA_ATTACHED</t>
+  </si>
+  <si>
+    <t>EMPLOYER_PHONE_EXT</t>
+  </si>
+  <si>
+    <t>EMPLOYER_POC_ADDRESS1</t>
+  </si>
+  <si>
+    <t>EMPLOYER_POC_ADDRESS2</t>
+  </si>
+  <si>
+    <t>EMPLOYER_POC_CITY</t>
+  </si>
+  <si>
+    <t>EMPLOYER_POC_COUNTRY</t>
+  </si>
+  <si>
+    <t>EMPLOYER_POC_EMAIL</t>
+  </si>
+  <si>
+    <t>EMPLOYER_POC_FIRST_NAME</t>
+  </si>
+  <si>
+    <t>EMPLOYER_POC_JOB_TITLE</t>
+  </si>
+  <si>
+    <t>EMPLOYER_POC_LAST_NAME</t>
+  </si>
+  <si>
+    <t>EMPLOYER_POC_MIDDLE_NAME</t>
+  </si>
+  <si>
+    <t>EMPLOYER_POC_PHONE</t>
+  </si>
+  <si>
+    <t>EMPLOYER_POC_PHONE_EXT</t>
+  </si>
+  <si>
+    <t>EMPLOYER_POC_POSTAL_CODE</t>
+  </si>
+  <si>
+    <t>EMPLOYER_POC_PROVINCE</t>
+  </si>
+  <si>
+    <t>EMPLOYER_POC_STATE</t>
+  </si>
+  <si>
+    <t>EMPLOYER_PROVINCE</t>
+  </si>
+  <si>
+    <t>EMP_CLIENT_APPENDIX_B_ATTACHED</t>
+  </si>
+  <si>
+    <t>EMP_PROVIDED_TOOLS_EQUIPMENT</t>
+  </si>
+  <si>
+    <t>EXPOSURE_TO_TEMPERATURES</t>
+  </si>
+  <si>
+    <t>EXTENSIVE_PUSHING_PULLING</t>
+  </si>
+  <si>
+    <t>EXTENSIVE_SITTING_WALKING</t>
+  </si>
+  <si>
+    <t>FOREIGN_LABOR_RECRUITER</t>
+  </si>
+  <si>
+    <t>FREQUENT_STOOPING_BENDING_OVER</t>
+  </si>
+  <si>
+    <t>FRIDAY_HOURS</t>
+  </si>
+  <si>
+    <t>H-2A_LABOR_CONTRACTOR</t>
+  </si>
+  <si>
+    <t>HOURLY_SCHEDULE_BEGIN</t>
+  </si>
+  <si>
+    <t>HOURLY_SCHEDULE_END</t>
+  </si>
+  <si>
+    <t>HOUSING_COMPLIANCE_FEDERAL</t>
+  </si>
+  <si>
+    <t>HOUSING_COMPLIANCE_LOCAL</t>
+  </si>
+  <si>
+    <t>HOUSING_COMPLIANCE_STATE</t>
+  </si>
+  <si>
+    <t>HOUSING_TRANSPORTATION</t>
+  </si>
+  <si>
+    <t>JOB_ORDER_NUMBER</t>
+  </si>
+  <si>
+    <t>JOB_ORDER_SUBMIT_DATE</t>
+  </si>
+  <si>
+    <t>JOINT_EMPLOYER_APPENDIX_A_ATTACHED</t>
+  </si>
+  <si>
+    <t>LAWFIRM_NAME_BUSINESS_NAME</t>
+  </si>
+  <si>
+    <t>LIFTING_AMOUNT</t>
+  </si>
+  <si>
+    <t>LIFTING_REQUIREMENTS</t>
+  </si>
+  <si>
+    <t>MEALS_CHARGED</t>
+  </si>
+  <si>
+    <t>MEALS_PROVIDED</t>
+  </si>
+  <si>
+    <t>MEAL_REIMBURSEMENT_MAXIMUM</t>
+  </si>
+  <si>
+    <t>MEAL_REIMBURSEMENT_MINIMUM</t>
+  </si>
+  <si>
+    <t>MONDAY_HOURS</t>
+  </si>
+  <si>
+    <t>MSA_NAME_OES_AREA_TITLE</t>
+  </si>
+  <si>
+    <t>NAICS_CODE</t>
+  </si>
+  <si>
+    <t>NAME_OF_HIGHEST_STATE_COURT</t>
+  </si>
+  <si>
+    <t>NATURE_OF_TEMPORARY_NEED</t>
+  </si>
+  <si>
+    <t>ON_CALL_REQUIREMENT</t>
+  </si>
+  <si>
+    <t>ON_THE_JOB_TRAINING_AVAILABLE</t>
+  </si>
+  <si>
+    <t>OTHER_FREQUENCY_OF_PAY</t>
+  </si>
+  <si>
+    <t>OTHER_WORKSITE_LOCATION</t>
+  </si>
+  <si>
+    <t>OVERTIME_AVAILABLE</t>
+  </si>
+  <si>
+    <t>OVERTIME_RATE_FROM</t>
+  </si>
+  <si>
+    <t>OVERTIME_RATE_TO</t>
+  </si>
+  <si>
+    <t>PER</t>
+  </si>
+  <si>
+    <t>PIECE_RATE_OFFER</t>
+  </si>
+  <si>
+    <t>PIECE_RATE_UNIT</t>
+  </si>
+  <si>
+    <t>PREPARER_BUSINESS_NAME</t>
+  </si>
+  <si>
+    <t>PREPARER_EMAIL</t>
+  </si>
+  <si>
+    <t>PREPARER_FIRST_NAME</t>
+  </si>
+  <si>
+    <t>PREPARER_LAST_NAME</t>
+  </si>
+  <si>
+    <t>PREPARER_MIDDLE_INITIAL</t>
+  </si>
+  <si>
+    <t>PREPARER_MIDDLE_NAME</t>
+  </si>
+  <si>
+    <t>REPETITIVE_MOVEMENTS</t>
+  </si>
+  <si>
+    <t>REQUESTED_BEGIN_DATE</t>
+  </si>
+  <si>
+    <t>REQUESTED_END_DATE</t>
+  </si>
+  <si>
+    <t>SATURDAY_HOURS</t>
+  </si>
+  <si>
+    <t>SOC_CODE</t>
+  </si>
+  <si>
+    <t>SOC_TITLE</t>
+  </si>
+  <si>
+    <t>STATE_OF_HIGHEST_COURT</t>
+  </si>
+  <si>
+    <t>SUNDAY_HOURS</t>
+  </si>
+  <si>
+    <t>SUPERVISE_HOW_MANY</t>
+  </si>
+  <si>
+    <t>SUPERVISE_OTHER_EMP</t>
+  </si>
+  <si>
+    <t>SURETY_BOND_ATTACHED</t>
+  </si>
+  <si>
+    <t>SWA_STATE</t>
+  </si>
+  <si>
+    <t>THURSDAY_HOURS</t>
+  </si>
+  <si>
+    <t>TOTAL_ADDENDUM_A_RECORDS</t>
+  </si>
+  <si>
+    <t>TOTAL_HOUSING_RECORDS</t>
+  </si>
+  <si>
+    <t>TOTAL_WORKERS_CERTIFIED</t>
+  </si>
+  <si>
+    <t>TOTAL_WORKERS_H-2A_CERTIFIED</t>
+  </si>
+  <si>
+    <t>TOTAL_WORKSITE_RECORDS</t>
+  </si>
+  <si>
+    <t>TRAINING_MONTHS</t>
+  </si>
+  <si>
+    <t>TUESDAY_HOURS</t>
+  </si>
+  <si>
+    <t>TYPE_OF_EMPLOYER</t>
+  </si>
+  <si>
+    <t>TYPE_OF_EMPLOYER_APPLICATION</t>
+  </si>
+  <si>
+    <t>TYPE_OF_REPRESENTATION</t>
+  </si>
+  <si>
+    <t>WEDNESDAY_HOURS</t>
+  </si>
+  <si>
+    <t>WORKSITE_ADDRESS2</t>
+  </si>
+  <si>
+    <t>WORK_CONTRACTS_ATTACHED</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
     <t>H-300-20163-645163</t>
   </si>
   <si>
+    <t>H-2A</t>
+  </si>
+  <si>
+    <t>Kirk Aughenbaugh- Agriculture</t>
+  </si>
+  <si>
+    <t>SOUTH DAKOTA</t>
+  </si>
+  <si>
+    <t>Iroquios</t>
+  </si>
+  <si>
+    <t>https://seasonaljobs.dol.gov/job-order/H-300-20163-645163</t>
+  </si>
+  <si>
+    <t>https://seasonaljobs.dol.gov/jobs/H-300-20163-645163</t>
+  </si>
+  <si>
+    <t>This is temporary because the cattle- young calves and adult cattle- will come into the feed lot for the fall and winter seasons. In the spring, the cattle will return to the pasture. The position is temporary because livestock work for our feed lot is seasonal. 1. The SD winter requires cattle to be housed in the feed lot. This is seasonal because the inclement fall and winter weather prevent the cattle from grazing in the pasture. All cattle, adult and young, are housed in the feed lot during the winter. 2. As part of seasonal cattle harvest, the feed lot enable calf production harvest by allowing the calf to be cared and maintained before the spring auction where sold for breeding or food production. 3. Assist with harvesting hay and transporting bales to storage in August, September. Must be able to document and read cattle records, charts and meters in English. Will perform all duties associated with cattle care; preparation and maintenance of equipment used for the purpose of moving, penning, vaccinating, feeding and general care of cattle will be required; repairs and maintenance to equipment, buildings and fences. May have to work nights, possibly weekends. Employer may request but cannot require workers to work on their Sabbath; maintaining of worksite and equipment; also cleaning location and equipment; rate of pay may be more depending on experience.</t>
+  </si>
+  <si>
+    <t>Farm Labor</t>
+  </si>
+  <si>
+    <t>21024 421st Ave.</t>
+  </si>
+  <si>
+    <t>Kingsbury</t>
+  </si>
+  <si>
+    <t>South Dakota</t>
+  </si>
+  <si>
+    <t>21445 422nd Ave</t>
+  </si>
+  <si>
+    <t>House</t>
+  </si>
+  <si>
+    <t>W=H</t>
+  </si>
+  <si>
+    <t>See ADD C</t>
+  </si>
+  <si>
+    <t>jewel.tschetter@santel.net</t>
+  </si>
+  <si>
+    <t>Apify</t>
+  </si>
+  <si>
+    <t>central</t>
+  </si>
+  <si>
+    <t>rooftop</t>
+  </si>
+  <si>
+    <t>102 E Broadway</t>
+  </si>
+  <si>
+    <t>Fairview</t>
+  </si>
+  <si>
+    <t>UNITED STATES OF AMERICA</t>
+  </si>
+  <si>
+    <t>office@agri-placements.com</t>
+  </si>
+  <si>
+    <t>Kamron</t>
+  </si>
+  <si>
+    <t>Martens</t>
+  </si>
+  <si>
+    <t>15802274747</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Biweekly</t>
+  </si>
+  <si>
+    <t>Determination Issued - Certification</t>
+  </si>
+  <si>
+    <t>' See ADD C</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Kirk</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Aughenbaugh</t>
+  </si>
+  <si>
+    <t>16055462485</t>
+  </si>
+  <si>
+    <t>08:00:00</t>
+  </si>
+  <si>
+    <t>05:00:00</t>
+  </si>
+  <si>
+    <t>JO-A-300-20163-645163</t>
+  </si>
+  <si>
+    <t>AGRI PLACEMENTS INTERNATIONAL</t>
+  </si>
+  <si>
+    <t>Seasonal</t>
+  </si>
+  <si>
+    <t>Hour</t>
+  </si>
+  <si>
+    <t>45-2093.00</t>
+  </si>
+  <si>
+    <t>Farmworkers, Farm, Ranch, and Aquacultural Animals</t>
+  </si>
+  <si>
+    <t>Individual Employer</t>
+  </si>
+  <si>
+    <t>Agent</t>
+  </si>
+  <si>
     <t>H-400-20125-539787</t>
   </si>
   <si>
+    <t>H-2B</t>
+  </si>
+  <si>
+    <t>Garcia Forest Service LLC</t>
+  </si>
+  <si>
+    <t>CALIFORNIA</t>
+  </si>
+  <si>
+    <t>Rockingham</t>
+  </si>
+  <si>
+    <t>NORTH CAROLINA</t>
+  </si>
+  <si>
+    <t>https://seasonaljobs.dol.gov/job-order/H-400-20125-539787</t>
+  </si>
+  <si>
+    <t>https://seasonaljobs.dol.gov/jobs/H-400-20125-539787</t>
+  </si>
+  <si>
+    <t>hand-prune, maintain surrounding vegetation, pile/remove debris, identify diseased/undesirable trees and remove them, dispose of brush, thin and space trees with the use of power saws, hand saws and power thinning saws. Maintain tallies of trees examined during tree marking or measuring efforts &amp; other forestry activities as per SCA Forest and Land Management Services.</t>
+  </si>
+  <si>
+    <t>Forestry Worker</t>
+  </si>
+  <si>
+    <t>Applicants must be able, willing and qualified to perform work described and must be available for the entire period specified. Job duties require considerable use of your arms and legs and moving your whole body, such as climbing, lifting, balancing, walking, stooping, and handling of materials. Requires physical stamina. Must lift/carry 50 lbs. Extensive walking through rough/forest terrain. 3 months brushsaw/chainsaw experience required.</t>
+  </si>
+  <si>
+    <t>160 E Calle Primera</t>
+  </si>
+  <si>
+    <t>San Ysidro</t>
+  </si>
+  <si>
+    <t>s_garcia@me.com</t>
+  </si>
+  <si>
+    <t>14949 FM 1826</t>
+  </si>
+  <si>
+    <t>Austin</t>
+  </si>
+  <si>
+    <t>info@ffbfirm.com</t>
+  </si>
+  <si>
+    <t>Kyle</t>
+  </si>
+  <si>
+    <t>Farmer</t>
+  </si>
+  <si>
+    <t>15128942128</t>
+  </si>
+  <si>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>' Social Security, Federal Tax, Meals, and any willful destruction of property will also be deducted as allowable by Federal and State Law.</t>
+  </si>
+  <si>
+    <t>18358 County Hwy D-20</t>
+  </si>
+  <si>
+    <t>Alden</t>
+  </si>
+  <si>
+    <t>Blake</t>
+  </si>
+  <si>
+    <t>Compliance Officer</t>
+  </si>
+  <si>
+    <t>Alewelt</t>
+  </si>
+  <si>
+    <t>16417322770</t>
+  </si>
+  <si>
+    <t>IOWA</t>
+  </si>
+  <si>
+    <t>07:30:00</t>
+  </si>
+  <si>
+    <t>04:30:00</t>
+  </si>
+  <si>
+    <t>JO-A-300-20161-638892</t>
+  </si>
+  <si>
+    <t>Farmer Farmer &amp; Brown Law Firm PLLC</t>
+  </si>
+  <si>
+    <t>IOWA SUPREME COURT</t>
+  </si>
+  <si>
+    <t>47-2061.00</t>
+  </si>
+  <si>
+    <t>Construction Laborers</t>
+  </si>
+  <si>
+    <t>IA</t>
+  </si>
+  <si>
+    <t>Attorney</t>
+  </si>
+  <si>
     <t>H-400-20098-464538</t>
   </si>
   <si>
+    <t>Norterra Services</t>
+  </si>
+  <si>
+    <t>SOUTH CAROLINA</t>
+  </si>
+  <si>
+    <t>Employer will comply with applicable Federal, State laws pertaining to OT</t>
+  </si>
+  <si>
+    <t>Coeur d Alene</t>
+  </si>
+  <si>
+    <t>IDAHO</t>
+  </si>
+  <si>
+    <t>https://seasonaljobs.dol.gov/job-order/H-400-20098-464538</t>
+  </si>
+  <si>
+    <t>https://seasonaljobs.dol.gov/jobs/H-400-20098-464538</t>
+  </si>
+  <si>
+    <t>All applicants must be able, willing, qualified, to perform work described in this job description &amp; be available entire period specified. Possible duties Reforest, protect, sow seed; lift seedlings from nursery bed, place shade materials, net/tube, mulch, plant, hand scalp, apply spray/thin excess vegetation, other related forestry activities, lift, balance, walk, stoop, bend, handle, position, move material, static strength, exert max muscle force, push, pull, carry up to 50lbs. Attn. to detail, complete duties timely, outdoors, exposed to weather. Physically strenuous work, extreme weather conditions cause hours to fluctuate.</t>
+  </si>
+  <si>
+    <t>Must show proof of legal authority to work in U.S. Drug, alcohol, tobacco free work zone. Min. age: 18-yrs due to travel</t>
+  </si>
+  <si>
+    <t>506 S Morgan Ave</t>
+  </si>
+  <si>
+    <t>Andrews</t>
+  </si>
+  <si>
+    <t>jobs@norterraservices.us</t>
+  </si>
+  <si>
+    <t>406 WEST  400 SOUTH</t>
+  </si>
+  <si>
+    <t>HEYBURN</t>
+  </si>
+  <si>
+    <t>INFO@SNAKERIVERFARMERS.ORG</t>
+  </si>
+  <si>
+    <t>JOEL</t>
+  </si>
+  <si>
+    <t>ANDERSON</t>
+  </si>
+  <si>
+    <t>V.</t>
+  </si>
+  <si>
+    <t>12084369737</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>' Employer will make any required deductions as discussed in Section I / Items 3 &amp; 15, as well as deductions for loans (if any); long distance telephone charges (if any); reimbursement for damage caused to the housing by the individual worker(s) found to have been responsible for damage which is not the result of normal wear and tear related to habitation (if any); charges for reasonable costs related to the worker’s refusal or negligent failure to return all items furnished by the employer or due to the worker’s willful damage or destruction of such property; deductions directed by the worker by a voluntary assignment solely for the benefit of the worker to a creditor, donee, or other 3rd party (e.g. worker’s store/vendor accounts with merchants) wholly independent of the employer and from which neither the employer nor any person acting on his behalf or interest, directly or indirectly, derives any profit or benefit.</t>
+  </si>
+  <si>
+    <t>8895 W. Spangler Rd Note: No Mail Delivery</t>
+  </si>
+  <si>
+    <t>PO Box 524 Glenns Ferry, ID 83623</t>
+  </si>
+  <si>
+    <t>PO Box 524 Glenns Ferry ID 83623</t>
+  </si>
+  <si>
+    <t>Hammett</t>
+  </si>
+  <si>
+    <t>zitofarms@gmail.com</t>
+  </si>
+  <si>
+    <t>Mikki</t>
+  </si>
+  <si>
+    <t>Zito</t>
+  </si>
+  <si>
+    <t>12085992247</t>
+  </si>
+  <si>
+    <t>JO-A-300-20154-620944</t>
+  </si>
+  <si>
+    <t>SNAKE RIVER FARMERS ASSOCIATION INC</t>
+  </si>
+  <si>
+    <t>The highest applicable wage will be paid at the time the work is performed, for every hour or portion thereof worked during a work contract period, including any higher or lower adjustments published by the Department of Labor.</t>
+  </si>
+  <si>
+    <t>Snake River Farmers' Association, Inc.</t>
+  </si>
+  <si>
+    <t>info@snakeriverfarmers.org</t>
+  </si>
+  <si>
+    <t>Jillian</t>
+  </si>
+  <si>
+    <t>Hitt</t>
+  </si>
+  <si>
+    <t>B.</t>
+  </si>
+  <si>
+    <t>45-2092.02</t>
+  </si>
+  <si>
+    <t>Farmworkers and Laborers, Crop</t>
+  </si>
+  <si>
+    <t>Joint Employer</t>
+  </si>
+  <si>
     <t>H-300-20131-557699</t>
   </si>
   <si>
-    <t>H-300-20132-558524</t>
-  </si>
-  <si>
-    <t>H-300-20118-520900</t>
-  </si>
-  <si>
-    <t>H-300-20118-520718</t>
-  </si>
-  <si>
-    <t>H-400-20128-552987</t>
-  </si>
-  <si>
-    <t>H-300-20127-545625</t>
-  </si>
-  <si>
-    <t>H-300-20121-530549</t>
-  </si>
-  <si>
-    <t>H-300-20125-538913</t>
-  </si>
-  <si>
-    <t>H-300-20119-524313</t>
-  </si>
-  <si>
-    <t>H-2A</t>
-  </si>
-  <si>
-    <t>H-2B</t>
-  </si>
-  <si>
-    <t>Kirk Aughenbaugh- Agriculture</t>
-  </si>
-  <si>
-    <t>Garcia Forest Service LLC</t>
-  </si>
-  <si>
-    <t>Norterra Services</t>
-  </si>
-  <si>
     <t>G A Smith Farms LLC</t>
   </si>
   <si>
-    <t>Stevens Farms LLC</t>
-  </si>
-  <si>
-    <t>Jason Wade</t>
-  </si>
-  <si>
-    <t>Twin Pond Farm</t>
-  </si>
-  <si>
-    <t>Landscapes Unlimited, LLC</t>
-  </si>
-  <si>
-    <t>Hobgood Farms GPTR</t>
-  </si>
-  <si>
-    <t>Harnish Farms</t>
-  </si>
-  <si>
-    <t>Joseph Clark</t>
-  </si>
-  <si>
-    <t>Smith's Farm Inc.</t>
-  </si>
-  <si>
-    <t>SOUTH DAKOTA</t>
-  </si>
-  <si>
-    <t>CALIFORNIA</t>
-  </si>
-  <si>
-    <t>SOUTH CAROLINA</t>
-  </si>
-  <si>
     <t>KENTUCKY</t>
   </si>
   <si>
-    <t>NEW JERSEY</t>
-  </si>
-  <si>
-    <t>NEW MEXICO</t>
-  </si>
-  <si>
-    <t>TENNESSEE</t>
-  </si>
-  <si>
-    <t>PENNSYLVANIA</t>
-  </si>
-  <si>
-    <t>MAINE</t>
-  </si>
-  <si>
-    <t>Employer will comply with applicable Federal, State laws pertaining to OT</t>
-  </si>
-  <si>
-    <t>cutting per stick</t>
-  </si>
-  <si>
-    <t>$13.86/hourly base rate, $5/hourly for subsistence, and $6.22/hourly fringe</t>
-  </si>
-  <si>
-    <t>Bulk freezer broccoli - $0.02 per lb.</t>
-  </si>
-  <si>
-    <t>Iroquios</t>
-  </si>
-  <si>
-    <t>Rockingham</t>
-  </si>
-  <si>
-    <t>Coeur d Alene</t>
-  </si>
-  <si>
     <t>Mayfield</t>
   </si>
   <si>
-    <t>Lawrenceburg</t>
-  </si>
-  <si>
-    <t>Springfield</t>
-  </si>
-  <si>
-    <t>Farmingdale</t>
-  </si>
-  <si>
-    <t>Lincoln</t>
-  </si>
-  <si>
-    <t>Adams</t>
-  </si>
-  <si>
-    <t>Pequea</t>
-  </si>
-  <si>
-    <t>Greensburg</t>
-  </si>
-  <si>
-    <t>Presque Isle</t>
-  </si>
-  <si>
-    <t>NORTH CAROLINA</t>
-  </si>
-  <si>
-    <t>IDAHO</t>
-  </si>
-  <si>
-    <t>NEBRASKA</t>
-  </si>
-  <si>
-    <t>57353</t>
-  </si>
-  <si>
-    <t>28379</t>
-  </si>
-  <si>
-    <t>83815</t>
-  </si>
-  <si>
-    <t>42066</t>
-  </si>
-  <si>
-    <t>40342</t>
-  </si>
-  <si>
-    <t>40069</t>
-  </si>
-  <si>
-    <t>07727</t>
-  </si>
-  <si>
-    <t>68512</t>
-  </si>
-  <si>
-    <t>37010</t>
-  </si>
-  <si>
-    <t>17565</t>
-  </si>
-  <si>
-    <t>42743</t>
-  </si>
-  <si>
-    <t>04769</t>
-  </si>
-  <si>
-    <t>https://seasonaljobs.dol.gov/job-order/H-300-20163-645163</t>
-  </si>
-  <si>
-    <t>https://seasonaljobs.dol.gov/job-order/H-400-20125-539787</t>
-  </si>
-  <si>
-    <t>https://seasonaljobs.dol.gov/job-order/H-400-20098-464538</t>
-  </si>
-  <si>
     <t>https://seasonaljobs.dol.gov/job-order/H-300-20131-557699</t>
   </si>
   <si>
-    <t>https://seasonaljobs.dol.gov/job-order/H-300-20132-558524</t>
-  </si>
-  <si>
-    <t>https://seasonaljobs.dol.gov/job-order/H-300-20118-520900</t>
-  </si>
-  <si>
-    <t>https://seasonaljobs.dol.gov/job-order/H-300-20118-520718</t>
-  </si>
-  <si>
-    <t>https://seasonaljobs.dol.gov/job-order/H-400-20128-552987</t>
-  </si>
-  <si>
-    <t>https://seasonaljobs.dol.gov/job-order/H-300-20127-545625</t>
-  </si>
-  <si>
-    <t>https://seasonaljobs.dol.gov/job-order/H-300-20121-530549</t>
-  </si>
-  <si>
-    <t>https://seasonaljobs.dol.gov/job-order/H-300-20125-538913</t>
-  </si>
-  <si>
-    <t>https://seasonaljobs.dol.gov/job-order/H-300-20119-524313</t>
-  </si>
-  <si>
-    <t>https://seasonaljobs.dol.gov/jobs/H-300-20163-645163</t>
-  </si>
-  <si>
-    <t>https://seasonaljobs.dol.gov/jobs/H-400-20125-539787</t>
-  </si>
-  <si>
-    <t>https://seasonaljobs.dol.gov/jobs/H-400-20098-464538</t>
-  </si>
-  <si>
     <t>https://seasonaljobs.dol.gov/jobs/H-300-20131-557699</t>
-  </si>
-  <si>
-    <t>https://seasonaljobs.dol.gov/jobs/H-300-20132-558524</t>
-  </si>
-  <si>
-    <t>https://seasonaljobs.dol.gov/jobs/H-300-20118-520900</t>
-  </si>
-  <si>
-    <t>https://seasonaljobs.dol.gov/jobs/H-300-20118-520718</t>
-  </si>
-  <si>
-    <t>https://seasonaljobs.dol.gov/jobs/H-400-20128-552987</t>
-  </si>
-  <si>
-    <t>https://seasonaljobs.dol.gov/jobs/H-300-20127-545625</t>
-  </si>
-  <si>
-    <t>https://seasonaljobs.dol.gov/jobs/H-300-20121-530549</t>
-  </si>
-  <si>
-    <t>https://seasonaljobs.dol.gov/jobs/H-300-20125-538913</t>
-  </si>
-  <si>
-    <t>https://seasonaljobs.dol.gov/jobs/H-300-20119-524313</t>
-  </si>
-  <si>
-    <t>This is temporary because the cattle- young calves and adult cattle- will come into the feed lot for the fall and winter seasons. In the spring, the cattle will return to the pasture. The position is temporary because livestock work for our feed lot is seasonal. 1. The SD winter requires cattle to be housed in the feed lot. This is seasonal because the inclement fall and winter weather prevent the cattle from grazing in the pasture. All cattle, adult and young, are housed in the feed lot during the winter. 2. As part of seasonal cattle harvest, the feed lot enable calf production harvest by allowing the calf to be cared and maintained before the spring auction where sold for breeding or food production. 3. Assist with harvesting hay and transporting bales to storage in August, September. Must be able to document and read cattle records, charts and meters in English. Will perform all duties associated with cattle care; preparation and maintenance of equipment used for the purpose of moving, penning, vaccinating, feeding and general care of cattle will be required; repairs and maintenance to equipment, buildings and fences. May have to work nights, possibly weekends. Employer may request but cannot require workers to work on their Sabbath; maintaining of worksite and equipment; also cleaning location and equipment; rate of pay may be more depending on experience.</t>
-  </si>
-  <si>
-    <t>hand-prune, maintain surrounding vegetation, pile/remove debris, identify diseased/undesirable trees and remove them, dispose of brush, thin and space trees with the use of power saws, hand saws and power thinning saws. Maintain tallies of trees examined during tree marking or measuring efforts &amp; other forestry activities as per SCA Forest and Land Management Services.</t>
-  </si>
-  <si>
-    <t>All applicants must be able, willing, qualified, to perform work described in this job description &amp; be available entire period specified. Possible duties Reforest, protect, sow seed; lift seedlings from nursery bed, place shade materials, net/tube, mulch, plant, hand scalp, apply spray/thin excess vegetation, other related forestry activities, lift, balance, walk, stoop, bend, handle, position, move material, static strength, exert max muscle force, push, pull, carry up to 50lbs. Attn. to detail, complete duties timely, outdoors, exposed to weather. Physically strenuous work, extreme weather conditions cause hours to fluctuate.</t>
   </si>
   <si>
     <t>Burley Tobacco:	Duties to include, but not limited to:  greenhouse care, setting, topping, oiling, cutting, housing and stripping. Workers will be trained for a period of two days (14 hours) after which the worker will be expected to cut 100 sticks per hour - does not include dropping sticks in field. 
@@ -505,6 +1033,141 @@
 A normal work week is Monday through Friday from 08:00 a.m. to 04:00 p.m and Saturday 07:00 a.m. to 12:00 p.m.  If work is available beyond normal workdays, employer may offer, but not require, worker an opportunity to work additional hours.  Workers will report to work at designated time and place as directed by assigned employer each day.  However, workers may be requested to ten (10) hours per day depending on the conditions in the fields and the maturity of the crops.  Also, workers may be requested to work on federal holidays and their Sabbath but will not be required to do so.  Workers may volunteer to work additional hours when work is available.</t>
   </si>
   <si>
+    <t>Farm Workers and Laborers, Crop</t>
+  </si>
+  <si>
+    <t>7464 State Route 121 South</t>
+  </si>
+  <si>
+    <t>Graves</t>
+  </si>
+  <si>
+    <t>Kentucky</t>
+  </si>
+  <si>
+    <t>Frame</t>
+  </si>
+  <si>
+    <t>W&lt;H</t>
+  </si>
+  <si>
+    <t>Physically able to bend, stoop, and able to stand on feet for long periods of time. Physically able to meet and perform all job specifications. May be required to take random drug and / or alcohol tests, at no cost to the worker.  Testing positive or failure to comply may result in immediate termination from employment.  All testing and background check will occur after employment has started and is not a part of the interview process.  May be required to submit a criminal background check, at no cost to the worker.  Felony convictions that employer reasonably believes, consistent with current law, will impair the safety and living conditions of other workers or other individuals on the farm will result in immediate termination.  Failure to comply with request for criminal background check may result in immediate termination of employment.</t>
+  </si>
+  <si>
+    <t>https://focuscareer.ky.gov/careerexplorer/jobsearch/searchjobpostings</t>
+  </si>
+  <si>
+    <t>range_interpolation</t>
+  </si>
+  <si>
+    <t>400 Front Street</t>
+  </si>
+  <si>
+    <t>P.O. Box 507</t>
+  </si>
+  <si>
+    <t>Lovingston</t>
+  </si>
+  <si>
+    <t>srauch@maslabor.com</t>
+  </si>
+  <si>
+    <t>Nevin</t>
+  </si>
+  <si>
+    <t>Voors</t>
+  </si>
+  <si>
+    <t>M.</t>
+  </si>
+  <si>
+    <t>14342634300</t>
+  </si>
+  <si>
+    <t>VA</t>
+  </si>
+  <si>
+    <t>' Employer will make all deductions required by law (e.g., FICA, federal/state tax withholdings, court-ordered child support, etc.). Workers must pre-authorize voluntary deductions, which may include repayment of advances and/or loans, health insurance premiums, retirement plan contributions, and/or payment of cell phone, cable/satellite TV, internet or other service(s) for worker's convenience and benefit. All deductions will comply with the Fair Labor Standards Act (FLSA) and applicable state law. Workers must obtain employer's permission to make personal long distance phone calls on employer's phone. Making a personal long distance phone call constitutes consent by the worker for employer to deduct the cost of such call from worker's pay. Worker must promptly confirm such authorization in writing. Workers may be subject to disciplinary action for failing to obtain employer's permission for a personal long-distance call or to repay the cost of such call within a reasonable time.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14095 Peyton Hwy. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mailing: 3742 Blue Bird Canyon Road, , Vista, CA 92084 </t>
+  </si>
+  <si>
+    <t>14095 Peyton Hwy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mailing:  3742 Blue Bird Canyon Rd. Vista,  CA 92084 </t>
+  </si>
+  <si>
+    <t>Peyton</t>
+  </si>
+  <si>
+    <t>rauch1118@maslabor.com</t>
+  </si>
+  <si>
+    <t>Tex</t>
+  </si>
+  <si>
+    <t>General Counsel/V.P. of Human Resources</t>
+  </si>
+  <si>
+    <t>Prows</t>
+  </si>
+  <si>
+    <t>17197492510</t>
+  </si>
+  <si>
+    <t>COLORADO</t>
+  </si>
+  <si>
+    <t>07:00:00</t>
+  </si>
+  <si>
+    <t>04:00:00</t>
+  </si>
+  <si>
+    <t>JO-A-300-20163-644868</t>
+  </si>
+  <si>
+    <t>MAS Labor H2A, LLC</t>
+  </si>
+  <si>
+    <t>Shelley</t>
+  </si>
+  <si>
+    <t>Rauch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C. </t>
+  </si>
+  <si>
+    <t>45-2092.01</t>
+  </si>
+  <si>
+    <t>Nursery Workers</t>
+  </si>
+  <si>
+    <t>H-300-20132-558524</t>
+  </si>
+  <si>
+    <t>Stevens Farms LLC</t>
+  </si>
+  <si>
+    <t>cutting per stick</t>
+  </si>
+  <si>
+    <t>Lawrenceburg</t>
+  </si>
+  <si>
+    <t>https://seasonaljobs.dol.gov/job-order/H-300-20132-558524</t>
+  </si>
+  <si>
+    <t>https://seasonaljobs.dol.gov/jobs/H-300-20132-558524</t>
+  </si>
+  <si>
     <t>Burley Tobacco:	Duties to include, but not limited to:  greenhouse care, setting, topping, oiling, cutting, housing and stripping. Workers will be trained for a period of two days (14 hours) after which the worker will be expected to cut 100 sticks per hour - does not include dropping sticks in field. 
 Dark Fired Tobacco: Duties to include, but not limited to:  greenhouse care, setting, topping, oiling, cutting, housing and stripping. Workers will be required to cut wood and carry to barn to fire the tobacco.  Wooden slabs covered with sawdust are placed under the tobacco that is hanging in barn.  Slabs are fired to smoke the tobacco and is repeated until the tobacco becomes the appropriate color.  Worker will remove remaining ashes after the tobacco is fired.  Worker is required to cut/spike 50-60 sticks per hour.
 Air Cured Tobacco: Duties to include, but not limited to:  greenhouse care, setting, topping, oiling, cutting, housing and stripping.
@@ -515,6 +1178,78 @@
 General Conditions:
 A normal work week is Monday through Friday from 08:00 a.m. to 04:00 p.m and Saturday 07:00 a.m. to 12:00 p.m.  If work is available beyond normal workdays, employer may offer, but not require, worker an opportunity to work additional hours.  Workers will report to work at designated time and place as directed by assigned employer each day.  However, workers may be requested to ten (10) hours per day depending on the conditions in the fields and the maturity of the crops.  Also, workers may be requested to work on federal holidays and their Sabbath but will not be required to do so.  Workers may volunteer to work additional hours when work is available.  
 Down time:  Workers should expect occasional periods of little or no work because of weather, crop or other conditions beyond the employers control.  These periods can occur any time throughout the season.  Worker may be required to work in fields when crops are wet with dew / rain and should have suitable clothing for conditions which include light rain and temperatures ranging from 10 degrees to more than 100 degrees.  Workers should be able to stand, bend, stoop and work for prolonged periods of time and be physically fit to perform duties as assigned.  Workers will be trained for period of two (2) days (14 hours) after which workers will be expected to perform job required, i.e. cut 100 sticks per hour.  Care must be exercised at all times to prevent bruising or breaking crops.  Care must also be exercised in using tobacco knives and spears, while climbing and standing on barn rails, or with any use of equipment.</t>
+  </si>
+  <si>
+    <t>1520 Glensboro Rd</t>
+  </si>
+  <si>
+    <t>Anderson</t>
+  </si>
+  <si>
+    <t>1209 New Liberty Rd</t>
+  </si>
+  <si>
+    <t>Mobile Home</t>
+  </si>
+  <si>
+    <t>DETERMINATION ISSUED - DENIED</t>
+  </si>
+  <si>
+    <t>4512 MASON DIXON AVE</t>
+  </si>
+  <si>
+    <t>BOWLING GREEN</t>
+  </si>
+  <si>
+    <t>FLORIDAORANGEGOLDLLC@GMAIL.COM</t>
+  </si>
+  <si>
+    <t>JOSE</t>
+  </si>
+  <si>
+    <t>PRESIDENT</t>
+  </si>
+  <si>
+    <t>GUTIERREZ</t>
+  </si>
+  <si>
+    <t>JAVIER</t>
+  </si>
+  <si>
+    <t>863-832-1777</t>
+  </si>
+  <si>
+    <t>FLORIDA</t>
+  </si>
+  <si>
+    <t>7:00:00</t>
+  </si>
+  <si>
+    <t>3:00:00</t>
+  </si>
+  <si>
+    <t>45-2092</t>
+  </si>
+  <si>
+    <t>Farmworkers and Laborers, Crop, Nursery, and</t>
+  </si>
+  <si>
+    <t>H-2A Labor Contractor or Job Contractor</t>
+  </si>
+  <si>
+    <t>H-300-20118-520900</t>
+  </si>
+  <si>
+    <t>Jason Wade</t>
+  </si>
+  <si>
+    <t>Springfield</t>
+  </si>
+  <si>
+    <t>https://seasonaljobs.dol.gov/job-order/H-300-20118-520900</t>
+  </si>
+  <si>
+    <t>https://seasonaljobs.dol.gov/jobs/H-300-20118-520900</t>
   </si>
   <si>
     <t>Burley Tobacco:	Duties to include, but not limited to:  greenhouse care, setting, topping, oiling, cutting, housing and stripping. Workers will be trained for a period of two days (14 hours) after which the worker will be expected to cut 100 sticks per hour - does not include dropping sticks in field. 
@@ -528,6 +1263,105 @@
 General farm maintenance and other duties as required in the farming operation maintenance. Includes, but not limited to, preparing barns, draining fields, preparing land for planting, dropping sticks in field, maintenance of tools &amp; equipment, and other work as directly related to the crop activities for which the worker is hired. Also includes fixing, clearing, and painting of fences / barns. Assist in livestock operation, duties may include, but limited to, feeding, assisting in birthing, tagging, vaccinations, moving from paddock to paddock, sorting and manure removal. Such work will be offered when climate or crop conditions preclude working in the primary activities listed above and only after the first week guarantee is met.
 General Conditions:
 A normal work week is Monday through Friday from 08:00 a.m. to 04:00 p.m and Saturday 07:00 a.m. to 12:00 p.m.  If work is available beyond normal workdays, employer may offer, but not require, worker an opportunity to work additional hours.  Workers will report to work at designated time and place as directed by assigned employer each day.  However, workers may be requested to ten (10) hours per day depending on the conditions in the fields and the maturity of the crops.  Also, workers may be requested to work on federal holidays and their Sabbath but will not be required to do so.  Workers may volunteer to work additional hours when work is available.</t>
+  </si>
+  <si>
+    <t>845 Miller Pike</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>Marion</t>
+  </si>
+  <si>
+    <t>435 Miller Pike</t>
+  </si>
+  <si>
+    <t>8830 Tallon Lane NE</t>
+  </si>
+  <si>
+    <t>Ste C</t>
+  </si>
+  <si>
+    <t>Lacey</t>
+  </si>
+  <si>
+    <t>jboston@wafla.org</t>
+  </si>
+  <si>
+    <t>Jacob</t>
+  </si>
+  <si>
+    <t>Boston</t>
+  </si>
+  <si>
+    <t>13604558064</t>
+  </si>
+  <si>
+    <t>WA</t>
+  </si>
+  <si>
+    <t>' The Employer will make the following deductions from the worker’s wages: FICA taxes, Federal Income tax if required, other deductions expressly authorized or required by state or federal law, cash advances and repayment of loans, repayment of overpayment of wages to the worker, payment for articles which the Worker has voluntarily purchased from the Employer, long-distance telephone charges, recovery of any loss to the employer due to the worker’s damage (beyond normal wear and tear) in accordance with applicable state law, and any other deductions expressly authorized by the worker in writing. The employer will withhold from the employee’s wages the maximum amount for the portion of employee premium required under WA State RCW 50A.04, Paid Family and Medical Leave Program.</t>
+  </si>
+  <si>
+    <t>6116 52nd St E</t>
+  </si>
+  <si>
+    <t>Puyallup</t>
+  </si>
+  <si>
+    <t>jboston@wafa.org</t>
+  </si>
+  <si>
+    <t>Jake</t>
+  </si>
+  <si>
+    <t>Owner/President</t>
+  </si>
+  <si>
+    <t>Sterino</t>
+  </si>
+  <si>
+    <t>12537700409</t>
+  </si>
+  <si>
+    <t>WASHINGTON</t>
+  </si>
+  <si>
+    <t>03:30:00</t>
+  </si>
+  <si>
+    <t>JO-A-300-20163-644097</t>
+  </si>
+  <si>
+    <t>wafla</t>
+  </si>
+  <si>
+    <t>45-2092.00</t>
+  </si>
+  <si>
+    <t>Farmworkers and Laborers, Crop, Nursery, and Greenhouse</t>
+  </si>
+  <si>
+    <t>Association - Agent</t>
+  </si>
+  <si>
+    <t>H-300-20118-520718</t>
+  </si>
+  <si>
+    <t>Twin Pond Farm</t>
+  </si>
+  <si>
+    <t>NEW JERSEY</t>
+  </si>
+  <si>
+    <t>Farmingdale</t>
+  </si>
+  <si>
+    <t>https://seasonaljobs.dol.gov/job-order/H-300-20118-520718</t>
+  </si>
+  <si>
+    <t>https://seasonaljobs.dol.gov/jobs/H-300-20118-520718</t>
   </si>
   <si>
     <t>Workers are required to work both inside structures &amp; outside in various
@@ -544,7 +1378,215 @@
 pack products to fill orders and maintain stock in storage areas. Provide adequate soil moisture throughout the growing season to help fast-growing plants establish strong roots and produce fruit. Additional crops pumpkins and vegetables.</t>
   </si>
   <si>
+    <t>FARM WORKER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101 Havens Bridge Rd </t>
+  </si>
+  <si>
+    <t>Monmouth</t>
+  </si>
+  <si>
+    <t>New Jersey</t>
+  </si>
+  <si>
+    <t>FARMINGDALE</t>
+  </si>
+  <si>
+    <t>HOUSE</t>
+  </si>
+  <si>
+    <t>NONE</t>
+  </si>
+  <si>
+    <t>101 Havens Bridge Rd</t>
+  </si>
+  <si>
+    <t>george.digregorio@hotmail.com</t>
+  </si>
+  <si>
+    <t>3320 Highway 52</t>
+  </si>
+  <si>
+    <t>Payette</t>
+  </si>
+  <si>
+    <t>jennifer@gemagprofessionals.com</t>
+  </si>
+  <si>
+    <t>Jennifer</t>
+  </si>
+  <si>
+    <t>Uranga</t>
+  </si>
+  <si>
+    <t>Rene</t>
+  </si>
+  <si>
+    <t>12088980160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">' Employer will make all deductions required by law (e.g., FICA, federal/state tax withholdings, court-ordered child support, etc.). Workers must pre-authorize voluntary deductions, which may include repayment of advances and/or loans, health insurance premiums, retirement plan contributions, and/or payment of cell phone, cable/satellite TV, internet or other service(s) for worker's convenience and benefit. 
+Deductions may be made for the recovery of any loss to the employer due to damage beyond normal wear and tear.  All deductions will comply with the Fair Labor Standards Act (FLSA) and applicable state law. 
+</t>
+  </si>
+  <si>
+    <t>14068 Sunny Slope Road</t>
+  </si>
+  <si>
+    <t>Caldwell</t>
+  </si>
+  <si>
+    <t>jennifer@symmsfruit.com</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>Secretary/Treasurer</t>
+  </si>
+  <si>
+    <t>Mertz</t>
+  </si>
+  <si>
+    <t>12084594821</t>
+  </si>
+  <si>
+    <t>03:00:00</t>
+  </si>
+  <si>
+    <t>JO-A-300-20157-631527</t>
+  </si>
+  <si>
+    <t>Gem Ag Professionals, LLC</t>
+  </si>
+  <si>
+    <t>H-400-20128-552987</t>
+  </si>
+  <si>
+    <t>Landscapes Unlimited, LLC</t>
+  </si>
+  <si>
+    <t>NEW MEXICO</t>
+  </si>
+  <si>
+    <t>$13.86/hourly base rate, $5/hourly for subsistence, and $6.22/hourly fringe</t>
+  </si>
+  <si>
+    <t>Lincoln</t>
+  </si>
+  <si>
+    <t>NEBRASKA</t>
+  </si>
+  <si>
+    <t>https://seasonaljobs.dol.gov/job-order/H-400-20128-552987</t>
+  </si>
+  <si>
+    <t>https://seasonaljobs.dol.gov/jobs/H-400-20128-552987</t>
+  </si>
+  <si>
     <t>Performs various golf course renovation tasks including prepping for and building of greens, tees, and bunkers; prepares irrigation system components, glues/fuses connections and tie-ins; installs irrigation lines, wire, and heads; digs holes and trenches, utilizing hand tools to install drainage and tie-ins; spreads and lays materials such as grass seed, sod, greens mix, gravel, and sand; operates mechanized equipment to move and install materials.</t>
+  </si>
+  <si>
+    <t>Landscape Laborer II</t>
+  </si>
+  <si>
+    <t>6 months experience with basic knowledge of golf course layout; understanding of golf course irrigation systems including ability to install/repair key components; knowledge of golf course building materials and golf course construction tasks including building/repair of greens, tees, and bunkers. Three to six months experience operating any one of the following: tractor, skid loader, plows/trencher. OT as needed.
+For this position, we will start workers out at $13.86/hour. Per New Mexico wage guidelines, they will also be paid $5/hour subsistence and $6.22/hour fringe for a total of $25.08/hour. Overtime will be paid at a rate of $32.01/hour ($20.79 + $5 + $6.22).
+We want to clarify the information on Item F.a.5. During the work week, which runs Sunday through Saturday, employees are scheduled to work a 40-hour work week and given OT as needed. F.a.5 does not allow us to enter such a work schedule. If we enter 8 hours each day, it would show 56 hours a week, which is not an accurate reflection of their work schedule.</t>
+  </si>
+  <si>
+    <t>www.landscapesunlimited.com</t>
+  </si>
+  <si>
+    <t>4244 Diamond Drive</t>
+  </si>
+  <si>
+    <t>Los Alamos</t>
+  </si>
+  <si>
+    <t>1295 Scott Street</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Diego </t>
+  </si>
+  <si>
+    <t>info@malitzlaw.com</t>
+  </si>
+  <si>
+    <t>Jeanne</t>
+  </si>
+  <si>
+    <t>Malitz</t>
+  </si>
+  <si>
+    <t>Marie</t>
+  </si>
+  <si>
+    <t>16192696164</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>' The following deductions will be made from the worker's pay:  FICA (if applicable); federal income tax withholding (if applicable); state and/or local tax withholding (if applicable); recovery of any loss to the Company due to damage or loss of equipment; housing or furnishings (beyond normal wear and tear) caused by the worker (if any)- The employer will not make any deduction from the wage or require any reimbursement from an employee for any cash shortage, breakage, or loss of equipment, unless it can be shown that such shortage, breakage, or loss is caused by a dishonest or willful act, or by the gross negligence of the employee; medical insurance payments, if applicable; cash advances, (if any); and deductions expressly authorized by the worker in writing (if any).  No deductions except those required or permitted by law will be made which bring the worker's earnings for any pay period below the applicable statutory federal or state minimum wage.</t>
+  </si>
+  <si>
+    <t>W1102 Buttercup Ct, PO Box 192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W1102 Buttercup Ct,PO Box 192 </t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>jacqueo@leachfarms.com</t>
+  </si>
+  <si>
+    <t>Jacqueline</t>
+  </si>
+  <si>
+    <t>General Manager</t>
+  </si>
+  <si>
+    <t>Oldenburg</t>
+  </si>
+  <si>
+    <t>19203611880</t>
+  </si>
+  <si>
+    <t>WISCONSIN</t>
+  </si>
+  <si>
+    <t>JO-A-300-20150-612472</t>
+  </si>
+  <si>
+    <t>MalitzLaw, Inc.</t>
+  </si>
+  <si>
+    <t>California Supreme Court</t>
+  </si>
+  <si>
+    <t>Harvesting celery/per plant</t>
+  </si>
+  <si>
+    <t>H-300-20127-545625</t>
+  </si>
+  <si>
+    <t>Hobgood Farms GPTR</t>
+  </si>
+  <si>
+    <t>TENNESSEE</t>
+  </si>
+  <si>
+    <t>Adams</t>
+  </si>
+  <si>
+    <t>https://seasonaljobs.dol.gov/job-order/H-300-20127-545625</t>
+  </si>
+  <si>
+    <t>https://seasonaljobs.dol.gov/jobs/H-300-20127-545625</t>
   </si>
   <si>
     <t>BURLEY TOBACCO/DARK FIRED TOBACCO:  Workers will seed, set, cut, house, and strip tobacco. Workers will plant tobacco seeds in trays kept in environmentally controlled structure.  When seedlings reach appropriate size, workers will transplant seedlings to prepared beds according to supervisors instructions.  Workers will pull 6 to 10-inch-tall plants from a plant bed one at a time.  The stems of the plant must not be bruised.  The plants are put into bundles with roots at the same end so they can be transplanted.  The bundles are hauled to the field for transplanting into separate rows 38 to 42 inches apart.  The plants are spaced in the row from 16 to 20 inches apart.  Machines pulled by a small tractor are used to transplant the tobacco.  Workers will chop out weeds with a hoe, or pull by hand.  Workers will remove tops and suckers from plants.  Workers using a tobacco knife will cut ripe plants off at ground level and spear the tobacco stalk over metal spear onto wooden stick (stick is 48 inches long, one end is stuck in ground, and metal spear is placed on the other end).  Industry standard is six (6) plants per stick (stick and six (6) plants may weigh 80 pounds, and plants may be seven (7) feet tall).  Workers may drop sticks in standing tobacco before cutting by hand or by machine. 
@@ -555,7 +1597,166 @@
 Hemp: Preparing the ground for Setting, Cutting, Chopping out, Stripping, and housing.</t>
   </si>
   <si>
+    <t>Farmworker: Diversified</t>
+  </si>
+  <si>
+    <t>4932 Hugh Gill Road</t>
+  </si>
+  <si>
+    <t>Robertson</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
+    <t>Allensville</t>
+  </si>
+  <si>
+    <t>Logan</t>
+  </si>
+  <si>
+    <t>435 Keysburg Rd</t>
+  </si>
+  <si>
+    <t>Bunk House</t>
+  </si>
+  <si>
+    <t>Workers should have at least 3 months experience working in tobacco. Applicants must be able to furnish affirmative job references from recent employers. Must be physically able to meet and perform all job specifications stated in job order. Must be able to work in the hot humid weather for extended periods of time. Workers are subject to random drug testing post hire at no cost to the employee. Failing or refusing a drug test will result in immediate termination.</t>
+  </si>
+  <si>
+    <t>https://seasonaljobs.dol.gov/</t>
+  </si>
+  <si>
+    <t>8830 Tallon Lane Northeast</t>
+  </si>
+  <si>
+    <t>Suite C</t>
+  </si>
+  <si>
+    <t>dfernandez@wafla.org</t>
+  </si>
+  <si>
+    <t>Diana</t>
+  </si>
+  <si>
+    <t>Fernandez</t>
+  </si>
+  <si>
+    <t>' The Employer will make the following deductions from the worker’s wages: FICA taxes, Federal Income tax if required, other deductions expressly authorized or required by state or federal law, cash advances and repayment of loans, repayment of overpayment of wages to the worker, payment for articles which the Worker has voluntarily purchased from the Employer, long-distance telephone charges, recovery of any loss to the employer due to the worker’s damage (beyond normal wear and tear) in accordance with applicable state law and company policy, and any other deductions expressly authorized by the worker in writing. The employer will withhold from the employee’s wages the maximum amount for the portion of employee premium required under WA State RCW 50A.04, Paid Family and Medical Leave Program.</t>
+  </si>
+  <si>
+    <t>1511 Anton Place</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1511 Anton Place </t>
+  </si>
+  <si>
+    <t>Wenatchee</t>
+  </si>
+  <si>
+    <t>Dave</t>
+  </si>
+  <si>
+    <t>Burnett</t>
+  </si>
+  <si>
+    <t>15096694555</t>
+  </si>
+  <si>
+    <t>02:00:00</t>
+  </si>
+  <si>
+    <t>JO-A-300-20154-621441</t>
+  </si>
+  <si>
+    <t>WAFLA</t>
+  </si>
+  <si>
+    <t>See 8e. Additional Crop or Agricultural Activities and Wage Offer Information.</t>
+  </si>
+  <si>
+    <t>H-300-20121-530549</t>
+  </si>
+  <si>
+    <t>Harnish Farms</t>
+  </si>
+  <si>
+    <t>PENNSYLVANIA</t>
+  </si>
+  <si>
+    <t>Pequea</t>
+  </si>
+  <si>
+    <t>https://seasonaljobs.dol.gov/job-order/H-300-20121-530549</t>
+  </si>
+  <si>
+    <t>https://seasonaljobs.dol.gov/jobs/H-300-20121-530549</t>
+  </si>
+  <si>
     <t>Harvesting and general cop care of produce including watermelon, tobacco, hemp, pumpkins. Use post hole digger to erect &amp; repair farm fence farm field and shed sanitation.  Loading &amp; unloading trucks. Packing sorting, and grading produce &amp; tobacco.</t>
+  </si>
+  <si>
+    <t>Farmworker</t>
+  </si>
+  <si>
+    <t>569 Marticville RD</t>
+  </si>
+  <si>
+    <t>Lancaster</t>
+  </si>
+  <si>
+    <t>Pennsylvania</t>
+  </si>
+  <si>
+    <t>719 Marticville RD</t>
+  </si>
+  <si>
+    <t>Farm house/ Mobile home</t>
+  </si>
+  <si>
+    <t>h2visas@aol.com</t>
+  </si>
+  <si>
+    <t>360 CR 240</t>
+  </si>
+  <si>
+    <t>Hico</t>
+  </si>
+  <si>
+    <t>Broumley</t>
+  </si>
+  <si>
+    <t>Keith</t>
+  </si>
+  <si>
+    <t>12544851828</t>
+  </si>
+  <si>
+    <t>TEXAS</t>
+  </si>
+  <si>
+    <t>JO-A-300-19304-119724</t>
+  </si>
+  <si>
+    <t>45-2091.00</t>
+  </si>
+  <si>
+    <t>Agricultural Equipment Operators</t>
+  </si>
+  <si>
+    <t>H-300-20125-538913</t>
+  </si>
+  <si>
+    <t>Joseph Clark</t>
+  </si>
+  <si>
+    <t>Greensburg</t>
+  </si>
+  <si>
+    <t>https://seasonaljobs.dol.gov/job-order/H-300-20125-538913</t>
+  </si>
+  <si>
+    <t>https://seasonaljobs.dol.gov/jobs/H-300-20125-538913</t>
   </si>
   <si>
     <t>Burley Tobacco:	Duties to include, but not limited to:  greenhouse care, setting, topping, oiling, cutting, housing and stripping. Workers will be trained for a period of two days (14 hours) after which the worker will be expected to cut 100 sticks per hour - does not include dropping sticks in field. 
@@ -571,6 +1772,91 @@
 Down time:  Workers should expect occasional periods of little or no work because of weather, crop or other conditions beyond the employers control.  These periods can occur any time throughout the season.  Worker may be required to work in fields when crops are wet with dew / rain and should have suitable clothing for conditions which include light rain and temperatures ranging from 10 degrees to more than 100 degrees.  Workers should be able to stand, bend, stoop and work for prolonged periods of time and be physically fit to perform duties as assigned.  Workers will be trained for period of two (2) days (14 hours) after which workers will be expected to perform job required, i.e. cut 100 sticks per hour.  Care must be exercised at all times to prevent bruising or breaking crops.  Care must also be exercised in using tobacco knives and spears, while climbing and standing on barn rails, or with any use of equipment.</t>
   </si>
   <si>
+    <t>1591 Clark-Bagby Road</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>718 Mell Road</t>
+  </si>
+  <si>
+    <t>745 Fifth Avenue - Suite 500</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>sonia@soniacol.com</t>
+  </si>
+  <si>
+    <t>Sonia</t>
+  </si>
+  <si>
+    <t>Col</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>12126443880</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>Determination Issued - Denied</t>
+  </si>
+  <si>
+    <t xml:space="preserve">' FICA, state and federal taxes will not be deducted from those workers’ wages who are working under a temporary, agricultural visa unless required by the Internal Revenue Service or requested by the worker. Deductions will be made for willful destruction of property, monthly deduction for cable/satellite and landline telephone that 5 is requested by workers at the employer-provided housing. No deduction, however, will be made which would bring the worker’s hourly wage below the federal Minimum Wage. Deductions from wages which are expressly authorized in writing by the worker may also be made if voluntarily elected by the worker and permitted under applicable state or federal law. Employer assures that workers may be offered, but not required to work, more than the number of hours specified in the job order for a workday, or on the worker’s Sabbath or federal Holiday.
+</t>
+  </si>
+  <si>
+    <t>2033 Thomerson Park Road</t>
+  </si>
+  <si>
+    <t>marissa@kennyscheese.com</t>
+  </si>
+  <si>
+    <t>RAGO</t>
+  </si>
+  <si>
+    <t>MARISSA</t>
+  </si>
+  <si>
+    <t>12704344124</t>
+  </si>
+  <si>
+    <t>JO-A-300-20157-630782</t>
+  </si>
+  <si>
+    <t>SONIA COL &amp; ASSOCIATE, P.C.</t>
+  </si>
+  <si>
+    <t>COURT OF APPEALS</t>
+  </si>
+  <si>
+    <t>H-300-20119-524313</t>
+  </si>
+  <si>
+    <t>Smith's Farm Inc.</t>
+  </si>
+  <si>
+    <t>MAINE</t>
+  </si>
+  <si>
+    <t>Bulk freezer broccoli - $0.02 per lb.</t>
+  </si>
+  <si>
+    <t>Presque Isle</t>
+  </si>
+  <si>
+    <t>https://seasonaljobs.dol.gov/job-order/H-300-20119-524313</t>
+  </si>
+  <si>
+    <t>https://seasonaljobs.dol.gov/jobs/H-300-20119-524313</t>
+  </si>
+  <si>
     <t>Crops/Commodities:
 broccoli, potatoes, cauliflower, lettuce, cabbage.
 This job requires a minimum of 3 months of prior verifiable experience working in a field harvest/field packing crew on a vegetable farm. Workers must be able to perform all duties with accuracy, efficiency and an eye to quality standards to ensure the production of a premium quality product. 
@@ -584,276 +1870,97 @@
 All terms and conditions included in the job order will apply equally to all workers, both U.S. workers and H-2A workers, employed in the occupation described in this clearance order.</t>
   </si>
   <si>
-    <t>Farm Labor</t>
-  </si>
-  <si>
-    <t>Forestry Worker</t>
-  </si>
-  <si>
-    <t>Farm Workers and Laborers, Crop</t>
-  </si>
-  <si>
-    <t>FARM WORKER</t>
-  </si>
-  <si>
-    <t>Landscape Laborer II</t>
-  </si>
-  <si>
-    <t>Farmworker: Diversified</t>
-  </si>
-  <si>
-    <t>Farmworker</t>
-  </si>
-  <si>
     <t>Vegetable Harvester/Field Packer</t>
   </si>
   <si>
-    <t>21024 421st Ave.</t>
-  </si>
-  <si>
-    <t>7464 State Route 121 South</t>
-  </si>
-  <si>
-    <t>1520 Glensboro Rd</t>
-  </si>
-  <si>
-    <t>845 Miller Pike</t>
-  </si>
-  <si>
-    <t xml:space="preserve">101 Havens Bridge Rd </t>
-  </si>
-  <si>
-    <t>4932 Hugh Gill Road</t>
-  </si>
-  <si>
-    <t>569 Marticville RD</t>
-  </si>
-  <si>
-    <t>1591 Clark-Bagby Road</t>
-  </si>
-  <si>
     <t>99 Fort Fairfield Rd.</t>
   </si>
   <si>
-    <t>Lebanon</t>
-  </si>
-  <si>
-    <t>Kingsbury</t>
-  </si>
-  <si>
-    <t>Graves</t>
-  </si>
-  <si>
-    <t>Anderson</t>
-  </si>
-  <si>
-    <t>Marion</t>
-  </si>
-  <si>
-    <t>Monmouth</t>
-  </si>
-  <si>
-    <t>Robertson</t>
-  </si>
-  <si>
-    <t>Lancaster</t>
-  </si>
-  <si>
-    <t>Green</t>
-  </si>
-  <si>
     <t>Presque Isle City</t>
   </si>
   <si>
-    <t>40033</t>
-  </si>
-  <si>
-    <t>South Dakota</t>
-  </si>
-  <si>
-    <t>Kentucky</t>
-  </si>
-  <si>
-    <t>New Jersey</t>
-  </si>
-  <si>
-    <t>Tennessee</t>
-  </si>
-  <si>
-    <t>Pennsylvania</t>
-  </si>
-  <si>
     <t>Maine</t>
   </si>
   <si>
-    <t>FARMINGDALE</t>
-  </si>
-  <si>
-    <t>Allensville</t>
-  </si>
-  <si>
     <t>Westfield</t>
   </si>
   <si>
-    <t>Logan</t>
-  </si>
-  <si>
     <t>Westfield Town</t>
   </si>
   <si>
-    <t>21445 422nd Ave</t>
-  </si>
-  <si>
-    <t>1209 New Liberty Rd</t>
-  </si>
-  <si>
-    <t>435 Miller Pike</t>
-  </si>
-  <si>
-    <t>435 Keysburg Rd</t>
-  </si>
-  <si>
-    <t>719 Marticville RD</t>
-  </si>
-  <si>
-    <t>718 Mell Road</t>
-  </si>
-  <si>
     <t>690 Houlton Rd.</t>
   </si>
   <si>
-    <t>House</t>
-  </si>
-  <si>
-    <t>Frame</t>
-  </si>
-  <si>
-    <t>Mobile Home</t>
-  </si>
-  <si>
-    <t>HOUSE</t>
-  </si>
-  <si>
-    <t>Bunk House</t>
-  </si>
-  <si>
-    <t>Farm house/ Mobile home</t>
-  </si>
-  <si>
     <t>Frame Barracks</t>
   </si>
   <si>
-    <t>42204</t>
-  </si>
-  <si>
-    <t>04787</t>
-  </si>
-  <si>
-    <t>W=H</t>
-  </si>
-  <si>
-    <t>W&lt;H</t>
-  </si>
-  <si>
-    <t>See ADD C</t>
-  </si>
-  <si>
-    <t>Applicants must be able, willing and qualified to perform work described and must be available for the entire period specified. Job duties require considerable use of your arms and legs and moving your whole body, such as climbing, lifting, balancing, walking, stooping, and handling of materials. Requires physical stamina. Must lift/carry 50 lbs. Extensive walking through rough/forest terrain. 3 months brushsaw/chainsaw experience required.</t>
-  </si>
-  <si>
-    <t>Must show proof of legal authority to work in U.S. Drug, alcohol, tobacco free work zone. Min. age: 18-yrs due to travel</t>
-  </si>
-  <si>
-    <t>Physically able to bend, stoop, and able to stand on feet for long periods of time. Physically able to meet and perform all job specifications. May be required to take random drug and / or alcohol tests, at no cost to the worker.  Testing positive or failure to comply may result in immediate termination from employment.  All testing and background check will occur after employment has started and is not a part of the interview process.  May be required to submit a criminal background check, at no cost to the worker.  Felony convictions that employer reasonably believes, consistent with current law, will impair the safety and living conditions of other workers or other individuals on the farm will result in immediate termination.  Failure to comply with request for criminal background check may result in immediate termination of employment.</t>
-  </si>
-  <si>
-    <t>NONE</t>
-  </si>
-  <si>
-    <t>6 months experience with basic knowledge of golf course layout; understanding of golf course irrigation systems including ability to install/repair key components; knowledge of golf course building materials and golf course construction tasks including building/repair of greens, tees, and bunkers. Three to six months experience operating any one of the following: tractor, skid loader, plows/trencher. OT as needed.
-For this position, we will start workers out at $13.86/hour. Per New Mexico wage guidelines, they will also be paid $5/hour subsistence and $6.22/hour fringe for a total of $25.08/hour. Overtime will be paid at a rate of $32.01/hour ($20.79 + $5 + $6.22).
-We want to clarify the information on Item F.a.5. During the work week, which runs Sunday through Saturday, employees are scheduled to work a 40-hour work week and given OT as needed. F.a.5 does not allow us to enter such a work schedule. If we enter 8 hours each day, it would show 56 hours a week, which is not an accurate reflection of their work schedule.</t>
-  </si>
-  <si>
-    <t>Workers should have at least 3 months experience working in tobacco. Applicants must be able to furnish affirmative job references from recent employers. Must be physically able to meet and perform all job specifications stated in job order. Must be able to work in the hot humid weather for extended periods of time. Workers are subject to random drug testing post hire at no cost to the employee. Failing or refusing a drug test will result in immediate termination.</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
     <t>This job requires a minimum of 3 months  of prior verifiable experience working in a field harvest/field packing crew on a vegetable farm. Workers must be able to perform all duties with accuracy, efficiency and an eye to quality standards to ensure the production of a premium quality product.  Saturday work required.  Must be able to lift/carry 60 lbs.</t>
   </si>
   <si>
-    <t>https://focuscareer.ky.gov/careerexplorer/jobsearch/searchjobpostings</t>
-  </si>
-  <si>
-    <t>www.landscapesunlimited.com</t>
-  </si>
-  <si>
-    <t>https://seasonaljobs.dol.gov/</t>
-  </si>
-  <si>
     <t>www.maine.gov/labor</t>
   </si>
   <si>
-    <t>160 E Calle Primera</t>
-  </si>
-  <si>
-    <t>506 S Morgan Ave</t>
-  </si>
-  <si>
-    <t>101 Havens Bridge Rd</t>
-  </si>
-  <si>
-    <t>4244 Diamond Drive</t>
-  </si>
-  <si>
-    <t>San Ysidro</t>
-  </si>
-  <si>
-    <t>Andrews</t>
-  </si>
-  <si>
-    <t>Los Alamos</t>
-  </si>
-  <si>
-    <t>92173</t>
-  </si>
-  <si>
-    <t>29510</t>
-  </si>
-  <si>
-    <t>87544</t>
-  </si>
-  <si>
-    <t>jewel.tschetter@santel.net</t>
-  </si>
-  <si>
-    <t>s_garcia@me.com</t>
-  </si>
-  <si>
-    <t>jobs@norterraservices.us</t>
-  </si>
-  <si>
-    <t>george.digregorio@hotmail.com</t>
-  </si>
-  <si>
-    <t>h2visas@aol.com</t>
-  </si>
-  <si>
-    <t>Apify</t>
-  </si>
-  <si>
-    <t>central</t>
-  </si>
-  <si>
-    <t>rooftop</t>
-  </si>
-  <si>
-    <t>range_interpolation</t>
-  </si>
-  <si>
-    <t>worksite_fixed_by</t>
+    <t>2901 Bucks Bayou Road</t>
+  </si>
+  <si>
+    <t>Bay City</t>
+  </si>
+  <si>
+    <t>bcowan@fewaglobal.org</t>
+  </si>
+  <si>
+    <t>Brandi</t>
+  </si>
+  <si>
+    <t>Cowan</t>
+  </si>
+  <si>
+    <t>C.</t>
+  </si>
+  <si>
+    <t>19792457577</t>
+  </si>
+  <si>
+    <t>' Social  Security. Federal &amp; State Taxes. Employer may make payroll deductions at employee's request.</t>
+  </si>
+  <si>
+    <t>1 Alstede Farms Lane</t>
+  </si>
+  <si>
+    <t>Mailing: P.O. Box 278, Chester, NJ 07930</t>
+  </si>
+  <si>
+    <t>Mailing: P.O. Box 278, Chester, NJ 0793</t>
+  </si>
+  <si>
+    <t>Chester</t>
+  </si>
+  <si>
+    <t>kurt@alstedefarms.com</t>
+  </si>
+  <si>
+    <t>Kurt</t>
+  </si>
+  <si>
+    <t>Alstede</t>
+  </si>
+  <si>
+    <t>W.</t>
+  </si>
+  <si>
+    <t>19088797189</t>
+  </si>
+  <si>
+    <t>06:00:00</t>
+  </si>
+  <si>
+    <t>JO-A-300-20155-622370</t>
+  </si>
+  <si>
+    <t>Federation of Employers and Workers of America</t>
+  </si>
+  <si>
+    <t>business</t>
   </si>
 </sst>
 </file>
@@ -861,9 +1968,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -874,17 +1981,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -919,23 +2016,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -994,7 +2085,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1026,27 +2117,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1078,24 +2151,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1272,35 +2327,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BM13"/>
+  <dimension ref="A1:GT13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AR1" workbookViewId="0">
-      <selection activeCell="BC2" sqref="BC2"/>
+    <sheetView tabSelected="1" topLeftCell="GI1" workbookViewId="0">
+      <selection activeCell="GU1" sqref="GU1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="31" max="31" width="18.83203125" customWidth="1"/>
-    <col min="32" max="32" width="24.83203125" customWidth="1"/>
-    <col min="34" max="34" width="19.33203125" customWidth="1"/>
-    <col min="36" max="36" width="32.6640625" customWidth="1"/>
-    <col min="37" max="37" width="15.6640625" customWidth="1"/>
-    <col min="43" max="43" width="41.33203125" customWidth="1"/>
-    <col min="44" max="44" width="43.83203125" customWidth="1"/>
-    <col min="45" max="45" width="22.83203125" customWidth="1"/>
-    <col min="46" max="46" width="29.1640625" customWidth="1"/>
-    <col min="55" max="55" width="18.1640625" customWidth="1"/>
-    <col min="56" max="56" width="18.5" customWidth="1"/>
-    <col min="58" max="58" width="18.1640625" customWidth="1"/>
-    <col min="59" max="59" width="23" customWidth="1"/>
-    <col min="60" max="60" width="32.1640625" customWidth="1"/>
-    <col min="61" max="61" width="20.5" customWidth="1"/>
-    <col min="63" max="63" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.6640625" customWidth="1"/>
+    <col min="4" max="4" width="27.83203125" customWidth="1"/>
+    <col min="203" max="203" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:202" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1464,51 +2504,462 @@
         <v>53</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>255</v>
+        <v>54</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="DD1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="DF1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="DG1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="DH1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="DI1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="DJ1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="DK1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="DL1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="DM1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DN1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="DO1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="DP1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="DQ1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="DR1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="DS1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="DT1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="DU1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="DV1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="DW1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="DX1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="DY1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="DZ1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="EA1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="EB1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="EC1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="ED1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="EE1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="EF1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="EG1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="EH1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="EI1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="EJ1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="EK1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="EL1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="EM1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="EN1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="EO1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="EP1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="EQ1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="ER1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="ES1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="ET1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="EU1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="EV1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="EW1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="EX1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="EY1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="EZ1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="FA1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="FB1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="FC1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="FD1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="FE1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="FF1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="FG1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="FH1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="FI1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="FJ1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="FK1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="FL1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="FM1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="FN1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="FO1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="FP1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="FQ1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="FR1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="FS1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="FT1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="FU1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="FV1" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="FW1" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="FX1" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="FY1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="FZ1" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="GA1" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="GB1" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="GC1" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="GD1" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="GE1" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="GF1" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="GG1" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="GH1" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="GI1" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="GJ1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="GK1" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="GL1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="GM1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="GN1" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="GO1" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="GP1" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="GQ1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="GR1" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="GS1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="GT1" s="1" t="s">
+        <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:202" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>202</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>203</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>204</v>
       </c>
       <c r="E2" t="s">
-        <v>90</v>
+        <v>205</v>
       </c>
       <c r="F2">
         <v>10</v>
@@ -1523,13 +2974,13 @@
         <v>44362</v>
       </c>
       <c r="K2" t="s">
-        <v>103</v>
+        <v>206</v>
       </c>
       <c r="L2" t="s">
-        <v>90</v>
-      </c>
-      <c r="M2" t="s">
-        <v>118</v>
+        <v>205</v>
+      </c>
+      <c r="M2">
+        <v>57353</v>
       </c>
       <c r="N2" s="2">
         <v>44006</v>
@@ -1537,17 +2988,17 @@
       <c r="O2" t="b">
         <v>1</v>
       </c>
-      <c r="P2" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>142</v>
+      <c r="P2" t="s">
+        <v>207</v>
+      </c>
+      <c r="R2" t="s">
+        <v>208</v>
       </c>
       <c r="S2" t="s">
-        <v>154</v>
+        <v>209</v>
       </c>
       <c r="T2" t="s">
-        <v>166</v>
+        <v>210</v>
       </c>
       <c r="U2">
         <v>3</v>
@@ -1565,37 +3016,37 @@
         <v>10</v>
       </c>
       <c r="AA2" t="s">
-        <v>174</v>
+        <v>211</v>
       </c>
       <c r="AB2" t="s">
-        <v>103</v>
+        <v>206</v>
       </c>
       <c r="AC2" t="s">
-        <v>184</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>118</v>
+        <v>212</v>
+      </c>
+      <c r="AD2">
+        <v>57353</v>
       </c>
       <c r="AE2" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="AF2" t="s">
-        <v>103</v>
+        <v>206</v>
       </c>
       <c r="AG2" t="s">
-        <v>184</v>
+        <v>212</v>
       </c>
       <c r="AH2" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="AI2" t="s">
-        <v>212</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>118</v>
+        <v>215</v>
+      </c>
+      <c r="AJ2">
+        <v>57353</v>
       </c>
       <c r="AK2" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="AL2">
         <v>10</v>
@@ -1604,25 +3055,25 @@
         <v>1</v>
       </c>
       <c r="AN2" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="AO2" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="AQ2" t="s">
-        <v>174</v>
+        <v>211</v>
       </c>
       <c r="AR2" t="s">
-        <v>103</v>
+        <v>206</v>
       </c>
       <c r="AS2" t="s">
-        <v>90</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>118</v>
+        <v>205</v>
+      </c>
+      <c r="AT2">
+        <v>57353</v>
       </c>
       <c r="AU2" t="s">
-        <v>246</v>
+        <v>218</v>
       </c>
       <c r="AV2">
         <v>16055462485</v>
@@ -1637,13 +3088,13 @@
         <v>44007.046527777777</v>
       </c>
       <c r="AZ2" t="s">
-        <v>251</v>
+        <v>219</v>
       </c>
       <c r="BA2" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="BF2" t="s">
-        <v>253</v>
+        <v>221</v>
       </c>
       <c r="BG2">
         <v>1</v>
@@ -1655,7 +3106,7 @@
         <v>44.335346000000001</v>
       </c>
       <c r="BJ2" t="s">
-        <v>253</v>
+        <v>221</v>
       </c>
       <c r="BK2">
         <v>1</v>
@@ -1666,19 +3117,268 @@
       <c r="BM2">
         <v>44.275126</v>
       </c>
+      <c r="BN2">
+        <v>0</v>
+      </c>
+      <c r="BR2">
+        <v>0</v>
+      </c>
+      <c r="BS2">
+        <v>0</v>
+      </c>
+      <c r="BT2">
+        <v>1</v>
+      </c>
+      <c r="BU2">
+        <v>1</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>222</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>223</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>224</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>225</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>226</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>227</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>228</v>
+      </c>
+      <c r="CJ2">
+        <v>73737</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>229</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>230</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>231</v>
+      </c>
+      <c r="CS2">
+        <v>0</v>
+      </c>
+      <c r="CT2">
+        <v>0</v>
+      </c>
+      <c r="CV2" s="2">
+        <v>44008</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>232</v>
+      </c>
+      <c r="CX2">
+        <v>1</v>
+      </c>
+      <c r="CY2">
+        <v>1</v>
+      </c>
+      <c r="CZ2" t="s">
+        <v>233</v>
+      </c>
+      <c r="DA2">
+        <v>0</v>
+      </c>
+      <c r="DE2" t="s">
+        <v>211</v>
+      </c>
+      <c r="DH2" t="s">
+        <v>224</v>
+      </c>
+      <c r="DK2" t="s">
+        <v>211</v>
+      </c>
+      <c r="DM2" t="s">
+        <v>206</v>
+      </c>
+      <c r="DN2" t="s">
+        <v>224</v>
+      </c>
+      <c r="DP2" t="s">
+        <v>234</v>
+      </c>
+      <c r="DQ2" t="s">
+        <v>235</v>
+      </c>
+      <c r="DR2" t="s">
+        <v>236</v>
+      </c>
+      <c r="DT2" t="s">
+        <v>237</v>
+      </c>
+      <c r="DV2">
+        <v>57353</v>
+      </c>
+      <c r="DX2" t="s">
+        <v>205</v>
+      </c>
+      <c r="DY2" t="s">
+        <v>213</v>
+      </c>
+      <c r="EB2">
+        <v>1</v>
+      </c>
+      <c r="EC2">
+        <v>1</v>
+      </c>
+      <c r="ED2">
+        <v>1</v>
+      </c>
+      <c r="EF2">
+        <v>0</v>
+      </c>
+      <c r="EG2">
+        <v>8</v>
+      </c>
+      <c r="EH2">
+        <v>0</v>
+      </c>
+      <c r="EI2" t="s">
+        <v>238</v>
+      </c>
+      <c r="EJ2" t="s">
+        <v>239</v>
+      </c>
+      <c r="EK2">
+        <v>1</v>
+      </c>
+      <c r="EL2">
+        <v>1</v>
+      </c>
+      <c r="EM2">
+        <v>1</v>
+      </c>
+      <c r="EN2">
+        <v>0</v>
+      </c>
+      <c r="EO2" t="s">
+        <v>240</v>
+      </c>
+      <c r="EQ2">
+        <v>0</v>
+      </c>
+      <c r="ER2" t="s">
+        <v>241</v>
+      </c>
+      <c r="ES2">
+        <v>50</v>
+      </c>
+      <c r="ET2">
+        <v>1</v>
+      </c>
+      <c r="EV2">
+        <v>0</v>
+      </c>
+      <c r="EW2">
+        <v>55</v>
+      </c>
+      <c r="EX2">
+        <v>12.68</v>
+      </c>
+      <c r="EY2">
+        <v>8</v>
+      </c>
+      <c r="FA2">
+        <v>11211</v>
+      </c>
+      <c r="FC2" t="s">
+        <v>242</v>
+      </c>
+      <c r="FD2">
+        <v>0</v>
+      </c>
+      <c r="FG2" t="b">
+        <v>0</v>
+      </c>
+      <c r="FK2" t="s">
+        <v>243</v>
+      </c>
+      <c r="FT2">
+        <v>1</v>
+      </c>
+      <c r="FU2" s="2">
+        <v>44068</v>
+      </c>
+      <c r="FV2" s="2">
+        <v>44362</v>
+      </c>
+      <c r="FW2">
+        <v>8</v>
+      </c>
+      <c r="FX2" t="s">
+        <v>244</v>
+      </c>
+      <c r="FY2" t="s">
+        <v>245</v>
+      </c>
+      <c r="GA2">
+        <v>0</v>
+      </c>
+      <c r="GC2">
+        <v>0</v>
+      </c>
+      <c r="GD2">
+        <v>0</v>
+      </c>
+      <c r="GF2">
+        <v>8</v>
+      </c>
+      <c r="GG2">
+        <v>0</v>
+      </c>
+      <c r="GH2">
+        <v>4</v>
+      </c>
+      <c r="GJ2">
+        <v>10</v>
+      </c>
+      <c r="GK2">
+        <v>1</v>
+      </c>
+      <c r="GL2">
+        <v>0</v>
+      </c>
+      <c r="GM2">
+        <v>8</v>
+      </c>
+      <c r="GO2" t="s">
+        <v>246</v>
+      </c>
+      <c r="GP2" t="s">
+        <v>247</v>
+      </c>
+      <c r="GQ2">
+        <v>8</v>
+      </c>
+      <c r="GS2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:202" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>248</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>249</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>250</v>
+      </c>
+      <c r="D3" t="s">
+        <v>623</v>
       </c>
       <c r="E3" t="s">
-        <v>91</v>
+        <v>251</v>
       </c>
       <c r="F3">
         <v>50</v>
@@ -1693,13 +3393,13 @@
         <v>44195</v>
       </c>
       <c r="K3" t="s">
-        <v>104</v>
+        <v>252</v>
       </c>
       <c r="L3" t="s">
-        <v>115</v>
-      </c>
-      <c r="M3" t="s">
-        <v>119</v>
+        <v>253</v>
+      </c>
+      <c r="M3">
+        <v>28379</v>
       </c>
       <c r="N3" s="2">
         <v>43972</v>
@@ -1707,17 +3407,17 @@
       <c r="O3" t="b">
         <v>1</v>
       </c>
-      <c r="P3" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>143</v>
+      <c r="P3" t="s">
+        <v>254</v>
+      </c>
+      <c r="R3" t="s">
+        <v>255</v>
       </c>
       <c r="S3" t="s">
-        <v>155</v>
+        <v>256</v>
       </c>
       <c r="T3" t="s">
-        <v>167</v>
+        <v>257</v>
       </c>
       <c r="U3">
         <v>3</v>
@@ -1732,22 +3432,22 @@
         <v>35</v>
       </c>
       <c r="AO3" t="s">
-        <v>224</v>
+        <v>258</v>
       </c>
       <c r="AQ3" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="AR3" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="AS3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>243</v>
+        <v>251</v>
+      </c>
+      <c r="AT3">
+        <v>92173</v>
       </c>
       <c r="AU3" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="AV3">
         <v>19109975011</v>
@@ -1759,13 +3459,13 @@
         <v>43973</v>
       </c>
       <c r="AZ3" t="s">
-        <v>251</v>
+        <v>219</v>
       </c>
       <c r="BA3" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="BF3" t="s">
-        <v>253</v>
+        <v>221</v>
       </c>
       <c r="BG3">
         <v>1</v>
@@ -1776,19 +3476,274 @@
       <c r="BI3">
         <v>32.549171999999999</v>
       </c>
+      <c r="BN3">
+        <v>1</v>
+      </c>
+      <c r="BR3">
+        <v>1</v>
+      </c>
+      <c r="BS3">
+        <v>0</v>
+      </c>
+      <c r="BT3">
+        <v>1</v>
+      </c>
+      <c r="BU3">
+        <v>1</v>
+      </c>
+      <c r="BY3" t="s">
+        <v>262</v>
+      </c>
+      <c r="CA3" t="s">
+        <v>263</v>
+      </c>
+      <c r="CB3" t="s">
+        <v>224</v>
+      </c>
+      <c r="CC3" t="s">
+        <v>264</v>
+      </c>
+      <c r="CE3" t="s">
+        <v>265</v>
+      </c>
+      <c r="CF3" t="s">
+        <v>266</v>
+      </c>
+      <c r="CH3" t="s">
+        <v>267</v>
+      </c>
+      <c r="CJ3">
+        <v>78737</v>
+      </c>
+      <c r="CL3" t="s">
+        <v>268</v>
+      </c>
+      <c r="CM3" t="s">
+        <v>230</v>
+      </c>
+      <c r="CR3" t="s">
+        <v>231</v>
+      </c>
+      <c r="CS3">
+        <v>0</v>
+      </c>
+      <c r="CT3">
+        <v>0</v>
+      </c>
+      <c r="CV3" s="2">
+        <v>44012</v>
+      </c>
+      <c r="CW3" t="s">
+        <v>269</v>
+      </c>
+      <c r="CX3">
+        <v>0</v>
+      </c>
+      <c r="CY3">
+        <v>1</v>
+      </c>
+      <c r="CZ3" t="s">
+        <v>233</v>
+      </c>
+      <c r="DA3">
+        <v>0</v>
+      </c>
+      <c r="DE3" t="s">
+        <v>270</v>
+      </c>
+      <c r="DH3" t="s">
+        <v>224</v>
+      </c>
+      <c r="DK3" t="s">
+        <v>270</v>
+      </c>
+      <c r="DM3" t="s">
+        <v>271</v>
+      </c>
+      <c r="DN3" t="s">
+        <v>224</v>
+      </c>
+      <c r="DO3" t="s">
+        <v>264</v>
+      </c>
+      <c r="DP3" t="s">
+        <v>272</v>
+      </c>
+      <c r="DQ3" t="s">
+        <v>273</v>
+      </c>
+      <c r="DR3" t="s">
+        <v>274</v>
+      </c>
+      <c r="DT3" t="s">
+        <v>275</v>
+      </c>
+      <c r="DV3">
+        <v>50006</v>
+      </c>
+      <c r="DX3" t="s">
+        <v>276</v>
+      </c>
+      <c r="EB3">
+        <v>1</v>
+      </c>
+      <c r="EC3">
+        <v>0</v>
+      </c>
+      <c r="ED3">
+        <v>1</v>
+      </c>
+      <c r="EF3">
+        <v>1</v>
+      </c>
+      <c r="EG3">
+        <v>9</v>
+      </c>
+      <c r="EH3">
+        <v>1</v>
+      </c>
+      <c r="EI3" t="s">
+        <v>277</v>
+      </c>
+      <c r="EJ3" t="s">
+        <v>278</v>
+      </c>
+      <c r="EK3">
+        <v>1</v>
+      </c>
+      <c r="EL3">
+        <v>1</v>
+      </c>
+      <c r="EM3">
+        <v>1</v>
+      </c>
+      <c r="EN3">
+        <v>0</v>
+      </c>
+      <c r="EO3" t="s">
+        <v>279</v>
+      </c>
+      <c r="EQ3">
+        <v>0</v>
+      </c>
+      <c r="ER3" t="s">
+        <v>280</v>
+      </c>
+      <c r="ES3">
+        <v>75</v>
+      </c>
+      <c r="ET3">
+        <v>1</v>
+      </c>
+      <c r="EU3">
+        <v>12.68</v>
+      </c>
+      <c r="EV3">
+        <v>1</v>
+      </c>
+      <c r="EW3">
+        <v>55</v>
+      </c>
+      <c r="EX3">
+        <v>12.68</v>
+      </c>
+      <c r="EY3">
+        <v>9</v>
+      </c>
+      <c r="FA3">
+        <v>11511</v>
+      </c>
+      <c r="FB3" t="s">
+        <v>281</v>
+      </c>
+      <c r="FC3" t="s">
+        <v>242</v>
+      </c>
+      <c r="FD3">
+        <v>0</v>
+      </c>
+      <c r="FG3" t="b">
+        <v>1</v>
+      </c>
+      <c r="FK3" t="s">
+        <v>243</v>
+      </c>
+      <c r="FT3">
+        <v>1</v>
+      </c>
+      <c r="FU3" s="2">
+        <v>44053</v>
+      </c>
+      <c r="FV3" s="2">
+        <v>44171</v>
+      </c>
+      <c r="FW3">
+        <v>0</v>
+      </c>
+      <c r="FX3" t="s">
+        <v>282</v>
+      </c>
+      <c r="FY3" t="s">
+        <v>283</v>
+      </c>
+      <c r="FZ3" t="s">
+        <v>284</v>
+      </c>
+      <c r="GA3">
+        <v>0</v>
+      </c>
+      <c r="GC3">
+        <v>0</v>
+      </c>
+      <c r="GD3">
+        <v>1</v>
+      </c>
+      <c r="GF3">
+        <v>9</v>
+      </c>
+      <c r="GG3">
+        <v>0</v>
+      </c>
+      <c r="GH3">
+        <v>5</v>
+      </c>
+      <c r="GJ3">
+        <v>40</v>
+      </c>
+      <c r="GK3">
+        <v>6</v>
+      </c>
+      <c r="GL3">
+        <v>0</v>
+      </c>
+      <c r="GM3">
+        <v>9</v>
+      </c>
+      <c r="GO3" t="s">
+        <v>246</v>
+      </c>
+      <c r="GP3" t="s">
+        <v>285</v>
+      </c>
+      <c r="GQ3">
+        <v>9</v>
+      </c>
+      <c r="GS3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:202" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>286</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>249</v>
       </c>
       <c r="C4" t="s">
-        <v>80</v>
+        <v>287</v>
       </c>
       <c r="E4" t="s">
-        <v>92</v>
+        <v>288</v>
       </c>
       <c r="F4">
         <v>190</v>
@@ -1797,7 +3752,7 @@
         <v>10.95</v>
       </c>
       <c r="H4" t="s">
-        <v>99</v>
+        <v>289</v>
       </c>
       <c r="I4" s="2">
         <v>44004</v>
@@ -1806,13 +3761,13 @@
         <v>44120</v>
       </c>
       <c r="K4" t="s">
-        <v>105</v>
+        <v>290</v>
       </c>
       <c r="L4" t="s">
-        <v>116</v>
-      </c>
-      <c r="M4" t="s">
-        <v>120</v>
+        <v>291</v>
+      </c>
+      <c r="M4">
+        <v>83815</v>
       </c>
       <c r="N4" s="2">
         <v>43969</v>
@@ -1820,17 +3775,17 @@
       <c r="O4" t="b">
         <v>0</v>
       </c>
-      <c r="P4" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>144</v>
+      <c r="P4" t="s">
+        <v>292</v>
+      </c>
+      <c r="R4" t="s">
+        <v>293</v>
       </c>
       <c r="S4" t="s">
-        <v>156</v>
+        <v>294</v>
       </c>
       <c r="T4" t="s">
-        <v>167</v>
+        <v>257</v>
       </c>
       <c r="U4">
         <v>0</v>
@@ -1845,22 +3800,22 @@
         <v>35</v>
       </c>
       <c r="AO4" t="s">
-        <v>225</v>
+        <v>295</v>
       </c>
       <c r="AQ4" t="s">
-        <v>237</v>
+        <v>296</v>
       </c>
       <c r="AR4" t="s">
-        <v>241</v>
+        <v>297</v>
       </c>
       <c r="AS4" t="s">
-        <v>92</v>
-      </c>
-      <c r="AT4" t="s">
-        <v>244</v>
+        <v>288</v>
+      </c>
+      <c r="AT4">
+        <v>29510</v>
       </c>
       <c r="AU4" t="s">
-        <v>248</v>
+        <v>298</v>
       </c>
       <c r="AV4">
         <v>12082924290</v>
@@ -1872,13 +3827,13 @@
         <v>43973</v>
       </c>
       <c r="AZ4" t="s">
-        <v>251</v>
+        <v>219</v>
       </c>
       <c r="BA4" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="BF4" t="s">
-        <v>253</v>
+        <v>221</v>
       </c>
       <c r="BG4">
         <v>1</v>
@@ -1889,19 +3844,298 @@
       <c r="BI4">
         <v>33.443674000000001</v>
       </c>
+      <c r="BN4">
+        <v>2</v>
+      </c>
+      <c r="BR4">
+        <v>0</v>
+      </c>
+      <c r="BS4">
+        <v>0</v>
+      </c>
+      <c r="BT4">
+        <v>0</v>
+      </c>
+      <c r="BU4">
+        <v>1</v>
+      </c>
+      <c r="BY4" t="s">
+        <v>299</v>
+      </c>
+      <c r="CA4" t="s">
+        <v>300</v>
+      </c>
+      <c r="CB4" t="s">
+        <v>224</v>
+      </c>
+      <c r="CC4" t="s">
+        <v>301</v>
+      </c>
+      <c r="CE4" t="s">
+        <v>302</v>
+      </c>
+      <c r="CF4" t="s">
+        <v>303</v>
+      </c>
+      <c r="CG4" t="s">
+        <v>304</v>
+      </c>
+      <c r="CH4" t="s">
+        <v>305</v>
+      </c>
+      <c r="CJ4">
+        <v>83336</v>
+      </c>
+      <c r="CL4" t="s">
+        <v>306</v>
+      </c>
+      <c r="CM4" t="s">
+        <v>230</v>
+      </c>
+      <c r="CR4" t="s">
+        <v>231</v>
+      </c>
+      <c r="CS4">
+        <v>1</v>
+      </c>
+      <c r="CT4">
+        <v>0</v>
+      </c>
+      <c r="CV4" s="2">
+        <v>44011</v>
+      </c>
+      <c r="CW4" t="s">
+        <v>307</v>
+      </c>
+      <c r="CX4">
+        <v>0</v>
+      </c>
+      <c r="CY4">
+        <v>0</v>
+      </c>
+      <c r="CZ4" t="s">
+        <v>233</v>
+      </c>
+      <c r="DA4">
+        <v>0</v>
+      </c>
+      <c r="DE4" t="s">
+        <v>308</v>
+      </c>
+      <c r="DF4" t="s">
+        <v>309</v>
+      </c>
+      <c r="DH4" t="s">
+        <v>224</v>
+      </c>
+      <c r="DK4" t="s">
+        <v>308</v>
+      </c>
+      <c r="DL4" t="s">
+        <v>310</v>
+      </c>
+      <c r="DM4" t="s">
+        <v>311</v>
+      </c>
+      <c r="DN4" t="s">
+        <v>224</v>
+      </c>
+      <c r="DO4" t="s">
+        <v>312</v>
+      </c>
+      <c r="DP4" t="s">
+        <v>313</v>
+      </c>
+      <c r="DQ4" t="s">
+        <v>235</v>
+      </c>
+      <c r="DR4" t="s">
+        <v>314</v>
+      </c>
+      <c r="DT4" t="s">
+        <v>315</v>
+      </c>
+      <c r="DV4">
+        <v>83627</v>
+      </c>
+      <c r="DX4" t="s">
+        <v>291</v>
+      </c>
+      <c r="EB4">
+        <v>1</v>
+      </c>
+      <c r="EC4">
+        <v>1</v>
+      </c>
+      <c r="ED4">
+        <v>1</v>
+      </c>
+      <c r="EF4">
+        <v>1</v>
+      </c>
+      <c r="EG4">
+        <v>8</v>
+      </c>
+      <c r="EH4">
+        <v>0</v>
+      </c>
+      <c r="EI4" t="s">
+        <v>238</v>
+      </c>
+      <c r="EJ4" t="s">
+        <v>239</v>
+      </c>
+      <c r="EK4">
+        <v>1</v>
+      </c>
+      <c r="EL4">
+        <v>0</v>
+      </c>
+      <c r="EM4">
+        <v>0</v>
+      </c>
+      <c r="EN4">
+        <v>0</v>
+      </c>
+      <c r="EO4" t="s">
+        <v>316</v>
+      </c>
+      <c r="EQ4">
+        <v>1</v>
+      </c>
+      <c r="ER4" t="s">
+        <v>317</v>
+      </c>
+      <c r="ES4">
+        <v>100</v>
+      </c>
+      <c r="ET4">
+        <v>1</v>
+      </c>
+      <c r="EU4">
+        <v>12.68</v>
+      </c>
+      <c r="EV4">
+        <v>1</v>
+      </c>
+      <c r="EW4">
+        <v>55</v>
+      </c>
+      <c r="EX4">
+        <v>12.68</v>
+      </c>
+      <c r="EY4">
+        <v>8</v>
+      </c>
+      <c r="FA4">
+        <v>1112</v>
+      </c>
+      <c r="FC4" t="s">
+        <v>242</v>
+      </c>
+      <c r="FD4">
+        <v>0</v>
+      </c>
+      <c r="FG4" t="b">
+        <v>1</v>
+      </c>
+      <c r="FK4" t="s">
+        <v>243</v>
+      </c>
+      <c r="FL4">
+        <v>0</v>
+      </c>
+      <c r="FM4" t="s">
+        <v>318</v>
+      </c>
+      <c r="FN4" t="s">
+        <v>319</v>
+      </c>
+      <c r="FO4" t="s">
+        <v>320</v>
+      </c>
+      <c r="FP4" t="s">
+        <v>321</v>
+      </c>
+      <c r="FQ4" t="s">
+        <v>322</v>
+      </c>
+      <c r="FR4" t="s">
+        <v>323</v>
+      </c>
+      <c r="FT4">
+        <v>1</v>
+      </c>
+      <c r="FU4" s="2">
+        <v>44044</v>
+      </c>
+      <c r="FV4" s="2">
+        <v>44166</v>
+      </c>
+      <c r="FW4">
+        <v>0</v>
+      </c>
+      <c r="FX4" t="s">
+        <v>324</v>
+      </c>
+      <c r="FY4" t="s">
+        <v>325</v>
+      </c>
+      <c r="GA4">
+        <v>0</v>
+      </c>
+      <c r="GC4">
+        <v>0</v>
+      </c>
+      <c r="GD4">
+        <v>0</v>
+      </c>
+      <c r="GF4">
+        <v>8</v>
+      </c>
+      <c r="GG4">
+        <v>0</v>
+      </c>
+      <c r="GH4">
+        <v>1</v>
+      </c>
+      <c r="GJ4">
+        <v>4</v>
+      </c>
+      <c r="GK4">
+        <v>2</v>
+      </c>
+      <c r="GL4">
+        <v>0</v>
+      </c>
+      <c r="GM4">
+        <v>8</v>
+      </c>
+      <c r="GO4" t="s">
+        <v>326</v>
+      </c>
+      <c r="GP4" t="s">
+        <v>247</v>
+      </c>
+      <c r="GQ4">
+        <v>8</v>
+      </c>
+      <c r="GS4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:202" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>327</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>203</v>
       </c>
       <c r="C5" t="s">
-        <v>81</v>
+        <v>328</v>
       </c>
       <c r="E5" t="s">
-        <v>93</v>
+        <v>329</v>
       </c>
       <c r="F5">
         <v>4</v>
@@ -1916,13 +4150,13 @@
         <v>44185</v>
       </c>
       <c r="K5" t="s">
-        <v>106</v>
+        <v>330</v>
       </c>
       <c r="L5" t="s">
-        <v>93</v>
-      </c>
-      <c r="M5" t="s">
-        <v>121</v>
+        <v>329</v>
+      </c>
+      <c r="M5">
+        <v>42066</v>
       </c>
       <c r="N5" s="2">
         <v>43964</v>
@@ -1930,17 +4164,17 @@
       <c r="O5" t="b">
         <v>0</v>
       </c>
-      <c r="P5" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>145</v>
+      <c r="P5" t="s">
+        <v>331</v>
+      </c>
+      <c r="R5" t="s">
+        <v>332</v>
       </c>
       <c r="S5" t="s">
-        <v>157</v>
+        <v>333</v>
       </c>
       <c r="T5" t="s">
-        <v>168</v>
+        <v>334</v>
       </c>
       <c r="U5">
         <v>0</v>
@@ -1958,37 +4192,37 @@
         <v>4</v>
       </c>
       <c r="AA5" t="s">
-        <v>175</v>
+        <v>335</v>
       </c>
       <c r="AB5" t="s">
-        <v>106</v>
+        <v>330</v>
       </c>
       <c r="AC5" t="s">
-        <v>185</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>121</v>
+        <v>336</v>
+      </c>
+      <c r="AD5">
+        <v>42066</v>
       </c>
       <c r="AE5" t="s">
-        <v>195</v>
+        <v>337</v>
       </c>
       <c r="AF5" t="s">
-        <v>106</v>
+        <v>330</v>
       </c>
       <c r="AG5" t="s">
-        <v>185</v>
+        <v>336</v>
       </c>
       <c r="AH5" t="s">
-        <v>175</v>
+        <v>335</v>
       </c>
       <c r="AI5" t="s">
-        <v>213</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>121</v>
+        <v>338</v>
+      </c>
+      <c r="AJ5">
+        <v>42066</v>
       </c>
       <c r="AK5" t="s">
-        <v>195</v>
+        <v>337</v>
       </c>
       <c r="AL5">
         <v>8</v>
@@ -1997,25 +4231,25 @@
         <v>1</v>
       </c>
       <c r="AN5" t="s">
-        <v>222</v>
+        <v>339</v>
       </c>
       <c r="AO5" t="s">
-        <v>226</v>
-      </c>
-      <c r="AP5" s="3" t="s">
-        <v>232</v>
+        <v>340</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>341</v>
       </c>
       <c r="AQ5" t="s">
-        <v>175</v>
+        <v>335</v>
       </c>
       <c r="AR5" t="s">
-        <v>106</v>
+        <v>330</v>
       </c>
       <c r="AS5" t="s">
-        <v>93</v>
-      </c>
-      <c r="AT5" t="s">
-        <v>121</v>
+        <v>329</v>
+      </c>
+      <c r="AT5">
+        <v>42066</v>
       </c>
       <c r="AV5">
         <v>12703452026</v>
@@ -2030,13 +4264,13 @@
         <v>43973</v>
       </c>
       <c r="AZ5" t="s">
-        <v>251</v>
+        <v>219</v>
       </c>
       <c r="BA5" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="BF5" t="s">
-        <v>254</v>
+        <v>342</v>
       </c>
       <c r="BG5">
         <v>0.9</v>
@@ -2048,7 +4282,7 @@
         <v>36.810330999999998</v>
       </c>
       <c r="BJ5" t="s">
-        <v>254</v>
+        <v>342</v>
       </c>
       <c r="BK5">
         <v>0.9</v>
@@ -2059,19 +4293,295 @@
       <c r="BM5">
         <v>36.810330999999998</v>
       </c>
+      <c r="BN5">
+        <v>3</v>
+      </c>
+      <c r="BR5">
+        <v>0</v>
+      </c>
+      <c r="BS5">
+        <v>0</v>
+      </c>
+      <c r="BT5">
+        <v>0</v>
+      </c>
+      <c r="BU5">
+        <v>1</v>
+      </c>
+      <c r="BY5" t="s">
+        <v>343</v>
+      </c>
+      <c r="BZ5" t="s">
+        <v>344</v>
+      </c>
+      <c r="CA5" t="s">
+        <v>345</v>
+      </c>
+      <c r="CB5" t="s">
+        <v>224</v>
+      </c>
+      <c r="CC5" t="s">
+        <v>346</v>
+      </c>
+      <c r="CE5" t="s">
+        <v>347</v>
+      </c>
+      <c r="CF5" t="s">
+        <v>348</v>
+      </c>
+      <c r="CG5" t="s">
+        <v>349</v>
+      </c>
+      <c r="CH5" t="s">
+        <v>350</v>
+      </c>
+      <c r="CJ5">
+        <v>22949</v>
+      </c>
+      <c r="CL5" t="s">
+        <v>351</v>
+      </c>
+      <c r="CM5" t="s">
+        <v>230</v>
+      </c>
+      <c r="CR5" t="s">
+        <v>231</v>
+      </c>
+      <c r="CS5">
+        <v>0</v>
+      </c>
+      <c r="CT5">
+        <v>0</v>
+      </c>
+      <c r="CV5" s="2">
+        <v>44005</v>
+      </c>
+      <c r="CW5" t="s">
+        <v>352</v>
+      </c>
+      <c r="CX5">
+        <v>0</v>
+      </c>
+      <c r="CY5">
+        <v>1</v>
+      </c>
+      <c r="CZ5" t="s">
+        <v>233</v>
+      </c>
+      <c r="DA5">
+        <v>0</v>
+      </c>
+      <c r="DE5" t="s">
+        <v>353</v>
+      </c>
+      <c r="DF5" t="s">
+        <v>354</v>
+      </c>
+      <c r="DH5" t="s">
+        <v>224</v>
+      </c>
+      <c r="DK5" t="s">
+        <v>355</v>
+      </c>
+      <c r="DL5" t="s">
+        <v>356</v>
+      </c>
+      <c r="DM5" t="s">
+        <v>357</v>
+      </c>
+      <c r="DN5" t="s">
+        <v>224</v>
+      </c>
+      <c r="DO5" t="s">
+        <v>358</v>
+      </c>
+      <c r="DP5" t="s">
+        <v>359</v>
+      </c>
+      <c r="DQ5" t="s">
+        <v>360</v>
+      </c>
+      <c r="DR5" t="s">
+        <v>361</v>
+      </c>
+      <c r="DT5" t="s">
+        <v>362</v>
+      </c>
+      <c r="DV5">
+        <v>80831</v>
+      </c>
+      <c r="DX5" t="s">
+        <v>363</v>
+      </c>
+      <c r="EB5">
+        <v>1</v>
+      </c>
+      <c r="EC5">
+        <v>1</v>
+      </c>
+      <c r="ED5">
+        <v>1</v>
+      </c>
+      <c r="EF5">
+        <v>1</v>
+      </c>
+      <c r="EG5">
+        <v>8.5</v>
+      </c>
+      <c r="EH5">
+        <v>0</v>
+      </c>
+      <c r="EI5" t="s">
+        <v>364</v>
+      </c>
+      <c r="EJ5" t="s">
+        <v>365</v>
+      </c>
+      <c r="EK5">
+        <v>1</v>
+      </c>
+      <c r="EL5">
+        <v>1</v>
+      </c>
+      <c r="EM5">
+        <v>1</v>
+      </c>
+      <c r="EN5">
+        <v>0</v>
+      </c>
+      <c r="EO5" t="s">
+        <v>366</v>
+      </c>
+      <c r="EQ5">
+        <v>0</v>
+      </c>
+      <c r="ER5" t="s">
+        <v>367</v>
+      </c>
+      <c r="ES5">
+        <v>60</v>
+      </c>
+      <c r="ET5">
+        <v>1</v>
+      </c>
+      <c r="EU5">
+        <v>12.68</v>
+      </c>
+      <c r="EV5">
+        <v>1</v>
+      </c>
+      <c r="EW5">
+        <v>55</v>
+      </c>
+      <c r="EX5">
+        <v>12.68</v>
+      </c>
+      <c r="EY5">
+        <v>8.5</v>
+      </c>
+      <c r="FA5">
+        <v>1114</v>
+      </c>
+      <c r="FC5" t="s">
+        <v>242</v>
+      </c>
+      <c r="FD5">
+        <v>0</v>
+      </c>
+      <c r="FG5" t="b">
+        <v>0</v>
+      </c>
+      <c r="FK5" t="s">
+        <v>243</v>
+      </c>
+      <c r="FN5" t="s">
+        <v>367</v>
+      </c>
+      <c r="FO5" t="s">
+        <v>358</v>
+      </c>
+      <c r="FP5" t="s">
+        <v>368</v>
+      </c>
+      <c r="FQ5" t="s">
+        <v>369</v>
+      </c>
+      <c r="FR5" t="s">
+        <v>370</v>
+      </c>
+      <c r="FT5">
+        <v>1</v>
+      </c>
+      <c r="FU5" s="2">
+        <v>44053</v>
+      </c>
+      <c r="FV5" s="2">
+        <v>44165</v>
+      </c>
+      <c r="FW5">
+        <v>7.5</v>
+      </c>
+      <c r="FX5" t="s">
+        <v>371</v>
+      </c>
+      <c r="FY5" t="s">
+        <v>372</v>
+      </c>
+      <c r="GA5">
+        <v>0</v>
+      </c>
+      <c r="GC5">
+        <v>0</v>
+      </c>
+      <c r="GD5">
+        <v>0</v>
+      </c>
+      <c r="GF5">
+        <v>8.5</v>
+      </c>
+      <c r="GG5">
+        <v>0</v>
+      </c>
+      <c r="GH5">
+        <v>1</v>
+      </c>
+      <c r="GJ5">
+        <v>36</v>
+      </c>
+      <c r="GK5">
+        <v>1</v>
+      </c>
+      <c r="GL5">
+        <v>0</v>
+      </c>
+      <c r="GM5">
+        <v>8.5</v>
+      </c>
+      <c r="GO5" t="s">
+        <v>246</v>
+      </c>
+      <c r="GP5" t="s">
+        <v>247</v>
+      </c>
+      <c r="GQ5">
+        <v>8.5</v>
+      </c>
+      <c r="GS5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:202" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>68</v>
+        <v>373</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>203</v>
       </c>
       <c r="C6" t="s">
-        <v>82</v>
+        <v>374</v>
       </c>
       <c r="E6" t="s">
-        <v>93</v>
+        <v>329</v>
       </c>
       <c r="F6">
         <v>8</v>
@@ -2080,7 +4590,7 @@
         <v>12.4</v>
       </c>
       <c r="H6" t="s">
-        <v>100</v>
+        <v>375</v>
       </c>
       <c r="I6" s="2">
         <v>44032</v>
@@ -2089,13 +4599,13 @@
         <v>44211</v>
       </c>
       <c r="K6" t="s">
-        <v>107</v>
+        <v>376</v>
       </c>
       <c r="L6" t="s">
-        <v>93</v>
-      </c>
-      <c r="M6" t="s">
-        <v>122</v>
+        <v>329</v>
+      </c>
+      <c r="M6">
+        <v>40342</v>
       </c>
       <c r="N6" s="2">
         <v>43964</v>
@@ -2103,17 +4613,17 @@
       <c r="O6" t="b">
         <v>0</v>
       </c>
-      <c r="P6" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>146</v>
+      <c r="P6" t="s">
+        <v>377</v>
+      </c>
+      <c r="R6" t="s">
+        <v>378</v>
       </c>
       <c r="S6" t="s">
-        <v>158</v>
+        <v>379</v>
       </c>
       <c r="T6" t="s">
-        <v>168</v>
+        <v>334</v>
       </c>
       <c r="U6">
         <v>0</v>
@@ -2131,37 +4641,37 @@
         <v>8</v>
       </c>
       <c r="AA6" t="s">
-        <v>176</v>
+        <v>380</v>
       </c>
       <c r="AB6" t="s">
-        <v>107</v>
+        <v>376</v>
       </c>
       <c r="AC6" t="s">
-        <v>186</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>122</v>
+        <v>381</v>
+      </c>
+      <c r="AD6">
+        <v>40342</v>
       </c>
       <c r="AE6" t="s">
-        <v>195</v>
+        <v>337</v>
       </c>
       <c r="AF6" t="s">
-        <v>107</v>
+        <v>376</v>
       </c>
       <c r="AG6" t="s">
-        <v>186</v>
+        <v>381</v>
       </c>
       <c r="AH6" t="s">
-        <v>206</v>
+        <v>382</v>
       </c>
       <c r="AI6" t="s">
-        <v>214</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>122</v>
+        <v>383</v>
+      </c>
+      <c r="AJ6">
+        <v>40342</v>
       </c>
       <c r="AK6" t="s">
-        <v>195</v>
+        <v>337</v>
       </c>
       <c r="AL6">
         <v>8</v>
@@ -2170,25 +4680,25 @@
         <v>1</v>
       </c>
       <c r="AN6" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="AO6" t="s">
-        <v>226</v>
-      </c>
-      <c r="AP6" s="3" t="s">
-        <v>232</v>
+        <v>340</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>341</v>
       </c>
       <c r="AQ6" t="s">
-        <v>176</v>
+        <v>380</v>
       </c>
       <c r="AR6" t="s">
-        <v>107</v>
+        <v>376</v>
       </c>
       <c r="AS6" t="s">
-        <v>93</v>
-      </c>
-      <c r="AT6" t="s">
-        <v>122</v>
+        <v>329</v>
+      </c>
+      <c r="AT6">
+        <v>40342</v>
       </c>
       <c r="AV6">
         <v>15206801705</v>
@@ -2203,13 +4713,13 @@
         <v>43973</v>
       </c>
       <c r="AZ6" t="s">
-        <v>251</v>
+        <v>219</v>
       </c>
       <c r="BA6" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="BF6" t="s">
-        <v>254</v>
+        <v>342</v>
       </c>
       <c r="BG6">
         <v>1</v>
@@ -2221,7 +4731,7 @@
         <v>38.027172999999998</v>
       </c>
       <c r="BJ6" t="s">
-        <v>254</v>
+        <v>342</v>
       </c>
       <c r="BK6">
         <v>1</v>
@@ -2232,19 +4742,181 @@
       <c r="BM6">
         <v>37.959800000000001</v>
       </c>
+      <c r="BN6">
+        <v>4</v>
+      </c>
+      <c r="BR6">
+        <v>0</v>
+      </c>
+      <c r="BS6">
+        <v>0</v>
+      </c>
+      <c r="BT6">
+        <v>0</v>
+      </c>
+      <c r="BU6">
+        <v>0</v>
+      </c>
+      <c r="CR6" t="s">
+        <v>384</v>
+      </c>
+      <c r="CS6">
+        <v>0</v>
+      </c>
+      <c r="CT6">
+        <v>0</v>
+      </c>
+      <c r="CV6" s="2">
+        <v>43755.695891203701</v>
+      </c>
+      <c r="CX6">
+        <v>0</v>
+      </c>
+      <c r="CY6">
+        <v>0</v>
+      </c>
+      <c r="CZ6" t="s">
+        <v>233</v>
+      </c>
+      <c r="DA6">
+        <v>0</v>
+      </c>
+      <c r="DE6" t="s">
+        <v>385</v>
+      </c>
+      <c r="DH6" t="s">
+        <v>224</v>
+      </c>
+      <c r="DK6" t="s">
+        <v>385</v>
+      </c>
+      <c r="DM6" t="s">
+        <v>386</v>
+      </c>
+      <c r="DN6" t="s">
+        <v>224</v>
+      </c>
+      <c r="DO6" t="s">
+        <v>387</v>
+      </c>
+      <c r="DP6" t="s">
+        <v>388</v>
+      </c>
+      <c r="DQ6" t="s">
+        <v>389</v>
+      </c>
+      <c r="DR6" t="s">
+        <v>390</v>
+      </c>
+      <c r="DS6" t="s">
+        <v>391</v>
+      </c>
+      <c r="DT6" t="s">
+        <v>392</v>
+      </c>
+      <c r="DV6">
+        <v>33834</v>
+      </c>
+      <c r="DX6" t="s">
+        <v>393</v>
+      </c>
+      <c r="EB6">
+        <v>0</v>
+      </c>
+      <c r="EC6">
+        <v>0</v>
+      </c>
+      <c r="ED6">
+        <v>0</v>
+      </c>
+      <c r="EF6">
+        <v>0</v>
+      </c>
+      <c r="EH6">
+        <v>0</v>
+      </c>
+      <c r="EI6" t="s">
+        <v>394</v>
+      </c>
+      <c r="EJ6" t="s">
+        <v>395</v>
+      </c>
+      <c r="EK6">
+        <v>0</v>
+      </c>
+      <c r="EL6">
+        <v>0</v>
+      </c>
+      <c r="EM6">
+        <v>0</v>
+      </c>
+      <c r="EN6">
+        <v>0</v>
+      </c>
+      <c r="EQ6">
+        <v>0</v>
+      </c>
+      <c r="ET6">
+        <v>0</v>
+      </c>
+      <c r="EV6">
+        <v>0</v>
+      </c>
+      <c r="FA6">
+        <v>111334</v>
+      </c>
+      <c r="FC6" t="s">
+        <v>242</v>
+      </c>
+      <c r="FD6">
+        <v>0</v>
+      </c>
+      <c r="FG6" t="b">
+        <v>0</v>
+      </c>
+      <c r="FK6" t="s">
+        <v>243</v>
+      </c>
+      <c r="FT6">
+        <v>0</v>
+      </c>
+      <c r="FU6" s="2">
+        <v>43723</v>
+      </c>
+      <c r="FV6" s="2">
+        <v>43976</v>
+      </c>
+      <c r="FX6" t="s">
+        <v>396</v>
+      </c>
+      <c r="FY6" t="s">
+        <v>397</v>
+      </c>
+      <c r="GC6">
+        <v>0</v>
+      </c>
+      <c r="GD6">
+        <v>0</v>
+      </c>
+      <c r="GO6" t="s">
+        <v>398</v>
+      </c>
+      <c r="GS6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:202" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>69</v>
+        <v>399</v>
       </c>
       <c r="B7" t="s">
-        <v>76</v>
+        <v>203</v>
       </c>
       <c r="C7" t="s">
-        <v>83</v>
+        <v>400</v>
       </c>
       <c r="E7" t="s">
-        <v>93</v>
+        <v>329</v>
       </c>
       <c r="F7">
         <v>4</v>
@@ -2253,7 +4925,7 @@
         <v>12.4</v>
       </c>
       <c r="H7" t="s">
-        <v>100</v>
+        <v>375</v>
       </c>
       <c r="I7" s="2">
         <v>44022</v>
@@ -2262,13 +4934,13 @@
         <v>44247</v>
       </c>
       <c r="K7" t="s">
-        <v>108</v>
+        <v>401</v>
       </c>
       <c r="L7" t="s">
-        <v>93</v>
-      </c>
-      <c r="M7" t="s">
-        <v>123</v>
+        <v>329</v>
+      </c>
+      <c r="M7">
+        <v>40069</v>
       </c>
       <c r="N7" s="2">
         <v>43964</v>
@@ -2276,17 +4948,17 @@
       <c r="O7" t="b">
         <v>0</v>
       </c>
-      <c r="P7" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="R7" s="3" t="s">
-        <v>147</v>
+      <c r="P7" t="s">
+        <v>402</v>
+      </c>
+      <c r="R7" t="s">
+        <v>403</v>
       </c>
       <c r="S7" t="s">
-        <v>159</v>
+        <v>404</v>
       </c>
       <c r="T7" t="s">
-        <v>168</v>
+        <v>334</v>
       </c>
       <c r="U7">
         <v>0</v>
@@ -2304,37 +4976,37 @@
         <v>4</v>
       </c>
       <c r="AA7" t="s">
-        <v>177</v>
+        <v>405</v>
       </c>
       <c r="AB7" t="s">
-        <v>183</v>
+        <v>406</v>
       </c>
       <c r="AC7" t="s">
-        <v>187</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>193</v>
+        <v>407</v>
+      </c>
+      <c r="AD7">
+        <v>40033</v>
       </c>
       <c r="AE7" t="s">
-        <v>195</v>
+        <v>337</v>
       </c>
       <c r="AF7" t="s">
-        <v>183</v>
+        <v>406</v>
       </c>
       <c r="AG7" t="s">
-        <v>187</v>
+        <v>407</v>
       </c>
       <c r="AH7" t="s">
-        <v>207</v>
+        <v>408</v>
       </c>
       <c r="AI7" t="s">
-        <v>214</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>193</v>
+        <v>383</v>
+      </c>
+      <c r="AJ7">
+        <v>40033</v>
       </c>
       <c r="AK7" t="s">
-        <v>195</v>
+        <v>337</v>
       </c>
       <c r="AL7">
         <v>10</v>
@@ -2343,25 +5015,25 @@
         <v>1</v>
       </c>
       <c r="AN7" t="s">
-        <v>222</v>
+        <v>339</v>
       </c>
       <c r="AO7" t="s">
-        <v>226</v>
-      </c>
-      <c r="AP7" s="3" t="s">
-        <v>232</v>
+        <v>340</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>341</v>
       </c>
       <c r="AQ7" t="s">
-        <v>177</v>
+        <v>405</v>
       </c>
       <c r="AR7" t="s">
-        <v>183</v>
+        <v>406</v>
       </c>
       <c r="AS7" t="s">
-        <v>93</v>
-      </c>
-      <c r="AT7" t="s">
-        <v>193</v>
+        <v>329</v>
+      </c>
+      <c r="AT7">
+        <v>40033</v>
       </c>
       <c r="AV7">
         <v>12704024069</v>
@@ -2376,13 +5048,13 @@
         <v>43973</v>
       </c>
       <c r="AZ7" t="s">
-        <v>251</v>
+        <v>219</v>
       </c>
       <c r="BA7" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="BF7" t="s">
-        <v>254</v>
+        <v>342</v>
       </c>
       <c r="BG7">
         <v>1</v>
@@ -2394,7 +5066,7 @@
         <v>37.559142999999999</v>
       </c>
       <c r="BJ7" t="s">
-        <v>254</v>
+        <v>342</v>
       </c>
       <c r="BK7">
         <v>1</v>
@@ -2405,19 +5077,274 @@
       <c r="BM7">
         <v>37.555204000000003</v>
       </c>
+      <c r="BN7">
+        <v>5</v>
+      </c>
+      <c r="BR7">
+        <v>0</v>
+      </c>
+      <c r="BS7">
+        <v>0</v>
+      </c>
+      <c r="BT7">
+        <v>0</v>
+      </c>
+      <c r="BU7">
+        <v>1</v>
+      </c>
+      <c r="BY7" t="s">
+        <v>409</v>
+      </c>
+      <c r="BZ7" t="s">
+        <v>410</v>
+      </c>
+      <c r="CA7" t="s">
+        <v>411</v>
+      </c>
+      <c r="CB7" t="s">
+        <v>224</v>
+      </c>
+      <c r="CC7" t="s">
+        <v>412</v>
+      </c>
+      <c r="CE7" t="s">
+        <v>413</v>
+      </c>
+      <c r="CF7" t="s">
+        <v>414</v>
+      </c>
+      <c r="CH7" t="s">
+        <v>415</v>
+      </c>
+      <c r="CI7">
+        <v>104</v>
+      </c>
+      <c r="CJ7">
+        <v>98516</v>
+      </c>
+      <c r="CL7" t="s">
+        <v>416</v>
+      </c>
+      <c r="CM7" t="s">
+        <v>230</v>
+      </c>
+      <c r="CR7" t="s">
+        <v>231</v>
+      </c>
+      <c r="CS7">
+        <v>0</v>
+      </c>
+      <c r="CT7">
+        <v>0</v>
+      </c>
+      <c r="CV7" s="2">
+        <v>44011</v>
+      </c>
+      <c r="CW7" t="s">
+        <v>417</v>
+      </c>
+      <c r="CX7">
+        <v>0</v>
+      </c>
+      <c r="CY7">
+        <v>0</v>
+      </c>
+      <c r="CZ7" t="s">
+        <v>233</v>
+      </c>
+      <c r="DA7">
+        <v>1</v>
+      </c>
+      <c r="DE7" t="s">
+        <v>418</v>
+      </c>
+      <c r="DH7" t="s">
+        <v>224</v>
+      </c>
+      <c r="DK7" t="s">
+        <v>418</v>
+      </c>
+      <c r="DM7" t="s">
+        <v>419</v>
+      </c>
+      <c r="DN7" t="s">
+        <v>224</v>
+      </c>
+      <c r="DO7" t="s">
+        <v>420</v>
+      </c>
+      <c r="DP7" t="s">
+        <v>421</v>
+      </c>
+      <c r="DQ7" t="s">
+        <v>422</v>
+      </c>
+      <c r="DR7" t="s">
+        <v>423</v>
+      </c>
+      <c r="DT7" t="s">
+        <v>424</v>
+      </c>
+      <c r="DV7">
+        <v>98371</v>
+      </c>
+      <c r="DX7" t="s">
+        <v>425</v>
+      </c>
+      <c r="EB7">
+        <v>1</v>
+      </c>
+      <c r="EC7">
+        <v>1</v>
+      </c>
+      <c r="ED7">
+        <v>1</v>
+      </c>
+      <c r="EF7">
+        <v>1</v>
+      </c>
+      <c r="EG7">
+        <v>8</v>
+      </c>
+      <c r="EH7">
+        <v>0</v>
+      </c>
+      <c r="EI7" t="s">
+        <v>364</v>
+      </c>
+      <c r="EJ7" t="s">
+        <v>426</v>
+      </c>
+      <c r="EK7">
+        <v>1</v>
+      </c>
+      <c r="EL7">
+        <v>1</v>
+      </c>
+      <c r="EM7">
+        <v>1</v>
+      </c>
+      <c r="EN7">
+        <v>0</v>
+      </c>
+      <c r="EO7" t="s">
+        <v>427</v>
+      </c>
+      <c r="EQ7">
+        <v>0</v>
+      </c>
+      <c r="ER7" t="s">
+        <v>428</v>
+      </c>
+      <c r="ES7">
+        <v>60</v>
+      </c>
+      <c r="ET7">
+        <v>1</v>
+      </c>
+      <c r="EU7">
+        <v>12.68</v>
+      </c>
+      <c r="EV7">
+        <v>1</v>
+      </c>
+      <c r="EW7">
+        <v>55</v>
+      </c>
+      <c r="EX7">
+        <v>12.68</v>
+      </c>
+      <c r="EY7">
+        <v>8</v>
+      </c>
+      <c r="FA7">
+        <v>1113</v>
+      </c>
+      <c r="FC7" t="s">
+        <v>242</v>
+      </c>
+      <c r="FD7">
+        <v>0</v>
+      </c>
+      <c r="FG7" t="b">
+        <v>1</v>
+      </c>
+      <c r="FK7" t="s">
+        <v>243</v>
+      </c>
+      <c r="FT7">
+        <v>1</v>
+      </c>
+      <c r="FU7" s="2">
+        <v>44032</v>
+      </c>
+      <c r="FV7" s="2">
+        <v>44163</v>
+      </c>
+      <c r="FW7">
+        <v>8</v>
+      </c>
+      <c r="FX7" t="s">
+        <v>429</v>
+      </c>
+      <c r="FY7" t="s">
+        <v>430</v>
+      </c>
+      <c r="GA7">
+        <v>0</v>
+      </c>
+      <c r="GC7">
+        <v>0</v>
+      </c>
+      <c r="GD7">
+        <v>0</v>
+      </c>
+      <c r="GF7">
+        <v>8</v>
+      </c>
+      <c r="GG7">
+        <v>0</v>
+      </c>
+      <c r="GH7">
+        <v>1</v>
+      </c>
+      <c r="GJ7">
+        <v>18</v>
+      </c>
+      <c r="GK7">
+        <v>19</v>
+      </c>
+      <c r="GL7">
+        <v>0</v>
+      </c>
+      <c r="GM7">
+        <v>8</v>
+      </c>
+      <c r="GO7" t="s">
+        <v>431</v>
+      </c>
+      <c r="GP7" t="s">
+        <v>247</v>
+      </c>
+      <c r="GQ7">
+        <v>8</v>
+      </c>
+      <c r="GS7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:202" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>70</v>
+        <v>432</v>
       </c>
       <c r="B8" t="s">
-        <v>76</v>
+        <v>203</v>
       </c>
       <c r="C8" t="s">
-        <v>84</v>
+        <v>433</v>
       </c>
       <c r="E8" t="s">
-        <v>94</v>
+        <v>434</v>
       </c>
       <c r="F8">
         <v>3</v>
@@ -2432,13 +5359,13 @@
         <v>44145</v>
       </c>
       <c r="K8" t="s">
-        <v>109</v>
+        <v>435</v>
       </c>
       <c r="L8" t="s">
-        <v>94</v>
-      </c>
-      <c r="M8" t="s">
-        <v>124</v>
+        <v>434</v>
+      </c>
+      <c r="M8">
+        <v>7727</v>
       </c>
       <c r="N8" s="2">
         <v>43964</v>
@@ -2446,17 +5373,17 @@
       <c r="O8" t="b">
         <v>1</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="R8" s="3" t="s">
-        <v>148</v>
+      <c r="P8" t="s">
+        <v>436</v>
+      </c>
+      <c r="R8" t="s">
+        <v>437</v>
       </c>
       <c r="S8" t="s">
-        <v>160</v>
+        <v>438</v>
       </c>
       <c r="T8" t="s">
-        <v>169</v>
+        <v>439</v>
       </c>
       <c r="U8">
         <v>1</v>
@@ -2474,37 +5401,37 @@
         <v>3</v>
       </c>
       <c r="AA8" t="s">
-        <v>178</v>
+        <v>440</v>
       </c>
       <c r="AB8" t="s">
-        <v>109</v>
+        <v>435</v>
       </c>
       <c r="AC8" t="s">
-        <v>188</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>124</v>
+        <v>441</v>
+      </c>
+      <c r="AD8">
+        <v>7727</v>
       </c>
       <c r="AE8" t="s">
-        <v>196</v>
+        <v>442</v>
       </c>
       <c r="AF8" t="s">
-        <v>200</v>
+        <v>443</v>
       </c>
       <c r="AG8" t="s">
-        <v>188</v>
+        <v>441</v>
       </c>
       <c r="AH8" t="s">
-        <v>178</v>
+        <v>440</v>
       </c>
       <c r="AI8" t="s">
-        <v>215</v>
-      </c>
-      <c r="AJ8" t="s">
-        <v>124</v>
+        <v>444</v>
+      </c>
+      <c r="AJ8">
+        <v>7727</v>
       </c>
       <c r="AK8" t="s">
-        <v>196</v>
+        <v>442</v>
       </c>
       <c r="AL8">
         <v>3</v>
@@ -2513,25 +5440,25 @@
         <v>1</v>
       </c>
       <c r="AN8" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="AO8" t="s">
-        <v>227</v>
+        <v>445</v>
       </c>
       <c r="AQ8" t="s">
-        <v>238</v>
+        <v>446</v>
       </c>
       <c r="AR8" t="s">
-        <v>109</v>
+        <v>435</v>
       </c>
       <c r="AS8" t="s">
-        <v>94</v>
-      </c>
-      <c r="AT8" t="s">
-        <v>124</v>
+        <v>434</v>
+      </c>
+      <c r="AT8">
+        <v>7727</v>
       </c>
       <c r="AU8" t="s">
-        <v>249</v>
+        <v>447</v>
       </c>
       <c r="AV8">
         <v>17325988597</v>
@@ -2546,13 +5473,13 @@
         <v>43973</v>
       </c>
       <c r="AZ8" t="s">
-        <v>251</v>
+        <v>219</v>
       </c>
       <c r="BA8" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="BF8" t="s">
-        <v>253</v>
+        <v>221</v>
       </c>
       <c r="BG8">
         <v>1</v>
@@ -2564,7 +5491,7 @@
         <v>40.207441000000003</v>
       </c>
       <c r="BJ8" t="s">
-        <v>253</v>
+        <v>221</v>
       </c>
       <c r="BK8">
         <v>1</v>
@@ -2575,19 +5502,271 @@
       <c r="BM8">
         <v>40.207441000000003</v>
       </c>
+      <c r="BN8">
+        <v>6</v>
+      </c>
+      <c r="BR8">
+        <v>0</v>
+      </c>
+      <c r="BS8">
+        <v>1</v>
+      </c>
+      <c r="BT8">
+        <v>0</v>
+      </c>
+      <c r="BU8">
+        <v>1</v>
+      </c>
+      <c r="BY8" t="s">
+        <v>448</v>
+      </c>
+      <c r="CA8" t="s">
+        <v>449</v>
+      </c>
+      <c r="CB8" t="s">
+        <v>224</v>
+      </c>
+      <c r="CC8" t="s">
+        <v>450</v>
+      </c>
+      <c r="CE8" t="s">
+        <v>451</v>
+      </c>
+      <c r="CF8" t="s">
+        <v>452</v>
+      </c>
+      <c r="CG8" t="s">
+        <v>453</v>
+      </c>
+      <c r="CH8" t="s">
+        <v>454</v>
+      </c>
+      <c r="CJ8">
+        <v>83661</v>
+      </c>
+      <c r="CL8" t="s">
+        <v>306</v>
+      </c>
+      <c r="CM8" t="s">
+        <v>230</v>
+      </c>
+      <c r="CR8" t="s">
+        <v>231</v>
+      </c>
+      <c r="CS8">
+        <v>0</v>
+      </c>
+      <c r="CT8">
+        <v>0</v>
+      </c>
+      <c r="CV8" s="2">
+        <v>44012</v>
+      </c>
+      <c r="CW8" t="s">
+        <v>455</v>
+      </c>
+      <c r="CX8">
+        <v>0</v>
+      </c>
+      <c r="CY8">
+        <v>0</v>
+      </c>
+      <c r="CZ8" t="s">
+        <v>233</v>
+      </c>
+      <c r="DA8">
+        <v>0</v>
+      </c>
+      <c r="DE8" t="s">
+        <v>456</v>
+      </c>
+      <c r="DH8" t="s">
+        <v>224</v>
+      </c>
+      <c r="DK8" t="s">
+        <v>456</v>
+      </c>
+      <c r="DM8" t="s">
+        <v>457</v>
+      </c>
+      <c r="DN8" t="s">
+        <v>224</v>
+      </c>
+      <c r="DO8" t="s">
+        <v>458</v>
+      </c>
+      <c r="DP8" t="s">
+        <v>459</v>
+      </c>
+      <c r="DQ8" t="s">
+        <v>460</v>
+      </c>
+      <c r="DR8" t="s">
+        <v>461</v>
+      </c>
+      <c r="DT8" t="s">
+        <v>462</v>
+      </c>
+      <c r="DV8">
+        <v>83607</v>
+      </c>
+      <c r="DX8" t="s">
+        <v>291</v>
+      </c>
+      <c r="EB8">
+        <v>1</v>
+      </c>
+      <c r="EC8">
+        <v>1</v>
+      </c>
+      <c r="ED8">
+        <v>1</v>
+      </c>
+      <c r="EF8">
+        <v>1</v>
+      </c>
+      <c r="EG8">
+        <v>8</v>
+      </c>
+      <c r="EH8">
+        <v>0</v>
+      </c>
+      <c r="EI8" t="s">
+        <v>364</v>
+      </c>
+      <c r="EJ8" t="s">
+        <v>463</v>
+      </c>
+      <c r="EK8">
+        <v>1</v>
+      </c>
+      <c r="EL8">
+        <v>1</v>
+      </c>
+      <c r="EM8">
+        <v>1</v>
+      </c>
+      <c r="EN8">
+        <v>0</v>
+      </c>
+      <c r="EO8" t="s">
+        <v>464</v>
+      </c>
+      <c r="EQ8">
+        <v>0</v>
+      </c>
+      <c r="ER8" t="s">
+        <v>465</v>
+      </c>
+      <c r="ES8">
+        <v>50</v>
+      </c>
+      <c r="ET8">
+        <v>1</v>
+      </c>
+      <c r="EU8">
+        <v>12.68</v>
+      </c>
+      <c r="EV8">
+        <v>1</v>
+      </c>
+      <c r="EW8">
+        <v>55</v>
+      </c>
+      <c r="EX8">
+        <v>12.68</v>
+      </c>
+      <c r="EY8">
+        <v>8</v>
+      </c>
+      <c r="FA8">
+        <v>1113</v>
+      </c>
+      <c r="FC8" t="s">
+        <v>242</v>
+      </c>
+      <c r="FD8">
+        <v>0</v>
+      </c>
+      <c r="FG8" t="b">
+        <v>1</v>
+      </c>
+      <c r="FK8" t="s">
+        <v>243</v>
+      </c>
+      <c r="FT8">
+        <v>1</v>
+      </c>
+      <c r="FU8" s="2">
+        <v>44047</v>
+      </c>
+      <c r="FV8" s="2">
+        <v>44104</v>
+      </c>
+      <c r="FW8">
+        <v>0</v>
+      </c>
+      <c r="FX8" t="s">
+        <v>429</v>
+      </c>
+      <c r="FY8" t="s">
+        <v>430</v>
+      </c>
+      <c r="GA8">
+        <v>0</v>
+      </c>
+      <c r="GC8">
+        <v>0</v>
+      </c>
+      <c r="GD8">
+        <v>0</v>
+      </c>
+      <c r="GF8">
+        <v>8</v>
+      </c>
+      <c r="GG8">
+        <v>20</v>
+      </c>
+      <c r="GH8">
+        <v>1</v>
+      </c>
+      <c r="GJ8">
+        <v>19</v>
+      </c>
+      <c r="GK8">
+        <v>31</v>
+      </c>
+      <c r="GL8">
+        <v>0</v>
+      </c>
+      <c r="GM8">
+        <v>8</v>
+      </c>
+      <c r="GO8" t="s">
+        <v>246</v>
+      </c>
+      <c r="GP8" t="s">
+        <v>247</v>
+      </c>
+      <c r="GQ8">
+        <v>8</v>
+      </c>
+      <c r="GS8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:202" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>466</v>
       </c>
       <c r="B9" t="s">
-        <v>77</v>
+        <v>249</v>
       </c>
       <c r="C9" t="s">
-        <v>85</v>
+        <v>467</v>
       </c>
       <c r="E9" t="s">
-        <v>95</v>
+        <v>468</v>
       </c>
       <c r="F9">
         <v>12</v>
@@ -2596,7 +5775,7 @@
         <v>25.08</v>
       </c>
       <c r="H9" t="s">
-        <v>101</v>
+        <v>469</v>
       </c>
       <c r="I9" s="2">
         <v>44033</v>
@@ -2605,13 +5784,13 @@
         <v>44104</v>
       </c>
       <c r="K9" t="s">
-        <v>110</v>
+        <v>470</v>
       </c>
       <c r="L9" t="s">
-        <v>117</v>
-      </c>
-      <c r="M9" t="s">
-        <v>125</v>
+        <v>471</v>
+      </c>
+      <c r="M9">
+        <v>68512</v>
       </c>
       <c r="N9" s="2">
         <v>43964</v>
@@ -2619,17 +5798,17 @@
       <c r="O9" t="b">
         <v>1</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="R9" s="3" t="s">
-        <v>149</v>
+      <c r="P9" t="s">
+        <v>472</v>
+      </c>
+      <c r="R9" t="s">
+        <v>473</v>
       </c>
       <c r="S9" t="s">
-        <v>161</v>
+        <v>474</v>
       </c>
       <c r="T9" t="s">
-        <v>170</v>
+        <v>475</v>
       </c>
       <c r="U9">
         <v>6</v>
@@ -2644,22 +5823,22 @@
         <v>40</v>
       </c>
       <c r="AO9" t="s">
-        <v>228</v>
+        <v>476</v>
       </c>
       <c r="AP9" t="s">
-        <v>233</v>
+        <v>477</v>
       </c>
       <c r="AQ9" t="s">
-        <v>239</v>
+        <v>478</v>
       </c>
       <c r="AR9" t="s">
-        <v>242</v>
+        <v>479</v>
       </c>
       <c r="AS9" t="s">
-        <v>95</v>
-      </c>
-      <c r="AT9" t="s">
-        <v>245</v>
+        <v>468</v>
+      </c>
+      <c r="AT9">
+        <v>87544</v>
       </c>
       <c r="AV9">
         <v>14024236653</v>
@@ -2671,13 +5850,13 @@
         <v>43973</v>
       </c>
       <c r="AZ9" t="s">
-        <v>251</v>
+        <v>219</v>
       </c>
       <c r="BA9" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="BF9" t="s">
-        <v>253</v>
+        <v>221</v>
       </c>
       <c r="BG9">
         <v>1</v>
@@ -2688,19 +5867,280 @@
       <c r="BI9">
         <v>35.900298999999997</v>
       </c>
+      <c r="BN9">
+        <v>7</v>
+      </c>
+      <c r="BR9">
+        <v>1</v>
+      </c>
+      <c r="BS9">
+        <v>1</v>
+      </c>
+      <c r="BT9">
+        <v>0</v>
+      </c>
+      <c r="BU9">
+        <v>1</v>
+      </c>
+      <c r="BY9" t="s">
+        <v>480</v>
+      </c>
+      <c r="CA9" t="s">
+        <v>481</v>
+      </c>
+      <c r="CB9" t="s">
+        <v>224</v>
+      </c>
+      <c r="CC9" t="s">
+        <v>482</v>
+      </c>
+      <c r="CE9" t="s">
+        <v>483</v>
+      </c>
+      <c r="CF9" t="s">
+        <v>484</v>
+      </c>
+      <c r="CG9" t="s">
+        <v>485</v>
+      </c>
+      <c r="CH9" t="s">
+        <v>486</v>
+      </c>
+      <c r="CJ9">
+        <v>92106</v>
+      </c>
+      <c r="CL9" t="s">
+        <v>487</v>
+      </c>
+      <c r="CM9" t="s">
+        <v>230</v>
+      </c>
+      <c r="CR9" t="s">
+        <v>231</v>
+      </c>
+      <c r="CS9">
+        <v>0</v>
+      </c>
+      <c r="CT9">
+        <v>0</v>
+      </c>
+      <c r="CV9" s="2">
+        <v>44008</v>
+      </c>
+      <c r="CW9" t="s">
+        <v>488</v>
+      </c>
+      <c r="CX9">
+        <v>0</v>
+      </c>
+      <c r="CY9">
+        <v>1</v>
+      </c>
+      <c r="CZ9" t="s">
+        <v>233</v>
+      </c>
+      <c r="DA9">
+        <v>0</v>
+      </c>
+      <c r="DE9" t="s">
+        <v>489</v>
+      </c>
+      <c r="DH9" t="s">
+        <v>224</v>
+      </c>
+      <c r="DK9" t="s">
+        <v>490</v>
+      </c>
+      <c r="DM9" t="s">
+        <v>491</v>
+      </c>
+      <c r="DN9" t="s">
+        <v>224</v>
+      </c>
+      <c r="DO9" t="s">
+        <v>492</v>
+      </c>
+      <c r="DP9" t="s">
+        <v>493</v>
+      </c>
+      <c r="DQ9" t="s">
+        <v>494</v>
+      </c>
+      <c r="DR9" t="s">
+        <v>495</v>
+      </c>
+      <c r="DT9" t="s">
+        <v>496</v>
+      </c>
+      <c r="DV9">
+        <v>54923</v>
+      </c>
+      <c r="DX9" t="s">
+        <v>497</v>
+      </c>
+      <c r="EB9">
+        <v>1</v>
+      </c>
+      <c r="EC9">
+        <v>0</v>
+      </c>
+      <c r="ED9">
+        <v>1</v>
+      </c>
+      <c r="EF9">
+        <v>1</v>
+      </c>
+      <c r="EG9">
+        <v>7</v>
+      </c>
+      <c r="EH9">
+        <v>0</v>
+      </c>
+      <c r="EI9" t="s">
+        <v>364</v>
+      </c>
+      <c r="EJ9" t="s">
+        <v>426</v>
+      </c>
+      <c r="EK9">
+        <v>1</v>
+      </c>
+      <c r="EL9">
+        <v>1</v>
+      </c>
+      <c r="EM9">
+        <v>1</v>
+      </c>
+      <c r="EN9">
+        <v>1</v>
+      </c>
+      <c r="EO9" t="s">
+        <v>498</v>
+      </c>
+      <c r="EQ9">
+        <v>0</v>
+      </c>
+      <c r="ER9" t="s">
+        <v>499</v>
+      </c>
+      <c r="ES9">
+        <v>50</v>
+      </c>
+      <c r="ET9">
+        <v>1</v>
+      </c>
+      <c r="EV9">
+        <v>0</v>
+      </c>
+      <c r="EW9">
+        <v>55</v>
+      </c>
+      <c r="EX9">
+        <v>12.68</v>
+      </c>
+      <c r="EY9">
+        <v>7</v>
+      </c>
+      <c r="FA9">
+        <v>11511</v>
+      </c>
+      <c r="FB9" t="s">
+        <v>500</v>
+      </c>
+      <c r="FC9" t="s">
+        <v>242</v>
+      </c>
+      <c r="FD9">
+        <v>0</v>
+      </c>
+      <c r="FG9" t="b">
+        <v>1</v>
+      </c>
+      <c r="FK9" t="s">
+        <v>243</v>
+      </c>
+      <c r="FL9">
+        <v>0.03</v>
+      </c>
+      <c r="FM9" t="s">
+        <v>501</v>
+      </c>
+      <c r="FT9">
+        <v>1</v>
+      </c>
+      <c r="FU9" s="2">
+        <v>44040</v>
+      </c>
+      <c r="FV9" s="2">
+        <v>44140</v>
+      </c>
+      <c r="FW9">
+        <v>0</v>
+      </c>
+      <c r="FX9" t="s">
+        <v>324</v>
+      </c>
+      <c r="FY9" t="s">
+        <v>325</v>
+      </c>
+      <c r="FZ9" t="s">
+        <v>487</v>
+      </c>
+      <c r="GA9">
+        <v>0</v>
+      </c>
+      <c r="GC9">
+        <v>0</v>
+      </c>
+      <c r="GD9">
+        <v>1</v>
+      </c>
+      <c r="GF9">
+        <v>7</v>
+      </c>
+      <c r="GG9">
+        <v>1</v>
+      </c>
+      <c r="GH9">
+        <v>1</v>
+      </c>
+      <c r="GJ9">
+        <v>63</v>
+      </c>
+      <c r="GK9">
+        <v>3</v>
+      </c>
+      <c r="GL9">
+        <v>0</v>
+      </c>
+      <c r="GM9">
+        <v>7</v>
+      </c>
+      <c r="GO9" t="s">
+        <v>246</v>
+      </c>
+      <c r="GP9" t="s">
+        <v>285</v>
+      </c>
+      <c r="GQ9">
+        <v>7</v>
+      </c>
+      <c r="GS9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:202" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>72</v>
+        <v>502</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>203</v>
       </c>
       <c r="C10" t="s">
-        <v>86</v>
+        <v>503</v>
       </c>
       <c r="E10" t="s">
-        <v>96</v>
+        <v>504</v>
       </c>
       <c r="F10">
         <v>8</v>
@@ -2715,13 +6155,13 @@
         <v>44196</v>
       </c>
       <c r="K10" t="s">
-        <v>111</v>
+        <v>505</v>
       </c>
       <c r="L10" t="s">
-        <v>96</v>
-      </c>
-      <c r="M10" t="s">
-        <v>126</v>
+        <v>504</v>
+      </c>
+      <c r="M10">
+        <v>37010</v>
       </c>
       <c r="N10" s="2">
         <v>43959</v>
@@ -2729,17 +6169,17 @@
       <c r="O10" t="b">
         <v>1</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="R10" s="3" t="s">
-        <v>150</v>
+      <c r="P10" t="s">
+        <v>506</v>
+      </c>
+      <c r="R10" t="s">
+        <v>507</v>
       </c>
       <c r="S10" t="s">
-        <v>162</v>
+        <v>508</v>
       </c>
       <c r="T10" t="s">
-        <v>171</v>
+        <v>509</v>
       </c>
       <c r="U10">
         <v>3</v>
@@ -2757,37 +6197,37 @@
         <v>16</v>
       </c>
       <c r="AA10" t="s">
-        <v>179</v>
+        <v>510</v>
       </c>
       <c r="AB10" t="s">
-        <v>111</v>
+        <v>505</v>
       </c>
       <c r="AC10" t="s">
-        <v>189</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>126</v>
+        <v>511</v>
+      </c>
+      <c r="AD10">
+        <v>37010</v>
       </c>
       <c r="AE10" t="s">
-        <v>197</v>
+        <v>512</v>
       </c>
       <c r="AF10" t="s">
-        <v>201</v>
+        <v>513</v>
       </c>
       <c r="AG10" t="s">
-        <v>203</v>
+        <v>514</v>
       </c>
       <c r="AH10" t="s">
-        <v>208</v>
+        <v>515</v>
       </c>
       <c r="AI10" t="s">
-        <v>216</v>
-      </c>
-      <c r="AJ10" t="s">
-        <v>219</v>
+        <v>516</v>
+      </c>
+      <c r="AJ10">
+        <v>42204</v>
       </c>
       <c r="AK10" t="s">
-        <v>195</v>
+        <v>337</v>
       </c>
       <c r="AL10">
         <v>20</v>
@@ -2796,25 +6236,25 @@
         <v>1</v>
       </c>
       <c r="AN10" t="s">
-        <v>222</v>
+        <v>339</v>
       </c>
       <c r="AO10" t="s">
-        <v>229</v>
-      </c>
-      <c r="AP10" s="3" t="s">
-        <v>234</v>
+        <v>517</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>518</v>
       </c>
       <c r="AQ10" t="s">
-        <v>179</v>
+        <v>510</v>
       </c>
       <c r="AR10" t="s">
-        <v>111</v>
+        <v>505</v>
       </c>
       <c r="AS10" t="s">
-        <v>96</v>
-      </c>
-      <c r="AT10" t="s">
-        <v>126</v>
+        <v>504</v>
+      </c>
+      <c r="AT10">
+        <v>37010</v>
       </c>
       <c r="AV10">
         <v>16153899842</v>
@@ -2829,13 +6269,13 @@
         <v>43973</v>
       </c>
       <c r="AZ10" t="s">
-        <v>251</v>
+        <v>219</v>
       </c>
       <c r="BA10" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="BF10" t="s">
-        <v>253</v>
+        <v>221</v>
       </c>
       <c r="BG10">
         <v>1</v>
@@ -2847,7 +6287,7 @@
         <v>36.616101</v>
       </c>
       <c r="BJ10" t="s">
-        <v>254</v>
+        <v>342</v>
       </c>
       <c r="BK10">
         <v>1</v>
@@ -2858,19 +6298,277 @@
       <c r="BM10">
         <v>36.709975999999997</v>
       </c>
+      <c r="BN10">
+        <v>8</v>
+      </c>
+      <c r="BR10">
+        <v>0</v>
+      </c>
+      <c r="BS10">
+        <v>0</v>
+      </c>
+      <c r="BT10">
+        <v>0</v>
+      </c>
+      <c r="BU10">
+        <v>1</v>
+      </c>
+      <c r="BY10" t="s">
+        <v>519</v>
+      </c>
+      <c r="BZ10" t="s">
+        <v>520</v>
+      </c>
+      <c r="CA10" t="s">
+        <v>411</v>
+      </c>
+      <c r="CB10" t="s">
+        <v>224</v>
+      </c>
+      <c r="CC10" t="s">
+        <v>521</v>
+      </c>
+      <c r="CE10" t="s">
+        <v>522</v>
+      </c>
+      <c r="CF10" t="s">
+        <v>523</v>
+      </c>
+      <c r="CH10" t="s">
+        <v>415</v>
+      </c>
+      <c r="CJ10">
+        <v>98516</v>
+      </c>
+      <c r="CL10" t="s">
+        <v>416</v>
+      </c>
+      <c r="CM10" t="s">
+        <v>230</v>
+      </c>
+      <c r="CR10" t="s">
+        <v>231</v>
+      </c>
+      <c r="CS10">
+        <v>0</v>
+      </c>
+      <c r="CT10">
+        <v>0</v>
+      </c>
+      <c r="CV10" s="2">
+        <v>44001</v>
+      </c>
+      <c r="CW10" t="s">
+        <v>524</v>
+      </c>
+      <c r="CX10">
+        <v>0</v>
+      </c>
+      <c r="CY10">
+        <v>0</v>
+      </c>
+      <c r="CZ10" t="s">
+        <v>233</v>
+      </c>
+      <c r="DA10">
+        <v>0</v>
+      </c>
+      <c r="DE10" t="s">
+        <v>525</v>
+      </c>
+      <c r="DH10" t="s">
+        <v>224</v>
+      </c>
+      <c r="DK10" t="s">
+        <v>526</v>
+      </c>
+      <c r="DM10" t="s">
+        <v>527</v>
+      </c>
+      <c r="DN10" t="s">
+        <v>224</v>
+      </c>
+      <c r="DO10" t="s">
+        <v>521</v>
+      </c>
+      <c r="DP10" t="s">
+        <v>528</v>
+      </c>
+      <c r="DQ10" t="s">
+        <v>235</v>
+      </c>
+      <c r="DR10" t="s">
+        <v>529</v>
+      </c>
+      <c r="DT10" t="s">
+        <v>530</v>
+      </c>
+      <c r="DV10">
+        <v>98801</v>
+      </c>
+      <c r="DX10" t="s">
+        <v>425</v>
+      </c>
+      <c r="EB10">
+        <v>1</v>
+      </c>
+      <c r="EC10">
+        <v>1</v>
+      </c>
+      <c r="ED10">
+        <v>1</v>
+      </c>
+      <c r="EF10">
+        <v>1</v>
+      </c>
+      <c r="EG10">
+        <v>6</v>
+      </c>
+      <c r="EH10">
+        <v>0</v>
+      </c>
+      <c r="EI10" t="s">
+        <v>364</v>
+      </c>
+      <c r="EJ10" t="s">
+        <v>531</v>
+      </c>
+      <c r="EK10">
+        <v>1</v>
+      </c>
+      <c r="EL10">
+        <v>1</v>
+      </c>
+      <c r="EM10">
+        <v>1</v>
+      </c>
+      <c r="EN10">
+        <v>0</v>
+      </c>
+      <c r="EO10" t="s">
+        <v>532</v>
+      </c>
+      <c r="EQ10">
+        <v>0</v>
+      </c>
+      <c r="ER10" t="s">
+        <v>533</v>
+      </c>
+      <c r="ES10">
+        <v>60</v>
+      </c>
+      <c r="ET10">
+        <v>1</v>
+      </c>
+      <c r="EU10">
+        <v>12.68</v>
+      </c>
+      <c r="EV10">
+        <v>1</v>
+      </c>
+      <c r="EW10">
+        <v>55</v>
+      </c>
+      <c r="EX10">
+        <v>12.68</v>
+      </c>
+      <c r="EY10">
+        <v>6</v>
+      </c>
+      <c r="FA10">
+        <v>111</v>
+      </c>
+      <c r="FC10" t="s">
+        <v>242</v>
+      </c>
+      <c r="FD10">
+        <v>0</v>
+      </c>
+      <c r="FG10" t="b">
+        <v>1</v>
+      </c>
+      <c r="FK10" t="s">
+        <v>243</v>
+      </c>
+      <c r="FL10">
+        <v>0</v>
+      </c>
+      <c r="FM10" t="s">
+        <v>534</v>
+      </c>
+      <c r="FT10">
+        <v>1</v>
+      </c>
+      <c r="FU10" s="2">
+        <v>44053</v>
+      </c>
+      <c r="FV10" s="2">
+        <v>44105</v>
+      </c>
+      <c r="FW10">
+        <v>5</v>
+      </c>
+      <c r="FX10" t="s">
+        <v>429</v>
+      </c>
+      <c r="FY10" t="s">
+        <v>430</v>
+      </c>
+      <c r="GA10">
+        <v>0</v>
+      </c>
+      <c r="GC10">
+        <v>0</v>
+      </c>
+      <c r="GD10">
+        <v>0</v>
+      </c>
+      <c r="GF10">
+        <v>6</v>
+      </c>
+      <c r="GG10">
+        <v>0</v>
+      </c>
+      <c r="GH10">
+        <v>1</v>
+      </c>
+      <c r="GJ10">
+        <v>5</v>
+      </c>
+      <c r="GK10">
+        <v>9</v>
+      </c>
+      <c r="GL10">
+        <v>0</v>
+      </c>
+      <c r="GM10">
+        <v>6</v>
+      </c>
+      <c r="GO10" t="s">
+        <v>431</v>
+      </c>
+      <c r="GP10" t="s">
+        <v>247</v>
+      </c>
+      <c r="GQ10">
+        <v>6</v>
+      </c>
+      <c r="GS10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:65" ht="122" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:202" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>73</v>
+        <v>535</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>203</v>
       </c>
       <c r="C11" t="s">
-        <v>87</v>
+        <v>536</v>
       </c>
       <c r="E11" t="s">
-        <v>97</v>
+        <v>537</v>
       </c>
       <c r="F11">
         <v>5</v>
@@ -2885,13 +6583,13 @@
         <v>44228</v>
       </c>
       <c r="K11" t="s">
-        <v>112</v>
+        <v>538</v>
       </c>
       <c r="L11" t="s">
-        <v>97</v>
-      </c>
-      <c r="M11" t="s">
-        <v>127</v>
+        <v>537</v>
+      </c>
+      <c r="M11">
+        <v>17565</v>
       </c>
       <c r="N11" s="2">
         <v>43958</v>
@@ -2899,17 +6597,17 @@
       <c r="O11" t="b">
         <v>0</v>
       </c>
-      <c r="P11" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="R11" s="3" t="s">
-        <v>151</v>
+      <c r="P11" t="s">
+        <v>539</v>
+      </c>
+      <c r="R11" t="s">
+        <v>540</v>
       </c>
       <c r="S11" t="s">
-        <v>163</v>
+        <v>541</v>
       </c>
       <c r="T11" t="s">
-        <v>172</v>
+        <v>542</v>
       </c>
       <c r="U11">
         <v>0</v>
@@ -2927,37 +6625,37 @@
         <v>5</v>
       </c>
       <c r="AA11" t="s">
-        <v>180</v>
+        <v>543</v>
       </c>
       <c r="AB11" t="s">
-        <v>112</v>
+        <v>538</v>
       </c>
       <c r="AC11" t="s">
-        <v>190</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>127</v>
+        <v>544</v>
+      </c>
+      <c r="AD11">
+        <v>17565</v>
       </c>
       <c r="AE11" t="s">
-        <v>198</v>
+        <v>545</v>
       </c>
       <c r="AF11" t="s">
-        <v>112</v>
+        <v>538</v>
       </c>
       <c r="AG11" t="s">
-        <v>190</v>
+        <v>544</v>
       </c>
       <c r="AH11" t="s">
-        <v>209</v>
+        <v>546</v>
       </c>
       <c r="AI11" t="s">
-        <v>217</v>
+        <v>547</v>
       </c>
       <c r="AJ11">
         <v>17565</v>
       </c>
       <c r="AK11" t="s">
-        <v>198</v>
+        <v>545</v>
       </c>
       <c r="AL11">
         <v>5</v>
@@ -2966,25 +6664,25 @@
         <v>1</v>
       </c>
       <c r="AN11" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="AO11" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="AQ11" t="s">
-        <v>180</v>
+        <v>543</v>
       </c>
       <c r="AR11" t="s">
-        <v>112</v>
+        <v>538</v>
       </c>
       <c r="AS11" t="s">
-        <v>97</v>
-      </c>
-      <c r="AT11" t="s">
-        <v>127</v>
+        <v>537</v>
+      </c>
+      <c r="AT11">
+        <v>17565</v>
       </c>
       <c r="AU11" t="s">
-        <v>250</v>
+        <v>548</v>
       </c>
       <c r="AV11">
         <v>17172840111</v>
@@ -2999,13 +6697,13 @@
         <v>43973</v>
       </c>
       <c r="AZ11" t="s">
-        <v>251</v>
+        <v>219</v>
       </c>
       <c r="BA11" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="BF11" t="s">
-        <v>254</v>
+        <v>342</v>
       </c>
       <c r="BG11">
         <v>1</v>
@@ -3017,7 +6715,7 @@
         <v>39.935671999999997</v>
       </c>
       <c r="BJ11" t="s">
-        <v>253</v>
+        <v>221</v>
       </c>
       <c r="BK11">
         <v>1</v>
@@ -3028,19 +6726,262 @@
       <c r="BM11">
         <v>39.925263000000001</v>
       </c>
+      <c r="BN11">
+        <v>9</v>
+      </c>
+      <c r="BR11">
+        <v>0</v>
+      </c>
+      <c r="BS11">
+        <v>0</v>
+      </c>
+      <c r="BT11">
+        <v>0</v>
+      </c>
+      <c r="BU11">
+        <v>1</v>
+      </c>
+      <c r="BY11" t="s">
+        <v>222</v>
+      </c>
+      <c r="CA11" t="s">
+        <v>223</v>
+      </c>
+      <c r="CB11" t="s">
+        <v>224</v>
+      </c>
+      <c r="CC11" t="s">
+        <v>225</v>
+      </c>
+      <c r="CE11" t="s">
+        <v>226</v>
+      </c>
+      <c r="CF11" t="s">
+        <v>227</v>
+      </c>
+      <c r="CH11" t="s">
+        <v>228</v>
+      </c>
+      <c r="CJ11">
+        <v>73737</v>
+      </c>
+      <c r="CL11" t="s">
+        <v>229</v>
+      </c>
+      <c r="CM11" t="s">
+        <v>230</v>
+      </c>
+      <c r="CR11" t="s">
+        <v>231</v>
+      </c>
+      <c r="CS11">
+        <v>0</v>
+      </c>
+      <c r="CT11">
+        <v>0</v>
+      </c>
+      <c r="CV11" s="2">
+        <v>43817</v>
+      </c>
+      <c r="CW11" t="s">
+        <v>232</v>
+      </c>
+      <c r="CX11">
+        <v>1</v>
+      </c>
+      <c r="CY11">
+        <v>1</v>
+      </c>
+      <c r="CZ11" t="s">
+        <v>233</v>
+      </c>
+      <c r="DA11">
+        <v>0</v>
+      </c>
+      <c r="DE11" t="s">
+        <v>549</v>
+      </c>
+      <c r="DH11" t="s">
+        <v>224</v>
+      </c>
+      <c r="DK11" t="s">
+        <v>549</v>
+      </c>
+      <c r="DM11" t="s">
+        <v>550</v>
+      </c>
+      <c r="DN11" t="s">
+        <v>224</v>
+      </c>
+      <c r="DP11" t="s">
+        <v>551</v>
+      </c>
+      <c r="DQ11" t="s">
+        <v>235</v>
+      </c>
+      <c r="DR11" t="s">
+        <v>552</v>
+      </c>
+      <c r="DT11" t="s">
+        <v>553</v>
+      </c>
+      <c r="DV11">
+        <v>76457</v>
+      </c>
+      <c r="DX11" t="s">
+        <v>554</v>
+      </c>
+      <c r="EB11">
+        <v>1</v>
+      </c>
+      <c r="EC11">
+        <v>1</v>
+      </c>
+      <c r="ED11">
+        <v>1</v>
+      </c>
+      <c r="EF11">
+        <v>0</v>
+      </c>
+      <c r="EG11">
+        <v>8</v>
+      </c>
+      <c r="EH11">
+        <v>0</v>
+      </c>
+      <c r="EI11" t="s">
+        <v>238</v>
+      </c>
+      <c r="EJ11" t="s">
+        <v>239</v>
+      </c>
+      <c r="EK11">
+        <v>1</v>
+      </c>
+      <c r="EL11">
+        <v>1</v>
+      </c>
+      <c r="EM11">
+        <v>1</v>
+      </c>
+      <c r="EN11">
+        <v>0</v>
+      </c>
+      <c r="EO11" t="s">
+        <v>555</v>
+      </c>
+      <c r="EQ11">
+        <v>0</v>
+      </c>
+      <c r="ER11" t="s">
+        <v>241</v>
+      </c>
+      <c r="ES11">
+        <v>75</v>
+      </c>
+      <c r="ET11">
+        <v>1</v>
+      </c>
+      <c r="EV11">
+        <v>0</v>
+      </c>
+      <c r="EW11">
+        <v>55</v>
+      </c>
+      <c r="EX11">
+        <v>12.46</v>
+      </c>
+      <c r="EY11">
+        <v>8</v>
+      </c>
+      <c r="FA11">
+        <v>111191</v>
+      </c>
+      <c r="FC11" t="s">
+        <v>242</v>
+      </c>
+      <c r="FD11">
+        <v>0</v>
+      </c>
+      <c r="FG11" t="b">
+        <v>0</v>
+      </c>
+      <c r="FK11" t="s">
+        <v>243</v>
+      </c>
+      <c r="FT11">
+        <v>1</v>
+      </c>
+      <c r="FU11" s="2">
+        <v>43831</v>
+      </c>
+      <c r="FV11" s="2">
+        <v>44135</v>
+      </c>
+      <c r="FW11">
+        <v>8</v>
+      </c>
+      <c r="FX11" t="s">
+        <v>556</v>
+      </c>
+      <c r="FY11" t="s">
+        <v>557</v>
+      </c>
+      <c r="GA11">
+        <v>0</v>
+      </c>
+      <c r="GC11">
+        <v>0</v>
+      </c>
+      <c r="GD11">
+        <v>0</v>
+      </c>
+      <c r="GF11">
+        <v>8</v>
+      </c>
+      <c r="GG11">
+        <v>0</v>
+      </c>
+      <c r="GH11">
+        <v>1</v>
+      </c>
+      <c r="GJ11">
+        <v>4</v>
+      </c>
+      <c r="GK11">
+        <v>1</v>
+      </c>
+      <c r="GL11">
+        <v>0</v>
+      </c>
+      <c r="GM11">
+        <v>8</v>
+      </c>
+      <c r="GO11" t="s">
+        <v>246</v>
+      </c>
+      <c r="GP11" t="s">
+        <v>247</v>
+      </c>
+      <c r="GQ11">
+        <v>8</v>
+      </c>
+      <c r="GS11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:65" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:202" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>74</v>
+        <v>558</v>
       </c>
       <c r="B12" t="s">
-        <v>76</v>
+        <v>203</v>
       </c>
       <c r="C12" t="s">
-        <v>88</v>
+        <v>559</v>
       </c>
       <c r="E12" t="s">
-        <v>93</v>
+        <v>329</v>
       </c>
       <c r="F12">
         <v>6</v>
@@ -3049,7 +6990,7 @@
         <v>12.4</v>
       </c>
       <c r="H12" t="s">
-        <v>100</v>
+        <v>375</v>
       </c>
       <c r="I12" s="2">
         <v>44027</v>
@@ -3058,13 +6999,13 @@
         <v>44195</v>
       </c>
       <c r="K12" t="s">
-        <v>113</v>
+        <v>560</v>
       </c>
       <c r="L12" t="s">
-        <v>93</v>
-      </c>
-      <c r="M12" t="s">
-        <v>128</v>
+        <v>329</v>
+      </c>
+      <c r="M12">
+        <v>42743</v>
       </c>
       <c r="N12" s="2">
         <v>43957</v>
@@ -3072,17 +7013,17 @@
       <c r="O12" t="b">
         <v>0</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="R12" s="3" t="s">
-        <v>152</v>
+      <c r="P12" t="s">
+        <v>561</v>
+      </c>
+      <c r="R12" t="s">
+        <v>562</v>
       </c>
       <c r="S12" t="s">
-        <v>164</v>
+        <v>563</v>
       </c>
       <c r="T12" t="s">
-        <v>168</v>
+        <v>334</v>
       </c>
       <c r="U12">
         <v>0</v>
@@ -3100,37 +7041,37 @@
         <v>6</v>
       </c>
       <c r="AA12" t="s">
-        <v>181</v>
+        <v>564</v>
       </c>
       <c r="AB12" t="s">
-        <v>113</v>
+        <v>560</v>
       </c>
       <c r="AC12" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>128</v>
+        <v>565</v>
+      </c>
+      <c r="AD12">
+        <v>42743</v>
       </c>
       <c r="AE12" t="s">
-        <v>195</v>
+        <v>337</v>
       </c>
       <c r="AF12" t="s">
-        <v>113</v>
+        <v>560</v>
       </c>
       <c r="AG12" t="s">
-        <v>191</v>
+        <v>565</v>
       </c>
       <c r="AH12" t="s">
-        <v>210</v>
+        <v>566</v>
       </c>
       <c r="AI12" t="s">
-        <v>213</v>
-      </c>
-      <c r="AJ12" t="s">
-        <v>128</v>
+        <v>338</v>
+      </c>
+      <c r="AJ12">
+        <v>42743</v>
       </c>
       <c r="AK12" t="s">
-        <v>195</v>
+        <v>337</v>
       </c>
       <c r="AL12">
         <v>6</v>
@@ -3139,25 +7080,25 @@
         <v>1</v>
       </c>
       <c r="AN12" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="AO12" t="s">
-        <v>226</v>
-      </c>
-      <c r="AP12" s="3" t="s">
-        <v>232</v>
+        <v>340</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>341</v>
       </c>
       <c r="AQ12" t="s">
-        <v>181</v>
+        <v>564</v>
       </c>
       <c r="AR12" t="s">
-        <v>113</v>
+        <v>560</v>
       </c>
       <c r="AS12" t="s">
-        <v>93</v>
-      </c>
-      <c r="AT12" t="s">
-        <v>128</v>
+        <v>329</v>
+      </c>
+      <c r="AT12">
+        <v>42743</v>
       </c>
       <c r="AV12">
         <v>12709324115</v>
@@ -3172,13 +7113,13 @@
         <v>43973</v>
       </c>
       <c r="AZ12" t="s">
-        <v>251</v>
+        <v>219</v>
       </c>
       <c r="BA12" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="BF12" t="s">
-        <v>254</v>
+        <v>342</v>
       </c>
       <c r="BG12">
         <v>1</v>
@@ -3190,7 +7131,7 @@
         <v>37.136344999999999</v>
       </c>
       <c r="BJ12" t="s">
-        <v>254</v>
+        <v>342</v>
       </c>
       <c r="BK12">
         <v>1</v>
@@ -3201,19 +7142,274 @@
       <c r="BM12">
         <v>37.147455999999998</v>
       </c>
+      <c r="BN12">
+        <v>10</v>
+      </c>
+      <c r="BR12">
+        <v>0</v>
+      </c>
+      <c r="BS12">
+        <v>0</v>
+      </c>
+      <c r="BT12">
+        <v>0</v>
+      </c>
+      <c r="BU12">
+        <v>1</v>
+      </c>
+      <c r="BY12" t="s">
+        <v>567</v>
+      </c>
+      <c r="CA12" t="s">
+        <v>568</v>
+      </c>
+      <c r="CB12" t="s">
+        <v>224</v>
+      </c>
+      <c r="CC12" t="s">
+        <v>569</v>
+      </c>
+      <c r="CE12" t="s">
+        <v>570</v>
+      </c>
+      <c r="CF12" t="s">
+        <v>571</v>
+      </c>
+      <c r="CG12" t="s">
+        <v>572</v>
+      </c>
+      <c r="CH12" t="s">
+        <v>573</v>
+      </c>
+      <c r="CJ12">
+        <v>10151</v>
+      </c>
+      <c r="CL12" t="s">
+        <v>574</v>
+      </c>
+      <c r="CM12" t="s">
+        <v>230</v>
+      </c>
+      <c r="CR12" t="s">
+        <v>575</v>
+      </c>
+      <c r="CS12">
+        <v>0</v>
+      </c>
+      <c r="CT12">
+        <v>0</v>
+      </c>
+      <c r="CV12" s="2">
+        <v>44007</v>
+      </c>
+      <c r="CW12" t="s">
+        <v>576</v>
+      </c>
+      <c r="CX12">
+        <v>0</v>
+      </c>
+      <c r="CY12">
+        <v>0</v>
+      </c>
+      <c r="CZ12" t="s">
+        <v>233</v>
+      </c>
+      <c r="DA12">
+        <v>0</v>
+      </c>
+      <c r="DE12" t="s">
+        <v>577</v>
+      </c>
+      <c r="DH12" t="s">
+        <v>224</v>
+      </c>
+      <c r="DK12" t="s">
+        <v>577</v>
+      </c>
+      <c r="DM12" t="s">
+        <v>263</v>
+      </c>
+      <c r="DN12" t="s">
+        <v>224</v>
+      </c>
+      <c r="DO12" t="s">
+        <v>578</v>
+      </c>
+      <c r="DP12" t="s">
+        <v>579</v>
+      </c>
+      <c r="DQ12" t="s">
+        <v>494</v>
+      </c>
+      <c r="DR12" t="s">
+        <v>580</v>
+      </c>
+      <c r="DT12" t="s">
+        <v>581</v>
+      </c>
+      <c r="DV12">
+        <v>42123</v>
+      </c>
+      <c r="DX12" t="s">
+        <v>329</v>
+      </c>
+      <c r="EB12">
+        <v>1</v>
+      </c>
+      <c r="EC12">
+        <v>1</v>
+      </c>
+      <c r="ED12">
+        <v>0</v>
+      </c>
+      <c r="EF12">
+        <v>1</v>
+      </c>
+      <c r="EG12">
+        <v>7</v>
+      </c>
+      <c r="EH12">
+        <v>0</v>
+      </c>
+      <c r="EI12" t="s">
+        <v>238</v>
+      </c>
+      <c r="EJ12" t="s">
+        <v>365</v>
+      </c>
+      <c r="EK12">
+        <v>0</v>
+      </c>
+      <c r="EL12">
+        <v>1</v>
+      </c>
+      <c r="EM12">
+        <v>0</v>
+      </c>
+      <c r="EN12">
+        <v>0</v>
+      </c>
+      <c r="EO12" t="s">
+        <v>582</v>
+      </c>
+      <c r="EQ12">
+        <v>0</v>
+      </c>
+      <c r="ER12" t="s">
+        <v>583</v>
+      </c>
+      <c r="ES12">
+        <v>50</v>
+      </c>
+      <c r="ET12">
+        <v>1</v>
+      </c>
+      <c r="EV12">
+        <v>0</v>
+      </c>
+      <c r="EW12">
+        <v>55</v>
+      </c>
+      <c r="EX12">
+        <v>55</v>
+      </c>
+      <c r="EY12">
+        <v>7</v>
+      </c>
+      <c r="FA12">
+        <v>1121</v>
+      </c>
+      <c r="FB12" t="s">
+        <v>584</v>
+      </c>
+      <c r="FC12" t="s">
+        <v>242</v>
+      </c>
+      <c r="FD12">
+        <v>0</v>
+      </c>
+      <c r="FG12" t="b">
+        <v>0</v>
+      </c>
+      <c r="FK12" t="s">
+        <v>243</v>
+      </c>
+      <c r="FL12">
+        <v>0</v>
+      </c>
+      <c r="FT12">
+        <v>1</v>
+      </c>
+      <c r="FU12" s="2">
+        <v>44058</v>
+      </c>
+      <c r="FV12" s="2">
+        <v>44347</v>
+      </c>
+      <c r="FW12">
+        <v>5</v>
+      </c>
+      <c r="FX12" t="s">
+        <v>244</v>
+      </c>
+      <c r="FY12" t="s">
+        <v>245</v>
+      </c>
+      <c r="FZ12" t="s">
+        <v>574</v>
+      </c>
+      <c r="GA12">
+        <v>0</v>
+      </c>
+      <c r="GC12">
+        <v>0</v>
+      </c>
+      <c r="GD12">
+        <v>0</v>
+      </c>
+      <c r="GF12">
+        <v>7</v>
+      </c>
+      <c r="GG12">
+        <v>0</v>
+      </c>
+      <c r="GH12">
+        <v>1</v>
+      </c>
+      <c r="GK12">
+        <v>1</v>
+      </c>
+      <c r="GL12">
+        <v>0</v>
+      </c>
+      <c r="GM12">
+        <v>7</v>
+      </c>
+      <c r="GO12" t="s">
+        <v>246</v>
+      </c>
+      <c r="GP12" t="s">
+        <v>285</v>
+      </c>
+      <c r="GQ12">
+        <v>7</v>
+      </c>
+      <c r="GS12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:202" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>75</v>
+        <v>585</v>
       </c>
       <c r="B13" t="s">
-        <v>76</v>
+        <v>203</v>
       </c>
       <c r="C13" t="s">
-        <v>89</v>
+        <v>586</v>
       </c>
       <c r="E13" t="s">
-        <v>98</v>
+        <v>587</v>
       </c>
       <c r="F13">
         <v>125</v>
@@ -3222,7 +7418,7 @@
         <v>14.29</v>
       </c>
       <c r="H13" t="s">
-        <v>102</v>
+        <v>588</v>
       </c>
       <c r="I13" s="2">
         <v>44021</v>
@@ -3231,13 +7427,13 @@
         <v>44135</v>
       </c>
       <c r="K13" t="s">
-        <v>114</v>
+        <v>589</v>
       </c>
       <c r="L13" t="s">
-        <v>98</v>
-      </c>
-      <c r="M13" t="s">
-        <v>129</v>
+        <v>587</v>
+      </c>
+      <c r="M13">
+        <v>4769</v>
       </c>
       <c r="N13" s="2">
         <v>43955</v>
@@ -3245,17 +7441,17 @@
       <c r="O13" t="b">
         <v>1</v>
       </c>
-      <c r="P13" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="R13" s="3" t="s">
-        <v>153</v>
+      <c r="P13" t="s">
+        <v>590</v>
+      </c>
+      <c r="R13" t="s">
+        <v>591</v>
       </c>
       <c r="S13" t="s">
-        <v>165</v>
+        <v>592</v>
       </c>
       <c r="T13" t="s">
-        <v>173</v>
+        <v>593</v>
       </c>
       <c r="U13">
         <v>3</v>
@@ -3273,37 +7469,37 @@
         <v>185</v>
       </c>
       <c r="AA13" t="s">
-        <v>182</v>
+        <v>594</v>
       </c>
       <c r="AB13" t="s">
-        <v>114</v>
+        <v>589</v>
       </c>
       <c r="AC13" t="s">
-        <v>192</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>129</v>
+        <v>595</v>
+      </c>
+      <c r="AD13">
+        <v>4769</v>
       </c>
       <c r="AE13" t="s">
-        <v>199</v>
+        <v>596</v>
       </c>
       <c r="AF13" t="s">
-        <v>202</v>
+        <v>597</v>
       </c>
       <c r="AG13" t="s">
-        <v>204</v>
+        <v>598</v>
       </c>
       <c r="AH13" t="s">
-        <v>211</v>
+        <v>599</v>
       </c>
       <c r="AI13" t="s">
-        <v>218</v>
-      </c>
-      <c r="AJ13" t="s">
-        <v>220</v>
+        <v>600</v>
+      </c>
+      <c r="AJ13">
+        <v>4787</v>
       </c>
       <c r="AK13" t="s">
-        <v>199</v>
+        <v>596</v>
       </c>
       <c r="AL13">
         <v>120</v>
@@ -3312,22 +7508,22 @@
         <v>1</v>
       </c>
       <c r="AO13" t="s">
-        <v>231</v>
+        <v>601</v>
       </c>
       <c r="AP13" t="s">
-        <v>235</v>
+        <v>602</v>
       </c>
       <c r="AQ13" t="s">
-        <v>182</v>
+        <v>594</v>
       </c>
       <c r="AR13" t="s">
-        <v>114</v>
+        <v>589</v>
       </c>
       <c r="AS13" t="s">
-        <v>98</v>
-      </c>
-      <c r="AT13" t="s">
-        <v>129</v>
+        <v>587</v>
+      </c>
+      <c r="AT13">
+        <v>4769</v>
       </c>
       <c r="AV13">
         <v>12077644540</v>
@@ -3342,13 +7538,13 @@
         <v>43973</v>
       </c>
       <c r="AZ13" t="s">
-        <v>251</v>
+        <v>219</v>
       </c>
       <c r="BA13" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="BF13" t="s">
-        <v>254</v>
+        <v>342</v>
       </c>
       <c r="BG13">
         <v>1</v>
@@ -3360,7 +7556,7 @@
         <v>46.697136</v>
       </c>
       <c r="BJ13" t="s">
-        <v>253</v>
+        <v>221</v>
       </c>
       <c r="BK13">
         <v>1</v>
@@ -3371,39 +7567,269 @@
       <c r="BM13">
         <v>46.585084000000002</v>
       </c>
+      <c r="BN13">
+        <v>11</v>
+      </c>
+      <c r="BR13">
+        <v>0</v>
+      </c>
+      <c r="BS13">
+        <v>1</v>
+      </c>
+      <c r="BT13">
+        <v>1</v>
+      </c>
+      <c r="BU13">
+        <v>1</v>
+      </c>
+      <c r="BY13" t="s">
+        <v>603</v>
+      </c>
+      <c r="CA13" t="s">
+        <v>604</v>
+      </c>
+      <c r="CB13" t="s">
+        <v>224</v>
+      </c>
+      <c r="CC13" t="s">
+        <v>605</v>
+      </c>
+      <c r="CE13" t="s">
+        <v>606</v>
+      </c>
+      <c r="CF13" t="s">
+        <v>607</v>
+      </c>
+      <c r="CG13" t="s">
+        <v>608</v>
+      </c>
+      <c r="CH13" t="s">
+        <v>609</v>
+      </c>
+      <c r="CI13">
+        <v>105</v>
+      </c>
+      <c r="CJ13">
+        <v>77414</v>
+      </c>
+      <c r="CL13" t="s">
+        <v>268</v>
+      </c>
+      <c r="CM13" t="s">
+        <v>230</v>
+      </c>
+      <c r="CR13" t="s">
+        <v>231</v>
+      </c>
+      <c r="CS13">
+        <v>0</v>
+      </c>
+      <c r="CT13">
+        <v>0</v>
+      </c>
+      <c r="CV13" s="2">
+        <v>44007</v>
+      </c>
+      <c r="CW13" t="s">
+        <v>610</v>
+      </c>
+      <c r="CX13">
+        <v>0</v>
+      </c>
+      <c r="CY13">
+        <v>1</v>
+      </c>
+      <c r="CZ13" t="s">
+        <v>233</v>
+      </c>
+      <c r="DA13">
+        <v>0</v>
+      </c>
+      <c r="DE13" t="s">
+        <v>611</v>
+      </c>
+      <c r="DF13" t="s">
+        <v>612</v>
+      </c>
+      <c r="DH13" t="s">
+        <v>224</v>
+      </c>
+      <c r="DK13" t="s">
+        <v>611</v>
+      </c>
+      <c r="DL13" t="s">
+        <v>613</v>
+      </c>
+      <c r="DM13" t="s">
+        <v>614</v>
+      </c>
+      <c r="DN13" t="s">
+        <v>224</v>
+      </c>
+      <c r="DO13" t="s">
+        <v>615</v>
+      </c>
+      <c r="DP13" t="s">
+        <v>616</v>
+      </c>
+      <c r="DQ13" t="s">
+        <v>494</v>
+      </c>
+      <c r="DR13" t="s">
+        <v>617</v>
+      </c>
+      <c r="DS13" t="s">
+        <v>618</v>
+      </c>
+      <c r="DT13" t="s">
+        <v>619</v>
+      </c>
+      <c r="DV13">
+        <v>7930</v>
+      </c>
+      <c r="DX13" t="s">
+        <v>434</v>
+      </c>
+      <c r="EB13">
+        <v>1</v>
+      </c>
+      <c r="EC13">
+        <v>0</v>
+      </c>
+      <c r="ED13">
+        <v>1</v>
+      </c>
+      <c r="EF13">
+        <v>1</v>
+      </c>
+      <c r="EG13">
+        <v>10</v>
+      </c>
+      <c r="EH13">
+        <v>0</v>
+      </c>
+      <c r="EI13" t="s">
+        <v>364</v>
+      </c>
+      <c r="EJ13" t="s">
+        <v>620</v>
+      </c>
+      <c r="EK13">
+        <v>1</v>
+      </c>
+      <c r="EL13">
+        <v>1</v>
+      </c>
+      <c r="EM13">
+        <v>1</v>
+      </c>
+      <c r="EN13">
+        <v>0</v>
+      </c>
+      <c r="EO13" t="s">
+        <v>621</v>
+      </c>
+      <c r="EQ13">
+        <v>0</v>
+      </c>
+      <c r="ER13" t="s">
+        <v>622</v>
+      </c>
+      <c r="ES13">
+        <v>60</v>
+      </c>
+      <c r="ET13">
+        <v>1</v>
+      </c>
+      <c r="EV13">
+        <v>0</v>
+      </c>
+      <c r="EW13">
+        <v>55</v>
+      </c>
+      <c r="EX13">
+        <v>12.68</v>
+      </c>
+      <c r="EY13">
+        <v>10</v>
+      </c>
+      <c r="FA13">
+        <v>1113</v>
+      </c>
+      <c r="FC13" t="s">
+        <v>242</v>
+      </c>
+      <c r="FD13">
+        <v>0</v>
+      </c>
+      <c r="FG13" t="b">
+        <v>1</v>
+      </c>
+      <c r="FK13" t="s">
+        <v>243</v>
+      </c>
+      <c r="FT13">
+        <v>1</v>
+      </c>
+      <c r="FU13" s="2">
+        <v>44060</v>
+      </c>
+      <c r="FV13" s="2">
+        <v>44157</v>
+      </c>
+      <c r="FW13">
+        <v>10</v>
+      </c>
+      <c r="FX13" t="s">
+        <v>324</v>
+      </c>
+      <c r="FY13" t="s">
+        <v>325</v>
+      </c>
+      <c r="GA13">
+        <v>10</v>
+      </c>
+      <c r="GC13">
+        <v>0</v>
+      </c>
+      <c r="GD13">
+        <v>0</v>
+      </c>
+      <c r="GF13">
+        <v>10</v>
+      </c>
+      <c r="GG13">
+        <v>5</v>
+      </c>
+      <c r="GH13">
+        <v>2</v>
+      </c>
+      <c r="GJ13">
+        <v>8</v>
+      </c>
+      <c r="GK13">
+        <v>3</v>
+      </c>
+      <c r="GL13">
+        <v>0</v>
+      </c>
+      <c r="GM13">
+        <v>10</v>
+      </c>
+      <c r="GO13" t="s">
+        <v>246</v>
+      </c>
+      <c r="GP13" t="s">
+        <v>247</v>
+      </c>
+      <c r="GQ13">
+        <v>10</v>
+      </c>
+      <c r="GS13">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="P2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="R2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="P3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="R3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="P4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="R4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="P5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="R5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="AP5" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="P6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="R6" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="AP6" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="P7" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="R7" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="AP7" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="P8" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="R8" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="P9" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="R9" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="P10" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="R10" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="AP10" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="P11" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="R11" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="P12" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="R12" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="AP12" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="P13" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="R13" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/excel_files/accurates_geocoded.xlsx
+++ b/excel_files/accurates_geocoded.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexpiazza/Desktop/for_db/excel_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3793D4D-4124-D545-A2EE-39B13AE1287F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D11BCB-1496-A946-8213-9D9829A2E5CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1958,14 +1958,21 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1995,12 +2002,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2305,8 +2314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:GM13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="GA1" workbookViewId="0">
-      <selection activeCell="GP15" sqref="GP15"/>
+    <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
+      <selection activeCell="AS12" sqref="AS12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2314,6 +2323,10 @@
     <col min="1" max="1" width="25.83203125" customWidth="1"/>
     <col min="3" max="3" width="40.6640625" customWidth="1"/>
     <col min="4" max="4" width="27.83203125" customWidth="1"/>
+    <col min="19" max="19" width="16.33203125" customWidth="1"/>
+    <col min="42" max="42" width="16.6640625" customWidth="1"/>
+    <col min="44" max="44" width="21.33203125" customWidth="1"/>
+    <col min="45" max="45" width="18.6640625" customWidth="1"/>
     <col min="196" max="196" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6839,844 +6852,844 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:195" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="12" spans="1:195" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>550</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="3">
         <v>6</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="3">
         <v>12.4</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="4">
         <v>44027</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="4">
         <v>44195</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="3">
         <v>42743</v>
       </c>
-      <c r="M12" s="2">
+      <c r="M12" s="4">
         <v>43957</v>
       </c>
-      <c r="N12" t="b">
-        <v>0</v>
-      </c>
-      <c r="O12" t="s">
+      <c r="N12" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3" t="s">
         <v>553</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="Q12" s="3" t="s">
         <v>554</v>
       </c>
-      <c r="R12" t="s">
+      <c r="R12" s="3" t="s">
         <v>555</v>
       </c>
-      <c r="S12" t="s">
+      <c r="S12" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
-      <c r="U12" t="b">
-        <v>0</v>
-      </c>
-      <c r="W12">
+      <c r="T12" s="3">
+        <v>0</v>
+      </c>
+      <c r="U12" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="W12" s="3">
         <v>40</v>
       </c>
-      <c r="X12">
+      <c r="X12" s="3">
         <v>6</v>
       </c>
-      <c r="Y12">
+      <c r="Y12" s="3">
         <v>6</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="Z12" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AA12" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AB12" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="AC12">
+      <c r="AC12" s="3">
         <v>42743</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AD12" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AE12" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="AF12" t="s">
+      <c r="AF12" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="AG12" t="s">
+      <c r="AG12" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="AH12" t="s">
+      <c r="AH12" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="AI12">
+      <c r="AI12" s="3">
         <v>42743</v>
       </c>
-      <c r="AJ12" t="s">
+      <c r="AJ12" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="AK12">
+      <c r="AK12" s="3">
         <v>6</v>
       </c>
-      <c r="AL12">
-        <v>1</v>
-      </c>
-      <c r="AM12" t="s">
+      <c r="AL12" s="3">
+        <v>1</v>
+      </c>
+      <c r="AM12" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="AN12" t="s">
+      <c r="AN12" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="AO12" t="s">
+      <c r="AO12" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="AP12" t="s">
+      <c r="AP12" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="AQ12" t="s">
+      <c r="AQ12" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="AR12" t="s">
+      <c r="AR12" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="AS12">
+      <c r="AS12" s="3">
         <v>42743</v>
       </c>
-      <c r="AU12">
+      <c r="AU12" s="3">
         <v>12709324115</v>
       </c>
-      <c r="AV12">
+      <c r="AV12" s="3">
         <v>12704054107</v>
       </c>
-      <c r="AW12">
+      <c r="AW12" s="3">
         <v>15</v>
       </c>
-      <c r="AX12" s="2">
+      <c r="AX12" s="4">
         <v>43973</v>
       </c>
-      <c r="AY12" t="s">
+      <c r="AY12" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="AZ12" t="s">
+      <c r="AZ12" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="BE12" t="s">
+      <c r="BE12" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="BF12">
-        <v>1</v>
-      </c>
-      <c r="BG12">
+      <c r="BF12" s="3">
+        <v>1</v>
+      </c>
+      <c r="BG12" s="3">
         <v>-85.553642999999994</v>
       </c>
-      <c r="BH12">
+      <c r="BH12" s="3">
         <v>37.136344999999999</v>
       </c>
-      <c r="BI12" t="s">
+      <c r="BI12" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="BJ12">
-        <v>1</v>
-      </c>
-      <c r="BK12">
+      <c r="BJ12" s="3">
+        <v>1</v>
+      </c>
+      <c r="BK12" s="3">
         <v>-85.537625000000006</v>
       </c>
-      <c r="BL12">
+      <c r="BL12" s="3">
         <v>37.147455999999998</v>
       </c>
-      <c r="BP12">
-        <v>0</v>
-      </c>
-      <c r="BQ12">
-        <v>0</v>
-      </c>
-      <c r="BR12">
-        <v>0</v>
-      </c>
-      <c r="BS12">
-        <v>1</v>
-      </c>
-      <c r="BU12" t="s">
+      <c r="BP12" s="3">
+        <v>0</v>
+      </c>
+      <c r="BQ12" s="3">
+        <v>0</v>
+      </c>
+      <c r="BR12" s="3">
+        <v>0</v>
+      </c>
+      <c r="BS12" s="3">
+        <v>1</v>
+      </c>
+      <c r="BU12" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="BW12" t="s">
+      <c r="BW12" s="3" t="s">
         <v>560</v>
       </c>
-      <c r="BX12" t="s">
+      <c r="BX12" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="BY12" t="s">
+      <c r="BY12" s="3" t="s">
         <v>561</v>
       </c>
-      <c r="CA12" t="s">
+      <c r="CA12" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="CB12" t="s">
+      <c r="CB12" s="3" t="s">
         <v>563</v>
       </c>
-      <c r="CC12" t="s">
+      <c r="CC12" s="3" t="s">
         <v>564</v>
       </c>
-      <c r="CD12" t="s">
+      <c r="CD12" s="3" t="s">
         <v>565</v>
       </c>
-      <c r="CF12">
+      <c r="CF12" s="3">
         <v>10151</v>
       </c>
-      <c r="CH12" t="s">
+      <c r="CH12" s="3" t="s">
         <v>566</v>
       </c>
-      <c r="CM12" t="s">
+      <c r="CM12" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="CN12">
-        <v>0</v>
-      </c>
-      <c r="CO12">
-        <v>0</v>
-      </c>
-      <c r="CQ12" s="2">
+      <c r="CN12" s="3">
+        <v>0</v>
+      </c>
+      <c r="CO12" s="3">
+        <v>0</v>
+      </c>
+      <c r="CQ12" s="4">
         <v>44007</v>
       </c>
-      <c r="CR12" t="s">
+      <c r="CR12" s="3" t="s">
         <v>568</v>
       </c>
-      <c r="CS12">
-        <v>0</v>
-      </c>
-      <c r="CT12">
-        <v>0</v>
-      </c>
-      <c r="CU12" t="s">
+      <c r="CS12" s="3">
+        <v>0</v>
+      </c>
+      <c r="CT12" s="3">
+        <v>0</v>
+      </c>
+      <c r="CU12" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="CV12">
-        <v>0</v>
-      </c>
-      <c r="CZ12" t="s">
+      <c r="CV12" s="3">
+        <v>0</v>
+      </c>
+      <c r="CZ12" s="3" t="s">
         <v>569</v>
       </c>
-      <c r="DC12" t="s">
+      <c r="DC12" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="DF12" t="s">
+      <c r="DF12" s="3" t="s">
         <v>569</v>
       </c>
-      <c r="DH12" t="s">
+      <c r="DH12" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="DI12" t="s">
+      <c r="DI12" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="DJ12" t="s">
+      <c r="DJ12" s="3" t="s">
         <v>570</v>
       </c>
-      <c r="DK12" t="s">
+      <c r="DK12" s="3" t="s">
         <v>571</v>
       </c>
-      <c r="DL12" t="s">
+      <c r="DL12" s="3" t="s">
         <v>486</v>
       </c>
-      <c r="DM12" t="s">
+      <c r="DM12" s="3" t="s">
         <v>572</v>
       </c>
-      <c r="DO12" t="s">
+      <c r="DO12" s="3" t="s">
         <v>573</v>
       </c>
-      <c r="DQ12">
+      <c r="DQ12" s="3">
         <v>42123</v>
       </c>
-      <c r="DS12" t="s">
+      <c r="DS12" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="DW12">
-        <v>1</v>
-      </c>
-      <c r="DX12">
-        <v>1</v>
-      </c>
-      <c r="DY12">
-        <v>0</v>
-      </c>
-      <c r="EA12">
-        <v>1</v>
-      </c>
-      <c r="EB12">
+      <c r="DW12" s="3">
+        <v>1</v>
+      </c>
+      <c r="DX12" s="3">
+        <v>1</v>
+      </c>
+      <c r="DY12" s="3">
+        <v>0</v>
+      </c>
+      <c r="EA12" s="3">
+        <v>1</v>
+      </c>
+      <c r="EB12" s="3">
         <v>7</v>
       </c>
-      <c r="EC12">
-        <v>0</v>
-      </c>
-      <c r="ED12" t="s">
+      <c r="EC12" s="3">
+        <v>0</v>
+      </c>
+      <c r="ED12" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="EE12" t="s">
+      <c r="EE12" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="EF12">
-        <v>0</v>
-      </c>
-      <c r="EG12">
-        <v>1</v>
-      </c>
-      <c r="EH12">
-        <v>0</v>
-      </c>
-      <c r="EI12">
-        <v>0</v>
-      </c>
-      <c r="EJ12" t="s">
+      <c r="EF12" s="3">
+        <v>0</v>
+      </c>
+      <c r="EG12" s="3">
+        <v>1</v>
+      </c>
+      <c r="EH12" s="3">
+        <v>0</v>
+      </c>
+      <c r="EI12" s="3">
+        <v>0</v>
+      </c>
+      <c r="EJ12" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="EK12">
-        <v>0</v>
-      </c>
-      <c r="EL12" t="s">
+      <c r="EK12" s="3">
+        <v>0</v>
+      </c>
+      <c r="EL12" s="3" t="s">
         <v>575</v>
       </c>
-      <c r="EM12">
+      <c r="EM12" s="3">
         <v>50</v>
       </c>
-      <c r="EN12">
-        <v>1</v>
-      </c>
-      <c r="EP12">
-        <v>0</v>
-      </c>
-      <c r="EQ12">
+      <c r="EN12" s="3">
+        <v>1</v>
+      </c>
+      <c r="EP12" s="3">
+        <v>0</v>
+      </c>
+      <c r="EQ12" s="3">
         <v>55</v>
       </c>
-      <c r="ER12">
+      <c r="ER12" s="3">
         <v>55</v>
       </c>
-      <c r="ES12">
+      <c r="ES12" s="3">
         <v>7</v>
       </c>
-      <c r="EU12">
+      <c r="EU12" s="3">
         <v>1121</v>
       </c>
-      <c r="EV12" t="s">
+      <c r="EV12" s="3" t="s">
         <v>576</v>
       </c>
-      <c r="EW12" t="s">
+      <c r="EW12" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="EX12">
-        <v>0</v>
-      </c>
-      <c r="FA12" t="b">
-        <v>0</v>
-      </c>
-      <c r="FE12" t="s">
+      <c r="EX12" s="3">
+        <v>0</v>
+      </c>
+      <c r="FA12" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="FE12" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="FF12">
-        <v>0</v>
-      </c>
-      <c r="FN12">
-        <v>1</v>
-      </c>
-      <c r="FO12" s="2">
+      <c r="FF12" s="3">
+        <v>0</v>
+      </c>
+      <c r="FN12" s="3">
+        <v>1</v>
+      </c>
+      <c r="FO12" s="4">
         <v>44058</v>
       </c>
-      <c r="FP12" s="2">
+      <c r="FP12" s="4">
         <v>44347</v>
       </c>
-      <c r="FQ12">
+      <c r="FQ12" s="3">
         <v>5</v>
       </c>
-      <c r="FR12" t="s">
+      <c r="FR12" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="FS12" t="s">
+      <c r="FS12" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="FT12" t="s">
+      <c r="FT12" s="3" t="s">
         <v>566</v>
       </c>
-      <c r="FU12">
-        <v>0</v>
-      </c>
-      <c r="FW12">
-        <v>0</v>
-      </c>
-      <c r="FX12">
-        <v>0</v>
-      </c>
-      <c r="FZ12">
+      <c r="FU12" s="3">
+        <v>0</v>
+      </c>
+      <c r="FW12" s="3">
+        <v>0</v>
+      </c>
+      <c r="FX12" s="3">
+        <v>0</v>
+      </c>
+      <c r="FZ12" s="3">
         <v>7</v>
       </c>
-      <c r="GA12">
-        <v>0</v>
-      </c>
-      <c r="GB12">
-        <v>1</v>
-      </c>
-      <c r="GE12">
-        <v>1</v>
-      </c>
-      <c r="GF12">
-        <v>0</v>
-      </c>
-      <c r="GG12">
+      <c r="GA12" s="3">
+        <v>0</v>
+      </c>
+      <c r="GB12" s="3">
+        <v>1</v>
+      </c>
+      <c r="GE12" s="3">
+        <v>1</v>
+      </c>
+      <c r="GF12" s="3">
+        <v>0</v>
+      </c>
+      <c r="GG12" s="3">
         <v>7</v>
       </c>
-      <c r="GI12" t="s">
+      <c r="GI12" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="GJ12" t="s">
+      <c r="GJ12" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="GK12">
+      <c r="GK12" s="3">
         <v>7</v>
       </c>
-      <c r="GM12">
+      <c r="GM12" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:195" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="13" spans="1:195" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
         <v>577</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="3" t="s">
         <v>578</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="3">
         <v>125</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="3">
         <v>14.29</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="3" t="s">
         <v>580</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="4">
         <v>44021</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="4">
         <v>44135</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" s="3" t="s">
         <v>581</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" s="3" t="s">
         <v>579</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="3">
         <v>4769</v>
       </c>
-      <c r="M13" s="2">
+      <c r="M13" s="4">
         <v>43955</v>
       </c>
-      <c r="N13" t="b">
-        <v>1</v>
-      </c>
-      <c r="O13" t="s">
+      <c r="N13" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O13" s="3" t="s">
         <v>582</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="Q13" s="3" t="s">
         <v>583</v>
       </c>
-      <c r="R13" t="s">
+      <c r="R13" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="S13" t="s">
+      <c r="S13" s="3" t="s">
         <v>585</v>
       </c>
-      <c r="T13">
+      <c r="T13" s="3">
         <v>3</v>
       </c>
-      <c r="U13" t="b">
-        <v>0</v>
-      </c>
-      <c r="W13">
+      <c r="U13" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
         <v>54</v>
       </c>
-      <c r="X13">
+      <c r="X13" s="3">
         <v>125</v>
       </c>
-      <c r="Y13">
+      <c r="Y13" s="3">
         <v>185</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="Z13" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AA13" s="3" t="s">
         <v>581</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AB13" s="3" t="s">
         <v>587</v>
       </c>
-      <c r="AC13">
+      <c r="AC13" s="3">
         <v>4769</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AD13" s="3" t="s">
         <v>588</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AE13" s="3" t="s">
         <v>589</v>
       </c>
-      <c r="AF13" t="s">
+      <c r="AF13" s="3" t="s">
         <v>590</v>
       </c>
-      <c r="AG13" t="s">
+      <c r="AG13" s="3" t="s">
         <v>591</v>
       </c>
-      <c r="AH13" t="s">
+      <c r="AH13" s="3" t="s">
         <v>592</v>
       </c>
-      <c r="AI13">
+      <c r="AI13" s="3">
         <v>4787</v>
       </c>
-      <c r="AJ13" t="s">
+      <c r="AJ13" s="3" t="s">
         <v>588</v>
       </c>
-      <c r="AK13">
+      <c r="AK13" s="3">
         <v>120</v>
       </c>
-      <c r="AL13">
-        <v>1</v>
-      </c>
-      <c r="AN13" t="s">
+      <c r="AL13" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN13" s="3" t="s">
         <v>593</v>
       </c>
-      <c r="AO13" t="s">
+      <c r="AO13" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="AP13" t="s">
+      <c r="AP13" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="AQ13" t="s">
+      <c r="AQ13" s="3" t="s">
         <v>581</v>
       </c>
-      <c r="AR13" t="s">
+      <c r="AR13" s="3" t="s">
         <v>579</v>
       </c>
-      <c r="AS13">
+      <c r="AS13" s="3">
         <v>4769</v>
       </c>
-      <c r="AU13">
+      <c r="AU13" s="3">
         <v>12077644540</v>
       </c>
-      <c r="AV13">
+      <c r="AV13" s="3">
         <v>12077644540</v>
       </c>
-      <c r="AW13">
+      <c r="AW13" s="3">
         <v>15</v>
       </c>
-      <c r="AX13" s="2">
+      <c r="AX13" s="4">
         <v>43973</v>
       </c>
-      <c r="AY13" t="s">
+      <c r="AY13" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="AZ13" t="s">
+      <c r="AZ13" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="BE13" t="s">
+      <c r="BE13" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="BF13">
-        <v>1</v>
-      </c>
-      <c r="BG13">
+      <c r="BF13" s="3">
+        <v>1</v>
+      </c>
+      <c r="BG13" s="3">
         <v>-67.971785999999994</v>
       </c>
-      <c r="BH13">
+      <c r="BH13" s="3">
         <v>46.697136</v>
       </c>
-      <c r="BI13" t="s">
+      <c r="BI13" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="BJ13">
-        <v>1</v>
-      </c>
-      <c r="BK13">
+      <c r="BJ13" s="3">
+        <v>1</v>
+      </c>
+      <c r="BK13" s="3">
         <v>-67.959886999999995</v>
       </c>
-      <c r="BL13">
+      <c r="BL13" s="3">
         <v>46.585084000000002</v>
       </c>
-      <c r="BP13">
-        <v>0</v>
-      </c>
-      <c r="BQ13">
-        <v>1</v>
-      </c>
-      <c r="BR13">
-        <v>1</v>
-      </c>
-      <c r="BS13">
-        <v>1</v>
-      </c>
-      <c r="BU13" t="s">
+      <c r="BP13" s="3">
+        <v>0</v>
+      </c>
+      <c r="BQ13" s="3">
+        <v>1</v>
+      </c>
+      <c r="BR13" s="3">
+        <v>1</v>
+      </c>
+      <c r="BS13" s="3">
+        <v>1</v>
+      </c>
+      <c r="BU13" s="3" t="s">
         <v>595</v>
       </c>
-      <c r="BW13" t="s">
+      <c r="BW13" s="3" t="s">
         <v>596</v>
       </c>
-      <c r="BX13" t="s">
+      <c r="BX13" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="BY13" t="s">
+      <c r="BY13" s="3" t="s">
         <v>597</v>
       </c>
-      <c r="CA13" t="s">
+      <c r="CA13" s="3" t="s">
         <v>598</v>
       </c>
-      <c r="CB13" t="s">
+      <c r="CB13" s="3" t="s">
         <v>599</v>
       </c>
-      <c r="CC13" t="s">
+      <c r="CC13" s="3" t="s">
         <v>600</v>
       </c>
-      <c r="CD13" t="s">
+      <c r="CD13" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="CE13">
+      <c r="CE13" s="3">
         <v>105</v>
       </c>
-      <c r="CF13">
+      <c r="CF13" s="3">
         <v>77414</v>
       </c>
-      <c r="CH13" t="s">
+      <c r="CH13" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="CM13" t="s">
+      <c r="CM13" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="CN13">
-        <v>0</v>
-      </c>
-      <c r="CO13">
-        <v>0</v>
-      </c>
-      <c r="CQ13" s="2">
+      <c r="CN13" s="3">
+        <v>0</v>
+      </c>
+      <c r="CO13" s="3">
+        <v>0</v>
+      </c>
+      <c r="CQ13" s="4">
         <v>44007</v>
       </c>
-      <c r="CR13" t="s">
+      <c r="CR13" s="3" t="s">
         <v>602</v>
       </c>
-      <c r="CS13">
-        <v>0</v>
-      </c>
-      <c r="CT13">
-        <v>1</v>
-      </c>
-      <c r="CU13" t="s">
+      <c r="CS13" s="3">
+        <v>0</v>
+      </c>
+      <c r="CT13" s="3">
+        <v>1</v>
+      </c>
+      <c r="CU13" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="CV13">
-        <v>0</v>
-      </c>
-      <c r="CZ13" t="s">
+      <c r="CV13" s="3">
+        <v>0</v>
+      </c>
+      <c r="CZ13" s="3" t="s">
         <v>603</v>
       </c>
-      <c r="DA13" t="s">
+      <c r="DA13" s="3" t="s">
         <v>604</v>
       </c>
-      <c r="DC13" t="s">
+      <c r="DC13" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="DF13" t="s">
+      <c r="DF13" s="3" t="s">
         <v>603</v>
       </c>
-      <c r="DG13" t="s">
+      <c r="DG13" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="DH13" t="s">
+      <c r="DH13" s="3" t="s">
         <v>606</v>
       </c>
-      <c r="DI13" t="s">
+      <c r="DI13" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="DJ13" t="s">
+      <c r="DJ13" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="DK13" t="s">
+      <c r="DK13" s="3" t="s">
         <v>608</v>
       </c>
-      <c r="DL13" t="s">
+      <c r="DL13" s="3" t="s">
         <v>486</v>
       </c>
-      <c r="DM13" t="s">
+      <c r="DM13" s="3" t="s">
         <v>609</v>
       </c>
-      <c r="DN13" t="s">
+      <c r="DN13" s="3" t="s">
         <v>610</v>
       </c>
-      <c r="DO13" t="s">
+      <c r="DO13" s="3" t="s">
         <v>611</v>
       </c>
-      <c r="DQ13">
+      <c r="DQ13" s="3">
         <v>7930</v>
       </c>
-      <c r="DS13" t="s">
+      <c r="DS13" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="DW13">
-        <v>1</v>
-      </c>
-      <c r="DX13">
-        <v>0</v>
-      </c>
-      <c r="DY13">
-        <v>1</v>
-      </c>
-      <c r="EA13">
-        <v>1</v>
-      </c>
-      <c r="EB13">
+      <c r="DW13" s="3">
+        <v>1</v>
+      </c>
+      <c r="DX13" s="3">
+        <v>0</v>
+      </c>
+      <c r="DY13" s="3">
+        <v>1</v>
+      </c>
+      <c r="EA13" s="3">
+        <v>1</v>
+      </c>
+      <c r="EB13" s="3">
         <v>10</v>
       </c>
-      <c r="EC13">
-        <v>0</v>
-      </c>
-      <c r="ED13" t="s">
+      <c r="EC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="ED13" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="EE13" t="s">
+      <c r="EE13" s="3" t="s">
         <v>612</v>
       </c>
-      <c r="EF13">
-        <v>1</v>
-      </c>
-      <c r="EG13">
-        <v>1</v>
-      </c>
-      <c r="EH13">
-        <v>1</v>
-      </c>
-      <c r="EI13">
-        <v>0</v>
-      </c>
-      <c r="EJ13" t="s">
+      <c r="EF13" s="3">
+        <v>1</v>
+      </c>
+      <c r="EG13" s="3">
+        <v>1</v>
+      </c>
+      <c r="EH13" s="3">
+        <v>1</v>
+      </c>
+      <c r="EI13" s="3">
+        <v>0</v>
+      </c>
+      <c r="EJ13" s="3" t="s">
         <v>613</v>
       </c>
-      <c r="EK13">
-        <v>0</v>
-      </c>
-      <c r="EL13" t="s">
+      <c r="EK13" s="3">
+        <v>0</v>
+      </c>
+      <c r="EL13" s="3" t="s">
         <v>614</v>
       </c>
-      <c r="EM13">
+      <c r="EM13" s="3">
         <v>60</v>
       </c>
-      <c r="EN13">
-        <v>1</v>
-      </c>
-      <c r="EP13">
-        <v>0</v>
-      </c>
-      <c r="EQ13">
+      <c r="EN13" s="3">
+        <v>1</v>
+      </c>
+      <c r="EP13" s="3">
+        <v>0</v>
+      </c>
+      <c r="EQ13" s="3">
         <v>55</v>
       </c>
-      <c r="ER13">
+      <c r="ER13" s="3">
         <v>12.68</v>
       </c>
-      <c r="ES13">
+      <c r="ES13" s="3">
         <v>10</v>
       </c>
-      <c r="EU13">
+      <c r="EU13" s="3">
         <v>1113</v>
       </c>
-      <c r="EW13" t="s">
+      <c r="EW13" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="EX13">
-        <v>0</v>
-      </c>
-      <c r="FA13" t="b">
-        <v>1</v>
-      </c>
-      <c r="FE13" t="s">
+      <c r="EX13" s="3">
+        <v>0</v>
+      </c>
+      <c r="FA13" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="FE13" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="FN13">
-        <v>1</v>
-      </c>
-      <c r="FO13" s="2">
+      <c r="FN13" s="3">
+        <v>1</v>
+      </c>
+      <c r="FO13" s="4">
         <v>44060</v>
       </c>
-      <c r="FP13" s="2">
+      <c r="FP13" s="4">
         <v>44157</v>
       </c>
-      <c r="FQ13">
+      <c r="FQ13" s="3">
         <v>10</v>
       </c>
-      <c r="FR13" t="s">
+      <c r="FR13" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="FS13" t="s">
+      <c r="FS13" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="FU13">
+      <c r="FU13" s="3">
         <v>10</v>
       </c>
-      <c r="FW13">
-        <v>0</v>
-      </c>
-      <c r="FX13">
-        <v>0</v>
-      </c>
-      <c r="FZ13">
+      <c r="FW13" s="3">
+        <v>0</v>
+      </c>
+      <c r="FX13" s="3">
+        <v>0</v>
+      </c>
+      <c r="FZ13" s="3">
         <v>10</v>
       </c>
-      <c r="GA13">
+      <c r="GA13" s="3">
         <v>5</v>
       </c>
-      <c r="GB13">
+      <c r="GB13" s="3">
         <v>2</v>
       </c>
-      <c r="GD13">
+      <c r="GD13" s="3">
         <v>8</v>
       </c>
-      <c r="GE13">
+      <c r="GE13" s="3">
         <v>3</v>
       </c>
-      <c r="GF13">
-        <v>0</v>
-      </c>
-      <c r="GG13">
+      <c r="GF13" s="3">
+        <v>0</v>
+      </c>
+      <c r="GG13" s="3">
         <v>10</v>
       </c>
-      <c r="GI13" t="s">
+      <c r="GI13" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="GJ13" t="s">
+      <c r="GJ13" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="GK13">
+      <c r="GK13" s="3">
         <v>10</v>
       </c>
-      <c r="GM13">
+      <c r="GM13" s="3">
         <v>0</v>
       </c>
     </row>
